--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="720" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="980" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="360">
   <si>
     <t>Communication:</t>
   </si>
@@ -151,12 +152,6 @@
     <t xml:space="preserve"> calendar </t>
   </si>
   <si>
-    <t xml:space="preserve"> availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> price for each available day</t>
-  </si>
-  <si>
     <t xml:space="preserve"> response stats:</t>
   </si>
   <si>
@@ -172,9 +167,6 @@
     <t xml:space="preserve"> map location </t>
   </si>
   <si>
-    <t xml:space="preserve"> boat requests response stats:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> total requests</t>
   </si>
   <si>
@@ -736,9 +728,6 @@
     <t>(e.g. can’t drive at night)</t>
   </si>
   <si>
-    <t xml:space="preserve"> boat info response stats </t>
-  </si>
-  <si>
     <t>(info about the boat or other info)</t>
   </si>
   <si>
@@ -1091,6 +1080,27 @@
   </si>
   <si>
     <t>to know if this is a charter insurance</t>
+  </si>
+  <si>
+    <t>captain requests response stats:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">captain info response stats </t>
+  </si>
+  <si>
+    <t>permission levels</t>
+  </si>
+  <si>
+    <t>user nelogat</t>
+  </si>
+  <si>
+    <t>user logat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specific pt user </t>
+  </si>
+  <si>
+    <t>(personal info)</t>
   </si>
 </sst>
 </file>
@@ -1282,11 +1292,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="272">
+  <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1605,7 +1617,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="272">
+  <cellStyles count="274">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1742,6 +1754,7 @@
     <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1877,6 +1890,7 @@
     <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2209,11 +2223,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M314"/>
+  <dimension ref="A1:M312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H299" sqref="H299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2231,14 +2245,14 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G1" s="7">
         <v>1</v>
@@ -2258,35 +2272,35 @@
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="K3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
@@ -2294,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -2313,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
@@ -2327,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I6" s="14">
         <v>1</v>
@@ -2341,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I7" s="14">
         <v>1</v>
@@ -2355,13 +2369,13 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I8" s="14">
         <v>1850</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2369,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I9" s="14">
         <v>1</v>
@@ -2383,7 +2397,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -2397,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I11" s="14">
         <v>1</v>
@@ -2411,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I12" s="14">
         <v>1850</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2425,7 +2439,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I13" s="14">
         <v>0</v>
@@ -2434,15 +2448,15 @@
         <v>200</v>
       </c>
       <c r="K13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I14" s="14">
         <v>3</v>
@@ -2451,15 +2465,15 @@
         <v>300</v>
       </c>
       <c r="K14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="C15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I15" s="14">
         <v>3</v>
@@ -2468,15 +2482,15 @@
         <v>300</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="C16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
@@ -2485,18 +2499,18 @@
         <v>100000</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="3:13">
       <c r="C17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I17" s="14">
         <v>0</v>
@@ -2505,7 +2519,7 @@
         <v>300</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="3:13">
@@ -2513,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -2527,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I19" s="14">
         <v>0</v>
@@ -2541,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I20" s="14">
         <v>1</v>
@@ -2552,21 +2566,21 @@
     </row>
     <row r="21" spans="3:13">
       <c r="C21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="3:13">
       <c r="C22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I22" s="14">
         <v>1</v>
@@ -2575,10 +2589,10 @@
         <v>250</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="3:13">
@@ -2586,50 +2600,50 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="3:13">
       <c r="C24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I24" s="14">
         <v>0</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="3:13">
       <c r="C25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I25" s="14">
         <v>0</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="3:13">
@@ -2637,13 +2651,13 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="3:13">
@@ -2651,10 +2665,10 @@
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="3:13">
@@ -2662,10 +2676,10 @@
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="3:13">
@@ -2673,10 +2687,10 @@
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="3:13">
@@ -2684,10 +2698,10 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="3:13">
@@ -2695,10 +2709,10 @@
         <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:13">
@@ -2706,10 +2720,10 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="3:13">
@@ -2717,10 +2731,10 @@
         <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="3:13">
@@ -2733,13 +2747,13 @@
         <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="3:13">
@@ -2747,29 +2761,29 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="3:13">
       <c r="D37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="3:13">
       <c r="D38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="3:13">
@@ -2777,7 +2791,7 @@
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I39" s="14">
         <v>1</v>
@@ -2791,26 +2805,26 @@
         <v>28</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="3:13">
       <c r="C41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="3:13">
@@ -2818,7 +2832,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I42" s="14">
         <v>1</v>
@@ -2827,7 +2841,7 @@
         <v>4096</v>
       </c>
       <c r="M42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="3:13">
@@ -2835,10 +2849,10 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="3:13">
@@ -2846,10 +2860,10 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="3:13">
@@ -2857,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I45" s="14">
         <v>1</v>
@@ -2871,10 +2885,10 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="3:13">
@@ -2882,7 +2896,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I47" s="14">
         <v>1</v>
@@ -2891,7 +2905,7 @@
         <v>200</v>
       </c>
       <c r="M47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="3:13">
@@ -2904,13 +2918,13 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K49" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M49" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2918,10 +2932,10 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K50" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2929,10 +2943,10 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K51" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2940,13 +2954,13 @@
         <v>39</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M52" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2954,38 +2968,38 @@
         <v>42</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K53" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="C54" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I54" s="14">
         <v>0</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M54" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="C55" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -3001,12 +3015,12 @@
     <row r="56" spans="1:13">
       <c r="C56" s="23"/>
       <c r="D56" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="24">
@@ -3018,18 +3032,18 @@
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
       <c r="M56" s="23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="C57" s="23"/>
       <c r="D57" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="24">
@@ -3045,12 +3059,12 @@
     <row r="58" spans="1:13">
       <c r="C58" s="23"/>
       <c r="D58" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H58" s="23"/>
       <c r="I58" s="24">
@@ -3060,7 +3074,7 @@
         <v>48</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
@@ -3071,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3087,21 +3101,21 @@
     </row>
     <row r="61" spans="1:13" ht="16" thickTop="1">
       <c r="C61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M61" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="C62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I62" s="14">
         <v>1</v>
@@ -3112,21 +3126,21 @@
     </row>
     <row r="63" spans="1:13">
       <c r="C63" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M63" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="C64" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I64" s="14">
         <v>1</v>
@@ -3135,15 +3149,15 @@
         <v>4096</v>
       </c>
       <c r="M64" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="3:13">
       <c r="C65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G65" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I65" s="14">
         <v>1</v>
@@ -3152,48 +3166,48 @@
         <v>4096</v>
       </c>
       <c r="M65" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="3:13">
       <c r="C66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="3:13">
       <c r="D67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G67" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="3:13">
       <c r="D68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="3:13">
       <c r="C69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="3:13">
@@ -3206,10 +3220,10 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="3:13">
@@ -3217,7 +3231,7 @@
         <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I72" s="14">
         <v>0</v>
@@ -3230,165 +3244,214 @@
       <c r="C73" t="s">
         <v>42</v>
       </c>
+      <c r="G73" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="K73" t="s">
+        <v>326</v>
+      </c>
+      <c r="M73" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="74" spans="3:13">
-      <c r="D74" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s">
-        <v>188</v>
+      <c r="C74" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="3:13">
       <c r="D75" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="3:13">
-      <c r="C76" t="s">
-        <v>50</v>
+      <c r="D76" t="s">
+        <v>49</v>
+      </c>
+      <c r="G76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="3:13">
       <c r="D77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="K77" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="3:13">
-      <c r="D78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" t="s">
-        <v>183</v>
-      </c>
+      <c r="D78" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H78" s="23"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
     </row>
     <row r="79" spans="3:13">
-      <c r="D79" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" t="s">
-        <v>183</v>
-      </c>
-      <c r="K79" t="s">
-        <v>217</v>
-      </c>
+      <c r="D79" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" s="23"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
     </row>
     <row r="80" spans="3:13">
-      <c r="D80" t="s">
-        <v>46</v>
-      </c>
-      <c r="G80" t="s">
-        <v>184</v>
-      </c>
-      <c r="K80" t="s">
-        <v>242</v>
+      <c r="C80" t="s">
+        <v>354</v>
+      </c>
+      <c r="M80" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="D81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
-        <v>184</v>
-      </c>
-      <c r="K81" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="C82" t="s">
-        <v>238</v>
-      </c>
-      <c r="M82" t="s">
-        <v>239</v>
+      <c r="D82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="D83" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>180</v>
+      </c>
+      <c r="K83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="D84" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H84" s="23"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="D85" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H85" s="23"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+    </row>
+    <row r="87" spans="1:13" ht="16" thickBot="1">
+      <c r="A87" s="3">
+        <f>COUNTA($A$4:A86)+1</f>
+        <v>3</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" ht="16" thickTop="1">
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="D89" t="s">
         <v>51</v>
       </c>
-      <c r="G83" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="D84" t="s">
+      <c r="G89" t="s">
+        <v>182</v>
+      </c>
+      <c r="I89" s="14">
+        <v>1</v>
+      </c>
+      <c r="J89" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="D90" t="s">
         <v>52</v>
       </c>
-      <c r="G84" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="D85" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" t="s">
-        <v>183</v>
-      </c>
-      <c r="K85" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="D86" t="s">
-        <v>46</v>
-      </c>
-      <c r="G86" t="s">
-        <v>184</v>
-      </c>
-      <c r="K86" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="D87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" t="s">
-        <v>184</v>
-      </c>
-      <c r="K87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="16" thickBot="1">
-      <c r="A89" s="3">
-        <f>COUNTA($A$4:A88)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13" ht="16" thickTop="1">
-      <c r="C90" t="s">
-        <v>14</v>
+      <c r="G90" t="s">
+        <v>182</v>
+      </c>
+      <c r="I90" s="14">
+        <v>1</v>
+      </c>
+      <c r="J90" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="D91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I91" s="14">
         <v>1</v>
@@ -3398,11 +3461,11 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="D92" t="s">
-        <v>55</v>
+      <c r="C92" t="s">
+        <v>54</v>
       </c>
       <c r="G92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I92" s="14">
         <v>1</v>
@@ -3412,52 +3475,52 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="D93" t="s">
-        <v>56</v>
+      <c r="C93" t="s">
+        <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>185</v>
-      </c>
-      <c r="I93" s="14">
-        <v>1</v>
-      </c>
-      <c r="J93" s="14">
-        <v>256</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="C94" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="D95" t="s">
         <v>57</v>
       </c>
-      <c r="G94" t="s">
-        <v>185</v>
-      </c>
-      <c r="I94" s="14">
+      <c r="G95" t="s">
+        <v>182</v>
+      </c>
+      <c r="I95" s="14">
         <v>1</v>
       </c>
-      <c r="J94" s="14">
+      <c r="J95" s="14">
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
-      <c r="C95" t="s">
+    <row r="96" spans="1:13">
+      <c r="D96" t="s">
         <v>58</v>
       </c>
-      <c r="G95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="C96" t="s">
-        <v>59</v>
+      <c r="G96" t="s">
+        <v>182</v>
+      </c>
+      <c r="I96" s="14">
+        <v>1</v>
+      </c>
+      <c r="J96" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="3:13">
       <c r="D97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I97" s="14">
         <v>1</v>
@@ -3465,13 +3528,16 @@
       <c r="J97" s="14">
         <v>256</v>
       </c>
+      <c r="K97" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="98" spans="3:13">
       <c r="D98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I98" s="14">
         <v>1</v>
@@ -3482,27 +3548,27 @@
     </row>
     <row r="99" spans="3:13">
       <c r="D99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G99" t="s">
-        <v>185</v>
-      </c>
-      <c r="I99" s="14">
-        <v>1</v>
-      </c>
-      <c r="J99" s="14">
-        <v>256</v>
-      </c>
-      <c r="K99" t="s">
-        <v>248</v>
+        <v>180</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="M99" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="3:13">
       <c r="D100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I100" s="14">
         <v>1</v>
@@ -3510,639 +3576,636 @@
       <c r="J100" s="14">
         <v>256</v>
       </c>
+      <c r="K100" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="101" spans="3:13">
-      <c r="D101" t="s">
-        <v>64</v>
-      </c>
-      <c r="G101" t="s">
-        <v>183</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="M101" t="s">
-        <v>246</v>
+      <c r="C101" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="3:13">
       <c r="D102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13">
+      <c r="E103" t="s">
         <v>65</v>
       </c>
-      <c r="G102" t="s">
-        <v>185</v>
-      </c>
-      <c r="I102" s="14">
+      <c r="G103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13">
+      <c r="E104" t="s">
+        <v>66</v>
+      </c>
+      <c r="G104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13">
+      <c r="D105" t="s">
+        <v>67</v>
+      </c>
+      <c r="G105" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13">
+      <c r="D106" t="s">
+        <v>68</v>
+      </c>
+      <c r="G106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13">
+      <c r="C107" t="s">
+        <v>69</v>
+      </c>
+      <c r="G107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13">
+      <c r="C108" t="s">
+        <v>70</v>
+      </c>
+      <c r="G108" t="s">
+        <v>180</v>
+      </c>
+      <c r="I108" s="14">
         <v>1</v>
       </c>
-      <c r="J102" s="14">
-        <v>256</v>
-      </c>
-      <c r="K102" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103" spans="3:13">
-      <c r="C103" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="3:13">
-      <c r="D104" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="3:13">
-      <c r="E105" t="s">
-        <v>68</v>
-      </c>
-      <c r="G105" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="106" spans="3:13">
-      <c r="E106" t="s">
-        <v>69</v>
-      </c>
-      <c r="G106" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="107" spans="3:13">
-      <c r="D107" t="s">
-        <v>70</v>
-      </c>
-      <c r="G107" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="108" spans="3:13">
-      <c r="D108" t="s">
-        <v>71</v>
-      </c>
-      <c r="G108" t="s">
-        <v>183</v>
+      <c r="J108" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="K108" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="3:13">
       <c r="C109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G109" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="I109" s="14">
+        <v>0</v>
+      </c>
+      <c r="J109" s="14">
+        <v>100</v>
+      </c>
+      <c r="K109" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I110" s="14">
         <v>1</v>
       </c>
       <c r="J110" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="K110" t="s">
-        <v>249</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="111" spans="3:13">
       <c r="C111" t="s">
-        <v>74</v>
-      </c>
-      <c r="G111" t="s">
-        <v>183</v>
-      </c>
-      <c r="I111" s="14">
-        <v>0</v>
-      </c>
-      <c r="J111" s="14">
-        <v>100</v>
+        <v>72</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="K111" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="3:13">
       <c r="C112" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="G112" t="s">
-        <v>185</v>
-      </c>
-      <c r="I112" s="14">
-        <v>1</v>
-      </c>
-      <c r="J112" s="14">
-        <v>4096</v>
+        <v>187</v>
+      </c>
+      <c r="K112" t="s">
+        <v>211</v>
+      </c>
+      <c r="M112" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="C113" t="s">
-        <v>75</v>
-      </c>
-      <c r="G113" s="21" t="s">
-        <v>299</v>
+        <v>276</v>
+      </c>
+      <c r="G113" t="s">
+        <v>187</v>
       </c>
       <c r="K113" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="C114" t="s">
-        <v>291</v>
-      </c>
-      <c r="G114" t="s">
-        <v>190</v>
-      </c>
-      <c r="K114" t="s">
-        <v>214</v>
-      </c>
-      <c r="M114" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="C115" t="s">
-        <v>280</v>
-      </c>
-      <c r="G115" t="s">
-        <v>190</v>
-      </c>
-      <c r="K115" t="s">
-        <v>292</v>
-      </c>
-      <c r="M115" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="16" thickBot="1">
-      <c r="A117" s="3">
-        <f>COUNTA($A$4:A116)+1</f>
+        <v>288</v>
+      </c>
+      <c r="M113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="16" thickBot="1">
+      <c r="A115" s="3">
+        <f>COUNTA($A$4:A114)+1</f>
         <v>4</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13" ht="16" thickTop="1">
+      <c r="B115" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:13" ht="16" thickTop="1">
+      <c r="C116" t="s">
+        <v>273</v>
+      </c>
+      <c r="G116" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="C117" t="s">
+        <v>183</v>
+      </c>
+      <c r="G117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="C118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G118" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="K118" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="C119" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="G119" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="K119" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="C120" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G120" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K120" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="C121" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K121" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="C122" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G122" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K122" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="C123" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G123" t="s">
-        <v>183</v>
-      </c>
-      <c r="K123" t="s">
-        <v>277</v>
+        <v>182</v>
+      </c>
+      <c r="M123" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="C124" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K124" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="C125" t="s">
-        <v>287</v>
-      </c>
-      <c r="G125" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="16" thickBot="1">
+      <c r="A126" s="3">
+        <f>COUNTA($A$4:A125)+1</f>
+        <v>5</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+    </row>
+    <row r="127" spans="1:13" ht="16" thickTop="1">
+      <c r="C127" t="s">
+        <v>73</v>
+      </c>
+      <c r="G127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="C128" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="3:13">
+      <c r="D129" t="s">
+        <v>75</v>
+      </c>
+      <c r="G129" t="s">
+        <v>187</v>
+      </c>
+      <c r="K129" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13">
+      <c r="E130" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130" t="s">
         <v>185</v>
       </c>
-      <c r="M125" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="C126" t="s">
-        <v>288</v>
-      </c>
-      <c r="G126" t="s">
-        <v>185</v>
-      </c>
-      <c r="K126" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="16" thickBot="1">
-      <c r="A128" s="3">
-        <f>COUNTA($A$4:A127)+1</f>
-        <v>5</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-    </row>
-    <row r="129" spans="3:13" ht="16" thickTop="1">
-      <c r="C129" t="s">
-        <v>76</v>
-      </c>
-      <c r="G129" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="3:13">
-      <c r="C130" t="s">
+    </row>
+    <row r="131" spans="3:13">
+      <c r="E131" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="131" spans="3:13">
-      <c r="D131" t="s">
+      <c r="G131" t="s">
+        <v>181</v>
+      </c>
+      <c r="K131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="3:13">
+      <c r="D132" t="s">
         <v>78</v>
       </c>
-      <c r="G131" t="s">
-        <v>190</v>
-      </c>
-      <c r="K131" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="132" spans="3:13">
-      <c r="E132" t="s">
-        <v>79</v>
-      </c>
       <c r="G132" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="K132" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="3:13">
       <c r="E133" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G133" t="s">
-        <v>184</v>
-      </c>
-      <c r="K133" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="3:13">
       <c r="D134" t="s">
+        <v>289</v>
+      </c>
+      <c r="G134" t="s">
+        <v>187</v>
+      </c>
+      <c r="K134" t="s">
+        <v>202</v>
+      </c>
+      <c r="M134" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13">
+      <c r="D135" t="s">
+        <v>80</v>
+      </c>
+      <c r="G135" t="s">
+        <v>187</v>
+      </c>
+      <c r="K135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="136" spans="3:13">
+      <c r="E136" t="s">
+        <v>76</v>
+      </c>
+      <c r="G136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13">
+      <c r="E137" t="s">
         <v>81</v>
       </c>
-      <c r="G134" t="s">
-        <v>190</v>
-      </c>
-      <c r="K134" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="135" spans="3:13">
-      <c r="E135" t="s">
-        <v>79</v>
-      </c>
-      <c r="G135" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="136" spans="3:13">
-      <c r="D136" t="s">
-        <v>293</v>
-      </c>
-      <c r="G136" t="s">
-        <v>190</v>
-      </c>
-      <c r="K136" t="s">
-        <v>205</v>
-      </c>
-      <c r="M136" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="137" spans="3:13">
-      <c r="D137" t="s">
-        <v>83</v>
-      </c>
       <c r="G137" t="s">
-        <v>190</v>
-      </c>
-      <c r="K137" t="s">
-        <v>205</v>
+        <v>182</v>
+      </c>
+      <c r="I137" s="14">
+        <v>1</v>
+      </c>
+      <c r="J137" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="138" spans="3:13">
-      <c r="E138" t="s">
-        <v>79</v>
+      <c r="D138" t="s">
+        <v>247</v>
       </c>
       <c r="G138" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="K138" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="3:13">
       <c r="E139" t="s">
+        <v>82</v>
+      </c>
+      <c r="G139" t="s">
+        <v>187</v>
+      </c>
+      <c r="K139" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="3:13">
+      <c r="C140" t="s">
+        <v>83</v>
+      </c>
+      <c r="G140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="3:13">
+      <c r="C141" t="s">
         <v>84</v>
       </c>
-      <c r="G139" t="s">
+    </row>
+    <row r="142" spans="3:13">
+      <c r="D142" t="s">
+        <v>75</v>
+      </c>
+      <c r="G142" t="s">
+        <v>187</v>
+      </c>
+      <c r="K142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="3:13">
+      <c r="E143" t="s">
+        <v>76</v>
+      </c>
+      <c r="G143" t="s">
         <v>185</v>
       </c>
-      <c r="I139" s="14">
-        <v>1</v>
-      </c>
-      <c r="J139" s="14">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="140" spans="3:13">
-      <c r="D140" t="s">
-        <v>251</v>
-      </c>
-      <c r="G140" t="s">
-        <v>190</v>
-      </c>
-      <c r="K140" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="141" spans="3:13">
-      <c r="E141" t="s">
-        <v>85</v>
-      </c>
-      <c r="G141" t="s">
-        <v>190</v>
-      </c>
-      <c r="K141" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="142" spans="3:13">
-      <c r="C142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G142" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="3:13">
-      <c r="C143" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="144" spans="3:13">
-      <c r="D144" t="s">
+      <c r="E144" t="s">
+        <v>77</v>
+      </c>
+      <c r="G144" t="s">
+        <v>181</v>
+      </c>
+      <c r="K144" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="3:11">
+      <c r="D145" t="s">
         <v>78</v>
       </c>
-      <c r="G144" t="s">
-        <v>190</v>
-      </c>
-      <c r="K144" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="145" spans="3:11">
-      <c r="E145" t="s">
-        <v>79</v>
-      </c>
       <c r="G145" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="K145" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="3:11">
       <c r="E146" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G146" t="s">
-        <v>184</v>
-      </c>
-      <c r="K146" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="3:11">
       <c r="D147" t="s">
+        <v>79</v>
+      </c>
+      <c r="G147" t="s">
+        <v>187</v>
+      </c>
+      <c r="K147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="3:11">
+      <c r="D148" t="s">
+        <v>80</v>
+      </c>
+      <c r="G148" t="s">
+        <v>187</v>
+      </c>
+      <c r="K148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="3:11">
+      <c r="E149" t="s">
+        <v>76</v>
+      </c>
+      <c r="G149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="3:11">
+      <c r="E150" t="s">
         <v>81</v>
       </c>
-      <c r="G147" t="s">
-        <v>190</v>
-      </c>
-      <c r="K147" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="148" spans="3:11">
-      <c r="E148" t="s">
-        <v>79</v>
-      </c>
-      <c r="G148" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" spans="3:11">
-      <c r="D149" t="s">
-        <v>82</v>
-      </c>
-      <c r="G149" t="s">
-        <v>190</v>
-      </c>
-      <c r="K149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" spans="3:11">
-      <c r="D150" t="s">
-        <v>83</v>
-      </c>
       <c r="G150" t="s">
-        <v>190</v>
-      </c>
-      <c r="K150" t="s">
-        <v>205</v>
+        <v>182</v>
+      </c>
+      <c r="I150" s="14">
+        <v>1</v>
+      </c>
+      <c r="J150" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="151" spans="3:11">
-      <c r="E151" t="s">
-        <v>79</v>
+      <c r="D151" t="s">
+        <v>247</v>
       </c>
       <c r="G151" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="K151" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="3:11">
       <c r="E152" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G152" t="s">
-        <v>185</v>
-      </c>
-      <c r="I152" s="14">
-        <v>1</v>
-      </c>
-      <c r="J152" s="14">
-        <v>4096</v>
+        <v>187</v>
+      </c>
+      <c r="K152" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="3:11">
-      <c r="D153" t="s">
-        <v>251</v>
-      </c>
-      <c r="G153" t="s">
-        <v>190</v>
-      </c>
-      <c r="K153" t="s">
-        <v>205</v>
+      <c r="C153" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="3:11">
-      <c r="E154" t="s">
-        <v>85</v>
+      <c r="D154" t="s">
+        <v>86</v>
       </c>
       <c r="G154" t="s">
-        <v>190</v>
-      </c>
-      <c r="K154" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="3:11">
-      <c r="C155" t="s">
-        <v>88</v>
+      <c r="D155" t="s">
+        <v>87</v>
+      </c>
+      <c r="G155" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="3:11">
       <c r="D156" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="3:11">
       <c r="D157" t="s">
+        <v>89</v>
+      </c>
+      <c r="G157" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="3:11">
+      <c r="C158" t="s">
         <v>90</v>
-      </c>
-      <c r="G157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" spans="3:11">
-      <c r="D158" t="s">
-        <v>91</v>
-      </c>
-      <c r="G158" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="159" spans="3:11">
       <c r="D159" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="3:11">
+      <c r="D160" t="s">
         <v>92</v>
       </c>
-      <c r="G159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="3:11">
-      <c r="C160" t="s">
+      <c r="G160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="3:11">
+      <c r="C161" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="161" spans="3:11">
-      <c r="D161" t="s">
-        <v>94</v>
-      </c>
-      <c r="G161" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="162" spans="3:11">
       <c r="D162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G162" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="I162" s="14">
+        <v>1</v>
+      </c>
+      <c r="J162" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="163" spans="3:11">
-      <c r="C163" t="s">
-        <v>96</v>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" t="s">
+        <v>182</v>
+      </c>
+      <c r="I163" s="14">
+        <v>1</v>
+      </c>
+      <c r="J163" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="164" spans="3:11">
       <c r="D164" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G164" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I164" s="14">
         <v>1</v>
@@ -4152,1189 +4215,1189 @@
       </c>
     </row>
     <row r="165" spans="3:11">
-      <c r="D165" t="s">
-        <v>30</v>
-      </c>
-      <c r="G165" t="s">
-        <v>185</v>
-      </c>
-      <c r="I165" s="14">
-        <v>1</v>
-      </c>
-      <c r="J165" s="14">
-        <v>4096</v>
+      <c r="C165" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="3:11">
       <c r="D166" t="s">
+        <v>97</v>
+      </c>
+      <c r="G166" t="s">
+        <v>187</v>
+      </c>
+      <c r="K166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="3:11">
+      <c r="D167" t="s">
         <v>98</v>
       </c>
-      <c r="G166" t="s">
-        <v>185</v>
-      </c>
-      <c r="I166" s="14">
-        <v>1</v>
-      </c>
-      <c r="J166" s="14">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="167" spans="3:11">
-      <c r="C167" t="s">
-        <v>99</v>
+      <c r="G167" t="s">
+        <v>187</v>
+      </c>
+      <c r="K167" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="3:11">
       <c r="D168" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G168" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K168" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="3:11">
       <c r="D169" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G169" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K169" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="3:11">
       <c r="D170" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G170" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K170" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="3:11">
       <c r="D171" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G171" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K171" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="3:11">
       <c r="D172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G172" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K172" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="3:11">
       <c r="D173" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G173" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K173" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="3:11">
       <c r="D174" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G174" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K174" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="3:11">
       <c r="D175" t="s">
+        <v>106</v>
+      </c>
+      <c r="G175" t="s">
+        <v>187</v>
+      </c>
+      <c r="K175" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="3:11">
+      <c r="C176" t="s">
         <v>107</v>
       </c>
-      <c r="G175" t="s">
-        <v>190</v>
-      </c>
-      <c r="K175" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="176" spans="3:11">
-      <c r="D176" t="s">
+    </row>
+    <row r="177" spans="1:13">
+      <c r="D177" t="s">
         <v>108</v>
       </c>
-      <c r="G176" t="s">
-        <v>190</v>
-      </c>
-      <c r="K176" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="177" spans="3:13">
-      <c r="D177" t="s">
+      <c r="G177" t="s">
+        <v>187</v>
+      </c>
+      <c r="K177" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="D178" t="s">
+        <v>252</v>
+      </c>
+      <c r="G178" t="s">
+        <v>187</v>
+      </c>
+      <c r="K178" t="s">
+        <v>202</v>
+      </c>
+      <c r="M178" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="D179" t="s">
+        <v>253</v>
+      </c>
+      <c r="G179" t="s">
+        <v>187</v>
+      </c>
+      <c r="K179" t="s">
+        <v>202</v>
+      </c>
+      <c r="M179" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="D180" t="s">
+        <v>254</v>
+      </c>
+      <c r="G180" t="s">
+        <v>187</v>
+      </c>
+      <c r="K180" t="s">
+        <v>202</v>
+      </c>
+      <c r="M180" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="D181" t="s">
+        <v>255</v>
+      </c>
+      <c r="G181" t="s">
+        <v>187</v>
+      </c>
+      <c r="K181" t="s">
+        <v>202</v>
+      </c>
+      <c r="M181" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="C182" t="s">
         <v>109</v>
       </c>
-      <c r="G177" t="s">
-        <v>190</v>
-      </c>
-      <c r="K177" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="3:13">
-      <c r="C178" t="s">
+    </row>
+    <row r="183" spans="1:13">
+      <c r="D183" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="179" spans="3:13">
-      <c r="D179" t="s">
+      <c r="G183" t="s">
+        <v>187</v>
+      </c>
+      <c r="K183" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="D184" t="s">
         <v>111</v>
       </c>
-      <c r="G179" t="s">
-        <v>190</v>
-      </c>
-      <c r="K179" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="180" spans="3:13">
-      <c r="D180" t="s">
-        <v>256</v>
-      </c>
-      <c r="G180" t="s">
-        <v>190</v>
-      </c>
-      <c r="K180" t="s">
-        <v>205</v>
-      </c>
-      <c r="M180" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="181" spans="3:13">
-      <c r="D181" t="s">
-        <v>257</v>
-      </c>
-      <c r="G181" t="s">
-        <v>190</v>
-      </c>
-      <c r="K181" t="s">
-        <v>205</v>
-      </c>
-      <c r="M181" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="182" spans="3:13">
-      <c r="D182" t="s">
-        <v>258</v>
-      </c>
-      <c r="G182" t="s">
-        <v>190</v>
-      </c>
-      <c r="K182" t="s">
-        <v>205</v>
-      </c>
-      <c r="M182" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="183" spans="3:13">
-      <c r="D183" t="s">
-        <v>259</v>
-      </c>
-      <c r="G183" t="s">
-        <v>190</v>
-      </c>
-      <c r="K183" t="s">
-        <v>205</v>
-      </c>
-      <c r="M183" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="184" spans="3:13">
-      <c r="C184" t="s">
+      <c r="G184" t="s">
+        <v>187</v>
+      </c>
+      <c r="K184" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="D185" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="185" spans="3:13">
-      <c r="D185" t="s">
+      <c r="G185" t="s">
+        <v>187</v>
+      </c>
+      <c r="K185" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="D186" t="s">
         <v>113</v>
       </c>
-      <c r="G185" t="s">
-        <v>190</v>
-      </c>
-      <c r="K185" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="186" spans="3:13">
-      <c r="D186" t="s">
+      <c r="G186" t="s">
+        <v>187</v>
+      </c>
+      <c r="K186" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="D187" t="s">
         <v>114</v>
       </c>
-      <c r="G186" t="s">
-        <v>190</v>
-      </c>
-      <c r="K186" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="187" spans="3:13">
-      <c r="D187" t="s">
+      <c r="G187" t="s">
+        <v>187</v>
+      </c>
+      <c r="K187" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="D188" t="s">
         <v>115</v>
       </c>
-      <c r="G187" t="s">
-        <v>190</v>
-      </c>
-      <c r="K187" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="188" spans="3:13">
-      <c r="D188" t="s">
+      <c r="G188" t="s">
+        <v>187</v>
+      </c>
+      <c r="K188" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="D189" t="s">
         <v>116</v>
       </c>
-      <c r="G188" t="s">
-        <v>190</v>
-      </c>
-      <c r="K188" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="189" spans="3:13">
-      <c r="D189" t="s">
+      <c r="G189" t="s">
+        <v>187</v>
+      </c>
+      <c r="K189" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="16" thickBot="1">
+      <c r="A192" s="3">
+        <f>COUNTA($A$4:A191)+1</f>
+        <v>6</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7" ht="16" thickTop="1">
+      <c r="C193" t="s">
+        <v>332</v>
+      </c>
+      <c r="G193" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7">
+      <c r="C194" t="s">
         <v>117</v>
       </c>
-      <c r="G189" t="s">
-        <v>190</v>
-      </c>
-      <c r="K189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="3:13">
-      <c r="D190" t="s">
+      <c r="G194" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7">
+      <c r="C195" t="s">
         <v>118</v>
       </c>
-      <c r="G190" t="s">
-        <v>190</v>
-      </c>
-      <c r="K190" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="191" spans="3:13">
-      <c r="D191" t="s">
+      <c r="G195" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7">
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7">
+      <c r="C197" t="s">
         <v>119</v>
       </c>
-      <c r="G191" t="s">
-        <v>190</v>
-      </c>
-      <c r="K191" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="16" thickBot="1">
-      <c r="A194" s="3">
-        <f>COUNTA($A$4:A193)+1</f>
-        <v>6</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="15"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-      <c r="M194" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="16" thickTop="1">
-      <c r="C195" t="s">
-        <v>336</v>
-      </c>
-      <c r="G195" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="C196" t="s">
+    </row>
+    <row r="198" spans="3:7">
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7">
+      <c r="D199" t="s">
         <v>120</v>
       </c>
-      <c r="G196" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="C197" t="s">
+      <c r="G199" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7">
+      <c r="D200" t="s">
+        <v>56</v>
+      </c>
+      <c r="G200" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="201" spans="3:7">
+      <c r="D201" t="s">
         <v>121</v>
-      </c>
-      <c r="G197" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="C198" t="s">
-        <v>1</v>
-      </c>
-      <c r="G198" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="C199" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="D200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="D201" t="s">
-        <v>123</v>
       </c>
       <c r="G201" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="3:7">
       <c r="D202" t="s">
+        <v>60</v>
+      </c>
+      <c r="G202" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7">
+      <c r="D203" t="s">
         <v>59</v>
       </c>
-      <c r="G202" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="D203" t="s">
+      <c r="G203" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7">
+      <c r="D204" t="s">
+        <v>122</v>
+      </c>
+      <c r="G204" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7">
+      <c r="D205" t="s">
+        <v>68</v>
+      </c>
+      <c r="G205" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="206" spans="3:7">
+      <c r="D206" t="s">
+        <v>123</v>
+      </c>
+      <c r="G206" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7">
+      <c r="D207" t="s">
         <v>124</v>
       </c>
-      <c r="G203" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="D204" t="s">
-        <v>63</v>
-      </c>
-      <c r="G204" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
-      <c r="D205" t="s">
-        <v>62</v>
-      </c>
-      <c r="G205" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="D206" t="s">
+      <c r="G207" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="208" spans="3:7">
+      <c r="C208" t="s">
         <v>125</v>
       </c>
-      <c r="G206" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="D207" t="s">
-        <v>71</v>
-      </c>
-      <c r="G207" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="D208" t="s">
+    </row>
+    <row r="209" spans="3:13">
+      <c r="D209" t="s">
         <v>126</v>
       </c>
-      <c r="G208" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="209" spans="3:11">
-      <c r="D209" t="s">
+      <c r="G209" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="210" spans="3:13">
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="211" spans="3:13">
+      <c r="D211" t="s">
         <v>127</v>
       </c>
-      <c r="G209" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="210" spans="3:11">
-      <c r="C210" t="s">
+      <c r="G211" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="212" spans="3:13">
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="G212" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="213" spans="3:13">
+      <c r="D213" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="211" spans="3:11">
-      <c r="D211" t="s">
+    <row r="214" spans="3:13">
+      <c r="E214" t="s">
+        <v>126</v>
+      </c>
+      <c r="G214" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="215" spans="3:13">
+      <c r="E215" t="s">
         <v>129</v>
       </c>
-      <c r="G211" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="212" spans="3:11">
-      <c r="D212" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="213" spans="3:11">
-      <c r="D213" t="s">
-        <v>130</v>
-      </c>
-      <c r="G213" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="214" spans="3:11">
-      <c r="D214" t="s">
-        <v>3</v>
-      </c>
-      <c r="G214" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="215" spans="3:11">
-      <c r="D215" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="216" spans="3:11">
+      <c r="G215" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="216" spans="3:13">
       <c r="E216" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G216" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="217" spans="3:11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="217" spans="3:13">
       <c r="E217" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="G217" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="218" spans="3:11">
-      <c r="E218" t="s">
-        <v>130</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="218" spans="3:13">
+      <c r="D218" t="s">
+        <v>264</v>
       </c>
       <c r="G218" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="219" spans="3:11">
-      <c r="E219" t="s">
-        <v>9</v>
+        <v>187</v>
+      </c>
+      <c r="K218" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="219" spans="3:13">
+      <c r="D219" t="s">
+        <v>258</v>
       </c>
       <c r="G219" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="220" spans="3:11">
+        <v>182</v>
+      </c>
+      <c r="K219" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="220" spans="3:13">
       <c r="D220" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G220" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K220" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="221" spans="3:11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="221" spans="3:13">
       <c r="D221" t="s">
         <v>262</v>
       </c>
       <c r="G221" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K221" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="222" spans="3:11">
+    <row r="222" spans="3:13">
       <c r="D222" t="s">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="G222" t="s">
+        <v>187</v>
+      </c>
+      <c r="K222" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="3:13">
+      <c r="C223" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="224" spans="3:13">
+      <c r="D224" t="s">
+        <v>131</v>
+      </c>
+      <c r="M224" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="225" spans="4:13">
+      <c r="D225" t="s">
+        <v>132</v>
+      </c>
+      <c r="G225" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="226" spans="4:13">
+      <c r="D226" t="s">
+        <v>265</v>
+      </c>
+      <c r="G226" t="s">
+        <v>187</v>
+      </c>
+      <c r="K226" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="227" spans="4:13">
+      <c r="D227" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="228" spans="4:13">
+      <c r="E228" t="s">
+        <v>34</v>
+      </c>
+      <c r="G228" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="229" spans="4:13">
+      <c r="E229" t="s">
+        <v>134</v>
+      </c>
+      <c r="G229" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230" spans="4:13">
+      <c r="E230" t="s">
+        <v>135</v>
+      </c>
+      <c r="G230" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="231" spans="4:13">
+      <c r="E231" t="s">
+        <v>136</v>
+      </c>
+      <c r="G231" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="232" spans="4:13">
+      <c r="D232" t="s">
+        <v>137</v>
+      </c>
+      <c r="G232" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="233" spans="4:13">
+      <c r="D233" t="s">
+        <v>138</v>
+      </c>
+      <c r="G233" t="s">
+        <v>187</v>
+      </c>
+      <c r="K233" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="234" spans="4:13">
+      <c r="D234" t="s">
+        <v>139</v>
+      </c>
+      <c r="G234" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="235" spans="4:13">
+      <c r="D235" t="s">
+        <v>140</v>
+      </c>
+      <c r="G235" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="236" spans="4:13">
+      <c r="D236" t="s">
+        <v>141</v>
+      </c>
+      <c r="G236" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="237" spans="4:13">
+      <c r="D237" t="s">
+        <v>142</v>
+      </c>
+      <c r="G237" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="238" spans="4:13">
+      <c r="D238" t="s">
+        <v>143</v>
+      </c>
+      <c r="M238" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="239" spans="4:13">
+      <c r="D239" t="s">
+        <v>144</v>
+      </c>
+      <c r="M239" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="240" spans="4:13">
+      <c r="D240" t="s">
+        <v>145</v>
+      </c>
+      <c r="G240" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="241" spans="3:11">
+      <c r="D241" t="s">
+        <v>146</v>
+      </c>
+      <c r="G241" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="242" spans="3:11">
+      <c r="D242" t="s">
+        <v>147</v>
+      </c>
+      <c r="G242" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="243" spans="3:11">
+      <c r="D243" t="s">
+        <v>148</v>
+      </c>
+      <c r="G243" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="244" spans="3:11">
+      <c r="C244" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="245" spans="3:11">
+      <c r="D245" t="s">
+        <v>150</v>
+      </c>
+      <c r="G245" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="246" spans="3:11">
+      <c r="D246" t="s">
+        <v>151</v>
+      </c>
+      <c r="G246" t="s">
+        <v>180</v>
+      </c>
+      <c r="K246" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="247" spans="3:11">
+      <c r="D247" t="s">
+        <v>267</v>
+      </c>
+      <c r="G247" t="s">
+        <v>187</v>
+      </c>
+      <c r="K247" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="248" spans="3:11">
+      <c r="D248" t="s">
+        <v>152</v>
+      </c>
+      <c r="G248" t="s">
+        <v>180</v>
+      </c>
+      <c r="K248" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="249" spans="3:11">
+      <c r="E249" t="s">
+        <v>153</v>
+      </c>
+      <c r="G249" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="250" spans="3:11">
+      <c r="D250" t="s">
+        <v>154</v>
+      </c>
+      <c r="G250" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="251" spans="3:11">
+      <c r="D251" t="s">
+        <v>155</v>
+      </c>
+      <c r="G251" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="252" spans="3:11">
+      <c r="D252" t="s">
+        <v>156</v>
+      </c>
+      <c r="G252" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="253" spans="3:11">
+      <c r="D253" t="s">
+        <v>157</v>
+      </c>
+      <c r="G253" t="s">
         <v>185</v>
       </c>
-      <c r="K222" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="223" spans="3:11">
-      <c r="D223" t="s">
-        <v>266</v>
-      </c>
-      <c r="G223" t="s">
-        <v>190</v>
-      </c>
-      <c r="K223" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="224" spans="3:11">
-      <c r="D224" t="s">
-        <v>23</v>
-      </c>
-      <c r="G224" t="s">
-        <v>190</v>
-      </c>
-      <c r="K224" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="225" spans="3:13">
-      <c r="C225" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="226" spans="3:13">
-      <c r="D226" t="s">
-        <v>134</v>
-      </c>
-      <c r="M226" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="227" spans="3:13">
-      <c r="D227" t="s">
-        <v>135</v>
-      </c>
-      <c r="G227" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="228" spans="3:13">
-      <c r="D228" t="s">
-        <v>269</v>
-      </c>
-      <c r="G228" t="s">
-        <v>190</v>
-      </c>
-      <c r="K228" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="229" spans="3:13">
-      <c r="D229" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="230" spans="3:13">
-      <c r="E230" t="s">
-        <v>34</v>
-      </c>
-      <c r="G230" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="231" spans="3:13">
-      <c r="E231" t="s">
-        <v>137</v>
-      </c>
-      <c r="G231" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="232" spans="3:13">
-      <c r="E232" t="s">
-        <v>138</v>
-      </c>
-      <c r="G232" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="233" spans="3:13">
-      <c r="E233" t="s">
-        <v>139</v>
-      </c>
-      <c r="G233" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="234" spans="3:13">
-      <c r="D234" t="s">
-        <v>140</v>
-      </c>
-      <c r="G234" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="235" spans="3:13">
-      <c r="D235" t="s">
-        <v>141</v>
-      </c>
-      <c r="G235" t="s">
-        <v>190</v>
-      </c>
-      <c r="K235" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="236" spans="3:13">
-      <c r="D236" t="s">
-        <v>142</v>
-      </c>
-      <c r="G236" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="237" spans="3:13">
-      <c r="D237" t="s">
-        <v>143</v>
-      </c>
-      <c r="G237" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="238" spans="3:13">
-      <c r="D238" t="s">
-        <v>144</v>
-      </c>
-      <c r="G238" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="239" spans="3:13">
-      <c r="D239" t="s">
-        <v>145</v>
-      </c>
-      <c r="G239" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="240" spans="3:13">
-      <c r="D240" t="s">
-        <v>146</v>
-      </c>
-      <c r="M240" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="241" spans="3:13">
-      <c r="D241" t="s">
-        <v>147</v>
-      </c>
-      <c r="M241" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="242" spans="3:13">
-      <c r="D242" t="s">
-        <v>148</v>
-      </c>
-      <c r="G242" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="243" spans="3:13">
-      <c r="D243" t="s">
-        <v>149</v>
-      </c>
-      <c r="G243" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="244" spans="3:13">
-      <c r="D244" t="s">
-        <v>150</v>
-      </c>
-      <c r="G244" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="245" spans="3:13">
-      <c r="D245" t="s">
-        <v>151</v>
-      </c>
-      <c r="G245" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="246" spans="3:13">
-      <c r="C246" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="247" spans="3:13">
-      <c r="D247" t="s">
-        <v>153</v>
-      </c>
-      <c r="G247" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="248" spans="3:13">
-      <c r="D248" t="s">
-        <v>154</v>
-      </c>
-      <c r="G248" t="s">
-        <v>183</v>
-      </c>
-      <c r="K248" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="249" spans="3:13">
-      <c r="D249" t="s">
-        <v>271</v>
-      </c>
-      <c r="G249" t="s">
-        <v>190</v>
-      </c>
-      <c r="K249" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="250" spans="3:13">
-      <c r="D250" t="s">
-        <v>155</v>
-      </c>
-      <c r="G250" t="s">
-        <v>183</v>
-      </c>
-      <c r="K250" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="251" spans="3:13">
-      <c r="E251" t="s">
-        <v>156</v>
-      </c>
-      <c r="G251" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="252" spans="3:13">
-      <c r="D252" t="s">
-        <v>157</v>
-      </c>
-      <c r="G252" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="253" spans="3:13">
-      <c r="D253" t="s">
+    </row>
+    <row r="254" spans="3:11">
+      <c r="D254" t="s">
         <v>158</v>
       </c>
-      <c r="G253" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="254" spans="3:13">
-      <c r="D254" t="s">
+      <c r="G254" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="255" spans="3:11">
+      <c r="D255" t="s">
         <v>159</v>
       </c>
-      <c r="G254" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="255" spans="3:13">
-      <c r="D255" t="s">
+      <c r="G255" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="256" spans="3:11">
+      <c r="D256" t="s">
         <v>160</v>
       </c>
-      <c r="G255" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="256" spans="3:13">
-      <c r="D256" t="s">
-        <v>161</v>
-      </c>
       <c r="G256" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="257" spans="1:13">
       <c r="D257" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G257" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13">
-      <c r="D258" t="s">
-        <v>163</v>
-      </c>
-      <c r="G258" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13">
-      <c r="D259" t="s">
-        <v>164</v>
-      </c>
-      <c r="G259" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" ht="16" thickBot="1">
-      <c r="A261" s="3">
-        <f>COUNTA($A$4:A260)+1</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="16" thickBot="1">
+      <c r="A259" s="3">
+        <f>COUNTA($A$4:A258)+1</f>
         <v>7</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="4"/>
-      <c r="G261" s="4"/>
-      <c r="H261" s="4"/>
-      <c r="I261" s="15"/>
-      <c r="J261" s="15"/>
-      <c r="K261" s="4"/>
-      <c r="L261" s="4"/>
-      <c r="M261" s="4"/>
-    </row>
-    <row r="262" spans="1:13" ht="16" thickTop="1">
+      <c r="B259" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
+      <c r="H259" s="4"/>
+      <c r="I259" s="15"/>
+      <c r="J259" s="15"/>
+      <c r="K259" s="4"/>
+      <c r="L259" s="4"/>
+      <c r="M259" s="4"/>
+    </row>
+    <row r="260" spans="1:13" ht="16" thickTop="1">
+      <c r="C260" t="s">
+        <v>273</v>
+      </c>
+      <c r="G260" t="s">
+        <v>180</v>
+      </c>
+      <c r="M260" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="C261" t="s">
+        <v>299</v>
+      </c>
+      <c r="G261" t="s">
+        <v>182</v>
+      </c>
+      <c r="K261" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
       <c r="C262" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="G262" t="s">
-        <v>183</v>
-      </c>
-      <c r="M262" t="s">
-        <v>338</v>
+        <v>187</v>
+      </c>
+      <c r="K262" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:13">
       <c r="C263" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="G263" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K263" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:13">
       <c r="C264" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G264" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K264" t="s">
-        <v>278</v>
+        <v>202</v>
+      </c>
+      <c r="M264" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="265" spans="1:13">
       <c r="C265" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G265" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K265" t="s">
-        <v>278</v>
+        <v>349</v>
+      </c>
+      <c r="M265" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="266" spans="1:13">
       <c r="C266" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="G266" t="s">
-        <v>185</v>
-      </c>
-      <c r="K266" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M266" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267" spans="1:13">
       <c r="C267" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G267" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K267" t="s">
-        <v>353</v>
-      </c>
-      <c r="M267" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
     </row>
     <row r="268" spans="1:13">
       <c r="C268" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="G268" t="s">
-        <v>190</v>
-      </c>
-      <c r="M268" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
     </row>
     <row r="269" spans="1:13">
       <c r="C269" t="s">
-        <v>342</v>
-      </c>
-      <c r="G269" t="s">
-        <v>183</v>
+        <v>339</v>
+      </c>
+      <c r="G269" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="K269" t="s">
-        <v>279</v>
+        <v>274</v>
+      </c>
+      <c r="M269" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="270" spans="1:13">
       <c r="C270" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G270" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="271" spans="1:13">
       <c r="C271" t="s">
-        <v>343</v>
-      </c>
-      <c r="G271" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="K271" t="s">
-        <v>278</v>
-      </c>
-      <c r="M271" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="G271" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="272" spans="1:13">
       <c r="C272" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G272" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="M272" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="273" spans="1:13">
       <c r="C273" t="s">
+        <v>345</v>
+      </c>
+      <c r="G273" t="s">
+        <v>182</v>
+      </c>
+      <c r="M273" t="s">
         <v>346</v>
       </c>
-      <c r="G273" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13">
-      <c r="C274" t="s">
-        <v>347</v>
-      </c>
-      <c r="G274" t="s">
-        <v>183</v>
-      </c>
-      <c r="M274" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13">
-      <c r="C275" t="s">
-        <v>349</v>
-      </c>
-      <c r="G275" t="s">
-        <v>185</v>
-      </c>
-      <c r="M275" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" ht="16" thickBot="1">
-      <c r="A277" s="3">
-        <f>COUNTA($A$4:A276)+1</f>
+    </row>
+    <row r="275" spans="1:13" ht="16" thickBot="1">
+      <c r="A275" s="3">
+        <f>COUNTA($A$4:A274)+1</f>
         <v>8</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B275" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
-      <c r="I277" s="15"/>
-      <c r="J277" s="15"/>
-      <c r="K277" s="4"/>
-      <c r="L277" s="4"/>
-      <c r="M277" s="4"/>
-    </row>
-    <row r="278" spans="1:13" ht="16" thickTop="1">
-      <c r="C278" t="s">
-        <v>165</v>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
+      <c r="H275" s="4"/>
+      <c r="I275" s="15"/>
+      <c r="J275" s="15"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="4"/>
+      <c r="M275" s="4"/>
+    </row>
+    <row r="276" spans="1:13" ht="16" thickTop="1">
+      <c r="C276" t="s">
+        <v>162</v>
+      </c>
+      <c r="G276" t="s">
+        <v>180</v>
+      </c>
+      <c r="K276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
+      <c r="D277" t="s">
+        <v>163</v>
+      </c>
+      <c r="G277" t="s">
+        <v>187</v>
+      </c>
+      <c r="K277" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13">
+      <c r="D278" t="s">
+        <v>164</v>
       </c>
       <c r="G278" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K278" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" spans="1:13">
       <c r="D279" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G279" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K279" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="280" spans="1:13">
       <c r="D280" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="G280" t="s">
-        <v>190</v>
-      </c>
-      <c r="K280" t="s">
-        <v>278</v>
+        <v>187</v>
+      </c>
+      <c r="M280" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:13">
-      <c r="D281" t="s">
-        <v>168</v>
+      <c r="C281" t="s">
+        <v>166</v>
       </c>
       <c r="G281" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K281" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="282" spans="1:13">
       <c r="D282" t="s">
+        <v>164</v>
+      </c>
+      <c r="G282" t="s">
+        <v>187</v>
+      </c>
+      <c r="K282" t="s">
         <v>274</v>
       </c>
-      <c r="G282" t="s">
-        <v>190</v>
-      </c>
-      <c r="M282" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="283" spans="1:13">
-      <c r="C283" t="s">
-        <v>169</v>
+      <c r="D283" t="s">
+        <v>270</v>
       </c>
       <c r="G283" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K283" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13">
-      <c r="D284" t="s">
-        <v>167</v>
-      </c>
-      <c r="G284" t="s">
-        <v>190</v>
-      </c>
-      <c r="K284" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13">
-      <c r="D285" t="s">
         <v>274</v>
       </c>
-      <c r="G285" t="s">
-        <v>190</v>
-      </c>
-      <c r="K285" t="s">
-        <v>278</v>
-      </c>
-      <c r="M285" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" ht="16" thickBot="1">
-      <c r="A287" s="3">
-        <f>COUNTA($A$4:A286)+1</f>
+      <c r="M283" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="16" thickBot="1">
+      <c r="A285" s="3">
+        <f>COUNTA($A$4:A284)+1</f>
         <v>9</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="4"/>
-      <c r="G287" s="4"/>
-      <c r="H287" s="4"/>
-      <c r="I287" s="15"/>
-      <c r="J287" s="15"/>
-      <c r="K287" s="4"/>
-      <c r="L287" s="4"/>
-      <c r="M287" s="4"/>
-    </row>
-    <row r="288" spans="1:13" ht="16" thickTop="1">
+      <c r="B285" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
+      <c r="H285" s="4"/>
+      <c r="I285" s="15"/>
+      <c r="J285" s="15"/>
+      <c r="K285" s="4"/>
+      <c r="L285" s="4"/>
+      <c r="M285" s="4"/>
+    </row>
+    <row r="286" spans="1:13" ht="16" thickTop="1">
+      <c r="C286" t="s">
+        <v>273</v>
+      </c>
+      <c r="G286" t="s">
+        <v>180</v>
+      </c>
+      <c r="M286" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="C287" t="s">
+        <v>299</v>
+      </c>
+      <c r="G287" t="s">
+        <v>182</v>
+      </c>
+      <c r="K287" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
       <c r="C288" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="G288" t="s">
-        <v>183</v>
-      </c>
-      <c r="M288" t="s">
-        <v>322</v>
+        <v>182</v>
+      </c>
+      <c r="I288" s="14">
+        <v>1</v>
+      </c>
+      <c r="J288" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="289" spans="1:13">
       <c r="C289" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G289" t="s">
-        <v>185</v>
-      </c>
-      <c r="K289" t="s">
-        <v>313</v>
+        <v>182</v>
+      </c>
+      <c r="I289" s="14">
+        <v>1</v>
+      </c>
+      <c r="J289" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="290" spans="1:13">
       <c r="C290" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G290" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I290" s="14">
         <v>1</v>
@@ -5345,10 +5408,10 @@
     </row>
     <row r="291" spans="1:13">
       <c r="C291" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G291" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I291" s="14">
         <v>1</v>
@@ -5359,10 +5422,10 @@
     </row>
     <row r="292" spans="1:13">
       <c r="C292" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G292" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I292" s="14">
         <v>1</v>
@@ -5373,10 +5436,10 @@
     </row>
     <row r="293" spans="1:13">
       <c r="C293" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G293" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I293" s="14">
         <v>1</v>
@@ -5387,226 +5450,198 @@
     </row>
     <row r="294" spans="1:13">
       <c r="C294" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G294" t="s">
-        <v>185</v>
-      </c>
-      <c r="I294" s="14">
-        <v>1</v>
-      </c>
-      <c r="J294" s="14">
-        <v>256</v>
+        <v>182</v>
       </c>
     </row>
     <row r="295" spans="1:13">
       <c r="C295" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G295" t="s">
-        <v>185</v>
-      </c>
-      <c r="I295" s="14">
-        <v>1</v>
-      </c>
-      <c r="J295" s="14">
-        <v>256</v>
+        <v>182</v>
       </c>
     </row>
     <row r="296" spans="1:13">
       <c r="C296" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G296" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="297" spans="1:13">
-      <c r="C297" t="s">
+      <c r="D297" t="s">
+        <v>188</v>
+      </c>
+      <c r="G297" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="D298" t="s">
+        <v>189</v>
+      </c>
+      <c r="G298" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="16" thickBot="1">
+      <c r="A300" s="3">
+        <f>COUNTA($A$4:A299)+1</f>
+        <v>10</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G297" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13">
-      <c r="C298" t="s">
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
+      <c r="H300" s="4"/>
+      <c r="I300" s="15"/>
+      <c r="J300" s="15"/>
+      <c r="K300" s="4"/>
+      <c r="L300" s="4"/>
+      <c r="M300" s="4"/>
+    </row>
+    <row r="301" spans="1:13" ht="16" thickTop="1">
+      <c r="C301" t="s">
+        <v>273</v>
+      </c>
+      <c r="G301" t="s">
+        <v>180</v>
+      </c>
+      <c r="M301" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="C302" t="s">
+        <v>299</v>
+      </c>
+      <c r="G302" t="s">
+        <v>182</v>
+      </c>
+      <c r="K302" t="s">
         <v>312</v>
       </c>
-      <c r="G298" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13">
-      <c r="D299" t="s">
-        <v>191</v>
-      </c>
-      <c r="G299" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13">
-      <c r="D300" t="s">
-        <v>192</v>
-      </c>
-      <c r="G300" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" ht="16" thickBot="1">
-      <c r="A302" s="3">
-        <f>COUNTA($A$4:A301)+1</f>
-        <v>10</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="4"/>
-      <c r="G302" s="4"/>
-      <c r="H302" s="4"/>
-      <c r="I302" s="15"/>
-      <c r="J302" s="15"/>
-      <c r="K302" s="4"/>
-      <c r="L302" s="4"/>
-      <c r="M302" s="4"/>
-    </row>
-    <row r="303" spans="1:13" ht="16" thickTop="1">
+    </row>
+    <row r="303" spans="1:13">
       <c r="C303" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="G303" t="s">
-        <v>183</v>
-      </c>
-      <c r="M303" t="s">
-        <v>322</v>
+        <v>181</v>
+      </c>
+      <c r="I303" s="14">
+        <v>0</v>
+      </c>
+      <c r="J303" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:13">
       <c r="C304" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G304" t="s">
-        <v>185</v>
-      </c>
-      <c r="K304" t="s">
-        <v>316</v>
+        <v>182</v>
+      </c>
+      <c r="I304" s="14">
+        <v>1</v>
+      </c>
+      <c r="J304" s="14">
+        <v>4096</v>
+      </c>
+      <c r="M304" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="305" spans="1:13">
       <c r="C305" t="s">
+        <v>316</v>
+      </c>
+      <c r="G305" t="s">
+        <v>182</v>
+      </c>
+      <c r="I305" s="14">
+        <v>1</v>
+      </c>
+      <c r="J305" s="14">
+        <v>256</v>
+      </c>
+      <c r="M305" t="s">
         <v>317</v>
       </c>
-      <c r="G305" t="s">
-        <v>184</v>
-      </c>
-      <c r="I305" s="14">
-        <v>0</v>
-      </c>
-      <c r="J305" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13">
-      <c r="C306" t="s">
+    </row>
+    <row r="307" spans="1:13" ht="16" thickBot="1">
+      <c r="A307" s="3">
+        <f>COUNTA($A$4:A306)+1</f>
+        <v>11</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
+      <c r="H307" s="4"/>
+      <c r="I307" s="15"/>
+      <c r="J307" s="15"/>
+      <c r="K307" s="4"/>
+      <c r="L307" s="4"/>
+      <c r="M307" s="4"/>
+    </row>
+    <row r="308" spans="1:13" ht="16" thickTop="1">
+      <c r="C308" t="s">
+        <v>273</v>
+      </c>
+      <c r="G308" t="s">
+        <v>180</v>
+      </c>
+      <c r="M308" t="s">
         <v>318</v>
       </c>
-      <c r="G306" t="s">
-        <v>185</v>
-      </c>
-      <c r="I306" s="14">
-        <v>1</v>
-      </c>
-      <c r="J306" s="14">
-        <v>4096</v>
-      </c>
-      <c r="M306" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13">
-      <c r="C307" t="s">
-        <v>320</v>
-      </c>
-      <c r="G307" t="s">
-        <v>185</v>
-      </c>
-      <c r="I307" s="14">
-        <v>1</v>
-      </c>
-      <c r="J307" s="14">
-        <v>256</v>
-      </c>
-      <c r="M307" t="s">
+    </row>
+    <row r="309" spans="1:13">
+      <c r="C309" t="s">
+        <v>299</v>
+      </c>
+      <c r="G309" t="s">
+        <v>182</v>
+      </c>
+      <c r="K309" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="16" thickBot="1">
-      <c r="A309" s="3">
-        <f>COUNTA($A$4:A308)+1</f>
-        <v>11</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
-      <c r="H309" s="4"/>
-      <c r="I309" s="15"/>
-      <c r="J309" s="15"/>
-      <c r="K309" s="4"/>
-      <c r="L309" s="4"/>
-      <c r="M309" s="4"/>
-    </row>
-    <row r="310" spans="1:13" ht="16" thickTop="1">
+    <row r="310" spans="1:13">
       <c r="C310" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="G310" t="s">
         <v>183</v>
       </c>
-      <c r="M310" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="311" spans="1:13">
       <c r="C311" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="G311" t="s">
-        <v>185</v>
-      </c>
-      <c r="K311" t="s">
-        <v>325</v>
+        <v>183</v>
       </c>
     </row>
     <row r="312" spans="1:13">
       <c r="C312" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G312" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13">
-      <c r="C313" t="s">
-        <v>327</v>
-      </c>
-      <c r="G313" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13">
-      <c r="C314" t="s">
-        <v>328</v>
-      </c>
-      <c r="G314" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5621,13 +5656,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>G61:G87 G118:G126 G129:G191 G303:G307 G278:G285 G5:G39 G288:G300 G90:G112 G114:G115 G41:G51 G310:G314 G195:G260 G262:G270 G272:G275 G55:G58</xm:sqref>
+          <xm:sqref>G55:G58 G116:G124 G127:G189 G301:G305 G276:G283 G5:G39 G286:G298 G88:G110 G112:G113 G41:G51 G308:G312 G193:G258 G260:G268 G270:G273 G61:G72 G74:G85</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G40 G113 G52:G54 G271</xm:sqref>
+          <xm:sqref>G40 G111 G52:G54 G269 G73</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5650,52 +5685,98 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" thickTop="1">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="401">
   <si>
     <t>Communication:</t>
   </si>
@@ -1212,6 +1212,18 @@
   </si>
   <si>
     <t xml:space="preserve"> sailo comission_total</t>
+  </si>
+  <si>
+    <t>reference number</t>
+  </si>
+  <si>
+    <t>also identifies transaction uniquely</t>
+  </si>
+  <si>
+    <t>request_id</t>
+  </si>
+  <si>
+    <t>pk</t>
   </si>
 </sst>
 </file>
@@ -1416,11 +1428,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="350">
+  <cellStyleXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1834,7 +1852,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="350">
+  <cellStyles count="356">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2010,6 +2028,9 @@
     <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2184,69 +2205,12 @@
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2707,11 +2671,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O329"/>
+  <dimension ref="A1:O332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H185" sqref="H185"/>
+      <pane ySplit="3" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A311" sqref="A311:A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4684,383 +4648,380 @@
     </row>
     <row r="134" spans="1:15">
       <c r="C134" t="s">
+        <v>397</v>
+      </c>
+      <c r="G134" t="s">
+        <v>145</v>
+      </c>
+      <c r="O134" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="C135" t="s">
         <v>372</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F135" t="s">
         <v>322</v>
       </c>
-      <c r="G134" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" s="31"/>
-      <c r="C135" t="s">
+      <c r="G135" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="31"/>
+      <c r="C136" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
-      <c r="D136" t="s">
+    <row r="137" spans="1:15">
+      <c r="D137" t="s">
         <v>55</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G137" t="s">
         <v>312</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K137" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="E137" t="s">
-        <v>56</v>
-      </c>
-      <c r="G137" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="E138" t="s">
+        <v>56</v>
+      </c>
+      <c r="G138" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="E139" t="s">
         <v>57</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G139" t="s">
         <v>144</v>
       </c>
-      <c r="K138" t="s">
+      <c r="K139" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
-      <c r="D139" t="s">
+    <row r="140" spans="1:15">
+      <c r="D140" t="s">
         <v>58</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G140" t="s">
         <v>312</v>
       </c>
-      <c r="K139" t="s">
+      <c r="K140" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
-      <c r="E140" t="s">
+    <row r="141" spans="1:15">
+      <c r="E141" t="s">
         <v>56</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G141" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
-      <c r="D141" t="s">
+    <row r="142" spans="1:15">
+      <c r="D142" t="s">
         <v>239</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G142" t="s">
         <v>312</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K142" t="s">
         <v>165</v>
       </c>
-      <c r="O141" t="s">
+      <c r="O142" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
-      <c r="E142" t="s">
+    <row r="143" spans="1:15">
+      <c r="E143" t="s">
         <v>56</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G143" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
-      <c r="D143" t="s">
+    <row r="144" spans="1:15">
+      <c r="D144" t="s">
         <v>60</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G144" t="s">
         <v>312</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K144" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="E144" t="s">
-        <v>56</v>
-      </c>
-      <c r="G144" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="E145" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="E146" t="s">
         <v>61</v>
       </c>
-      <c r="G145" t="s">
-        <v>145</v>
-      </c>
-      <c r="I145" s="14">
+      <c r="G146" t="s">
+        <v>145</v>
+      </c>
+      <c r="I146" s="14">
         <v>1</v>
       </c>
-      <c r="J145" s="14">
+      <c r="J146" s="14">
         <v>4096</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
-      <c r="D146" t="s">
+    <row r="147" spans="1:11">
+      <c r="D147" t="s">
         <v>200</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G147" t="s">
         <v>312</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K147" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="E147" t="s">
-        <v>56</v>
-      </c>
-      <c r="G147" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="E148" t="s">
+        <v>56</v>
+      </c>
+      <c r="G148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="E149" t="s">
         <v>62</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G149" t="s">
         <v>312</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K149" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
-      <c r="C149" t="s">
+    <row r="150" spans="1:11">
+      <c r="C150" t="s">
         <v>374</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F150" t="s">
         <v>322</v>
       </c>
-      <c r="G149" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150" s="31"/>
-      <c r="C150" t="s">
+      <c r="G150" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="31"/>
+      <c r="C151" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
-      <c r="D151" t="s">
+    <row r="152" spans="1:11">
+      <c r="D152" t="s">
         <v>55</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G152" t="s">
         <v>312</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K152" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="E152" t="s">
-        <v>56</v>
-      </c>
-      <c r="G152" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="E153" t="s">
+        <v>56</v>
+      </c>
+      <c r="G153" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="E154" t="s">
         <v>390</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G154" t="s">
         <v>144</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K154" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
-      <c r="D154" t="s">
+    <row r="155" spans="1:11">
+      <c r="D155" t="s">
         <v>58</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G155" t="s">
         <v>312</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K155" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
-      <c r="E155" t="s">
+    <row r="156" spans="1:11">
+      <c r="E156" t="s">
         <v>56</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G156" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
-      <c r="D156" t="s">
+    <row r="157" spans="1:11">
+      <c r="D157" t="s">
         <v>59</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G157" t="s">
         <v>312</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K157" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
-      <c r="E157" t="s">
+    <row r="158" spans="1:11">
+      <c r="E158" t="s">
         <v>56</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G158" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
-      <c r="D158" t="s">
+    <row r="159" spans="1:11">
+      <c r="D159" t="s">
         <v>60</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G159" t="s">
         <v>312</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K159" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="E159" t="s">
-        <v>56</v>
-      </c>
-      <c r="G159" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="E160" t="s">
+        <v>56</v>
+      </c>
+      <c r="G160" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="161" spans="3:11">
+      <c r="E161" t="s">
         <v>61</v>
       </c>
-      <c r="G160" t="s">
-        <v>145</v>
-      </c>
-      <c r="I160" s="14">
+      <c r="G161" t="s">
+        <v>145</v>
+      </c>
+      <c r="I161" s="14">
         <v>1</v>
       </c>
-      <c r="J160" s="14">
+      <c r="J161" s="14">
         <v>4096</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
-      <c r="D161" t="s">
+    <row r="162" spans="3:11">
+      <c r="D162" t="s">
         <v>200</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G162" t="s">
         <v>312</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K162" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
-      <c r="E162" t="s">
+    <row r="163" spans="3:11">
+      <c r="E163" t="s">
         <v>56</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G163" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
-      <c r="E163" t="s">
+    <row r="164" spans="3:11">
+      <c r="E164" t="s">
         <v>62</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G164" t="s">
         <v>312</v>
       </c>
-      <c r="K163" t="s">
+      <c r="K164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
-      <c r="C164" t="s">
+    <row r="165" spans="3:11">
+      <c r="C165" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
-      <c r="D165" t="s">
+    <row r="166" spans="3:11">
+      <c r="D166" t="s">
         <v>393</v>
-      </c>
-      <c r="G165" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="D166" t="s">
-        <v>394</v>
       </c>
       <c r="G166" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="3:11">
       <c r="D167" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G167" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="3:11">
       <c r="D168" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G168" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
-      <c r="C169" t="s">
+    <row r="169" spans="3:11">
+      <c r="D169" t="s">
+        <v>396</v>
+      </c>
+      <c r="G169" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="3:11">
+      <c r="C170" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
-      <c r="D170" t="s">
+    <row r="171" spans="3:11">
+      <c r="D171" t="s">
         <v>63</v>
-      </c>
-      <c r="G170" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="D171" t="s">
-        <v>64</v>
       </c>
       <c r="G171" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
-      <c r="C172" t="s">
+    <row r="172" spans="3:11">
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="G172" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="173" spans="3:11">
+      <c r="C173" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
-      <c r="D173" t="s">
+    <row r="174" spans="3:11">
+      <c r="D174" t="s">
         <v>65</v>
-      </c>
-      <c r="G173" t="s">
-        <v>145</v>
-      </c>
-      <c r="I173" s="14">
-        <v>1</v>
-      </c>
-      <c r="J173" s="14">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="D174" t="s">
-        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>145</v>
@@ -5072,9 +5033,9 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="3:11">
       <c r="D175" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
         <v>145</v>
@@ -5086,28 +5047,30 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
-      <c r="A176" s="31"/>
-      <c r="C176" t="s">
-        <v>378</v>
+    <row r="176" spans="3:11">
+      <c r="D176" t="s">
+        <v>66</v>
+      </c>
+      <c r="G176" t="s">
+        <v>145</v>
+      </c>
+      <c r="I176" s="14">
+        <v>1</v>
+      </c>
+      <c r="J176" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="31"/>
-      <c r="D177" t="s">
-        <v>67</v>
-      </c>
-      <c r="G177" t="s">
-        <v>312</v>
-      </c>
-      <c r="K177" t="s">
-        <v>165</v>
+      <c r="C177" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="31"/>
       <c r="D178" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G178" t="s">
         <v>312</v>
@@ -5119,7 +5082,7 @@
     <row r="179" spans="1:15">
       <c r="A179" s="31"/>
       <c r="D179" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G179" t="s">
         <v>312</v>
@@ -5131,7 +5094,7 @@
     <row r="180" spans="1:15">
       <c r="A180" s="31"/>
       <c r="D180" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G180" t="s">
         <v>312</v>
@@ -5143,7 +5106,7 @@
     <row r="181" spans="1:15">
       <c r="A181" s="31"/>
       <c r="D181" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G181" t="s">
         <v>312</v>
@@ -5155,7 +5118,7 @@
     <row r="182" spans="1:15">
       <c r="A182" s="31"/>
       <c r="D182" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G182" t="s">
         <v>312</v>
@@ -5167,7 +5130,7 @@
     <row r="183" spans="1:15">
       <c r="A183" s="31"/>
       <c r="D183" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G183" t="s">
         <v>312</v>
@@ -5179,7 +5142,7 @@
     <row r="184" spans="1:15">
       <c r="A184" s="31"/>
       <c r="D184" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G184" t="s">
         <v>312</v>
@@ -5191,7 +5154,7 @@
     <row r="185" spans="1:15">
       <c r="A185" s="31"/>
       <c r="D185" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G185" t="s">
         <v>312</v>
@@ -5203,7 +5166,7 @@
     <row r="186" spans="1:15">
       <c r="A186" s="31"/>
       <c r="D186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G186" t="s">
         <v>312</v>
@@ -5214,41 +5177,38 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="31"/>
-      <c r="C187" t="s">
-        <v>379</v>
+      <c r="D187" t="s">
+        <v>76</v>
+      </c>
+      <c r="G187" t="s">
+        <v>312</v>
+      </c>
+      <c r="K187" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="31"/>
-      <c r="D188" t="s">
-        <v>77</v>
-      </c>
-      <c r="G188" t="s">
-        <v>312</v>
-      </c>
-      <c r="K188" t="s">
-        <v>165</v>
+      <c r="C188" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="31"/>
       <c r="D189" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="G189" t="s">
         <v>312</v>
       </c>
       <c r="K189" t="s">
         <v>165</v>
-      </c>
-      <c r="O189" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="31"/>
       <c r="D190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G190" t="s">
         <v>312</v>
@@ -5257,13 +5217,13 @@
         <v>165</v>
       </c>
       <c r="O190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="31"/>
       <c r="D191" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G191" t="s">
         <v>312</v>
@@ -5272,13 +5232,13 @@
         <v>165</v>
       </c>
       <c r="O191" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="31"/>
       <c r="D192" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G192" t="s">
         <v>312</v>
@@ -5287,31 +5247,34 @@
         <v>165</v>
       </c>
       <c r="O192" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="31"/>
-      <c r="C193" t="s">
-        <v>380</v>
+      <c r="D193" t="s">
+        <v>208</v>
+      </c>
+      <c r="G193" t="s">
+        <v>312</v>
+      </c>
+      <c r="K193" t="s">
+        <v>165</v>
+      </c>
+      <c r="O193" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="31"/>
-      <c r="D194" t="s">
-        <v>78</v>
-      </c>
-      <c r="G194" t="s">
-        <v>312</v>
-      </c>
-      <c r="K194" t="s">
-        <v>165</v>
+      <c r="C194" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="31"/>
       <c r="D195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G195" t="s">
         <v>312</v>
@@ -5323,7 +5286,7 @@
     <row r="196" spans="1:15">
       <c r="A196" s="31"/>
       <c r="D196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G196" t="s">
         <v>312</v>
@@ -5335,7 +5298,7 @@
     <row r="197" spans="1:15">
       <c r="A197" s="31"/>
       <c r="D197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G197" t="s">
         <v>312</v>
@@ -5347,7 +5310,7 @@
     <row r="198" spans="1:15">
       <c r="A198" s="31"/>
       <c r="D198" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G198" t="s">
         <v>312</v>
@@ -5359,7 +5322,7 @@
     <row r="199" spans="1:15">
       <c r="A199" s="31"/>
       <c r="D199" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G199" t="s">
         <v>312</v>
@@ -5371,7 +5334,7 @@
     <row r="200" spans="1:15">
       <c r="A200" s="31"/>
       <c r="D200" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G200" t="s">
         <v>312</v>
@@ -5380,549 +5343,557 @@
         <v>165</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="16" thickBot="1">
-      <c r="A203" s="3">
-        <f>COUNTA($A$4:A202)+1</f>
+    <row r="201" spans="1:15">
+      <c r="A201" s="31"/>
+      <c r="D201" t="s">
+        <v>84</v>
+      </c>
+      <c r="G201" t="s">
+        <v>312</v>
+      </c>
+      <c r="K201" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="16" thickBot="1">
+      <c r="A204" s="3">
+        <f>COUNTA($A$4:A203)+1</f>
         <v>7</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B204" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
-      <c r="I203" s="15"/>
-      <c r="J203" s="15"/>
-      <c r="K203" s="4"/>
-      <c r="L203" s="26"/>
-      <c r="M203" s="26"/>
-      <c r="N203" s="26"/>
-      <c r="O203" s="4" t="s">
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="26"/>
+      <c r="M204" s="26"/>
+      <c r="N204" s="26"/>
+      <c r="O204" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="16" thickTop="1">
-      <c r="C204" t="s">
-        <v>281</v>
-      </c>
-      <c r="G204" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" ht="16" thickTop="1">
       <c r="C205" t="s">
-        <v>146</v>
+        <v>399</v>
+      </c>
+      <c r="F205" t="s">
+        <v>309</v>
       </c>
       <c r="G205" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="206" spans="1:15">
       <c r="C206" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="G206" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="C207" t="s">
-        <v>382</v>
+        <v>146</v>
       </c>
       <c r="G207" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="C208" t="s">
+        <v>381</v>
+      </c>
+      <c r="G208" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="C209" t="s">
+        <v>382</v>
+      </c>
+      <c r="G209" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="31"/>
+      <c r="C210" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="209" spans="3:7">
-      <c r="D209" t="s">
+    <row r="211" spans="1:7">
+      <c r="D211" t="s">
         <v>14</v>
       </c>
-      <c r="G209" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="210" spans="3:7">
-      <c r="D210" t="s">
+      <c r="G211" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="D212" t="s">
         <v>85</v>
       </c>
-      <c r="G210" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="211" spans="3:7">
-      <c r="D211" t="s">
+      <c r="G212" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="D213" t="s">
         <v>42</v>
       </c>
-      <c r="G211" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="212" spans="3:7">
-      <c r="D212" t="s">
+      <c r="G213" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="D214" t="s">
         <v>86</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G214" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="213" spans="3:7">
-      <c r="D213" t="s">
+    <row r="215" spans="1:7">
+      <c r="D215" t="s">
         <v>46</v>
       </c>
-      <c r="G213" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="214" spans="3:7">
-      <c r="D214" t="s">
+      <c r="G215" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="D216" t="s">
         <v>45</v>
       </c>
-      <c r="G214" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="215" spans="3:7">
-      <c r="D215" t="s">
+      <c r="G216" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="D217" t="s">
         <v>87</v>
       </c>
-      <c r="G215" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="216" spans="3:7">
-      <c r="D216" t="s">
+      <c r="G217" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="D218" t="s">
         <v>53</v>
       </c>
-      <c r="G216" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="217" spans="3:7">
-      <c r="D217" t="s">
+      <c r="G218" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="D219" t="s">
         <v>88</v>
       </c>
-      <c r="G217" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="218" spans="3:7">
-      <c r="D218" t="s">
+      <c r="G219" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="D220" t="s">
         <v>89</v>
       </c>
-      <c r="G218" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="219" spans="3:7">
-      <c r="C219" t="s">
+      <c r="G220" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="C221" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="220" spans="3:7">
-      <c r="D220" t="s">
+    <row r="222" spans="1:7">
+      <c r="D222" t="s">
         <v>90</v>
       </c>
-      <c r="G220" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="221" spans="3:7">
-      <c r="D221" t="s">
+      <c r="G222" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="D223" t="s">
         <v>10</v>
       </c>
-      <c r="G221" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="222" spans="3:7">
-      <c r="D222" t="s">
+      <c r="G223" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="D224" t="s">
         <v>91</v>
       </c>
-      <c r="G222" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="223" spans="3:7">
-      <c r="D223" t="s">
+      <c r="G224" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="225" spans="3:15">
+      <c r="D225" t="s">
         <v>3</v>
       </c>
-      <c r="G223" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="224" spans="3:7">
-      <c r="D224" t="s">
+      <c r="G225" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="226" spans="3:15">
+      <c r="D226" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="225" spans="3:15">
-      <c r="E225" t="s">
-        <v>90</v>
-      </c>
-      <c r="G225" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="226" spans="3:15">
-      <c r="E226" t="s">
-        <v>93</v>
-      </c>
-      <c r="G226" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="227" spans="3:15">
       <c r="E227" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G227" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="228" spans="3:15">
       <c r="E228" t="s">
+        <v>93</v>
+      </c>
+      <c r="G228" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="229" spans="3:15">
+      <c r="E229" t="s">
+        <v>91</v>
+      </c>
+      <c r="G229" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="230" spans="3:15">
+      <c r="E230" t="s">
         <v>9</v>
       </c>
-      <c r="G228" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="229" spans="3:15">
-      <c r="D229" t="s">
-        <v>217</v>
-      </c>
-      <c r="G229" t="s">
-        <v>150</v>
-      </c>
-      <c r="K229" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="230" spans="3:15">
-      <c r="D230" t="s">
-        <v>211</v>
-      </c>
       <c r="G230" t="s">
-        <v>145</v>
-      </c>
-      <c r="K230" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
     </row>
     <row r="231" spans="3:15">
       <c r="D231" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G231" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K231" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="232" spans="3:15">
       <c r="D232" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G232" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K232" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233" spans="3:15">
       <c r="D233" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="G233" t="s">
+        <v>145</v>
+      </c>
+      <c r="K233" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="234" spans="3:15">
+      <c r="D234" t="s">
+        <v>215</v>
+      </c>
+      <c r="G234" t="s">
         <v>150</v>
       </c>
-      <c r="K233" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="234" spans="3:15">
-      <c r="C234" t="s">
-        <v>385</v>
+      <c r="K234" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="235" spans="3:15">
       <c r="D235" t="s">
-        <v>94</v>
-      </c>
-      <c r="O235" t="s">
-        <v>171</v>
+        <v>23</v>
+      </c>
+      <c r="G235" t="s">
+        <v>150</v>
+      </c>
+      <c r="K235" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="3:15">
-      <c r="D236" t="s">
-        <v>95</v>
-      </c>
-      <c r="G236" t="s">
-        <v>145</v>
+      <c r="C236" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="237" spans="3:15">
       <c r="D237" t="s">
-        <v>218</v>
-      </c>
-      <c r="G237" t="s">
-        <v>150</v>
-      </c>
-      <c r="K237" t="s">
-        <v>219</v>
+        <v>94</v>
+      </c>
+      <c r="O237" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="3:15">
       <c r="D238" t="s">
+        <v>95</v>
+      </c>
+      <c r="G238" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="239" spans="3:15">
+      <c r="D239" t="s">
+        <v>218</v>
+      </c>
+      <c r="G239" t="s">
+        <v>150</v>
+      </c>
+      <c r="K239" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="240" spans="3:15">
+      <c r="D240" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="239" spans="3:15">
-      <c r="E239" t="s">
+    <row r="241" spans="4:15">
+      <c r="E241" t="s">
         <v>33</v>
       </c>
-      <c r="G239" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="240" spans="3:15">
-      <c r="E240" t="s">
+      <c r="G241" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="242" spans="4:15">
+      <c r="E242" t="s">
         <v>97</v>
       </c>
-      <c r="G240" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="241" spans="3:15">
-      <c r="E241" t="s">
+      <c r="G242" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="243" spans="4:15">
+      <c r="E243" t="s">
         <v>98</v>
       </c>
-      <c r="G241" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="242" spans="3:15">
-      <c r="E242" t="s">
+      <c r="G243" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="244" spans="4:15">
+      <c r="E244" t="s">
         <v>99</v>
       </c>
-      <c r="G242" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="243" spans="3:15">
-      <c r="D243" t="s">
+      <c r="G244" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="245" spans="4:15">
+      <c r="D245" t="s">
         <v>100</v>
       </c>
-      <c r="G243" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="244" spans="3:15">
-      <c r="D244" t="s">
+      <c r="G245" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="246" spans="4:15">
+      <c r="D246" t="s">
         <v>101</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G246" t="s">
         <v>150</v>
       </c>
-      <c r="K244" t="s">
+      <c r="K246" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="245" spans="3:15">
-      <c r="D245" t="s">
+    <row r="247" spans="4:15">
+      <c r="D247" t="s">
         <v>102</v>
       </c>
-      <c r="G245" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="246" spans="3:15">
-      <c r="D246" t="s">
+      <c r="G247" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="248" spans="4:15">
+      <c r="D248" t="s">
         <v>103</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G248" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="247" spans="3:15">
-      <c r="D247" t="s">
+    <row r="249" spans="4:15">
+      <c r="D249" t="s">
         <v>104</v>
       </c>
-      <c r="G247" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="248" spans="3:15">
-      <c r="D248" t="s">
+      <c r="G249" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="250" spans="4:15">
+      <c r="D250" t="s">
         <v>105</v>
       </c>
-      <c r="G248" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="249" spans="3:15">
-      <c r="D249" t="s">
+      <c r="G250" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="251" spans="4:15">
+      <c r="D251" t="s">
         <v>106</v>
       </c>
-      <c r="O249" t="s">
+      <c r="O251" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="250" spans="3:15">
-      <c r="D250" t="s">
+    <row r="252" spans="4:15">
+      <c r="D252" t="s">
         <v>107</v>
       </c>
-      <c r="O250" t="s">
+      <c r="O252" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="3:15">
-      <c r="D251" t="s">
+    <row r="253" spans="4:15">
+      <c r="D253" t="s">
         <v>108</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G253" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="3:15">
-      <c r="D252" t="s">
+    <row r="254" spans="4:15">
+      <c r="D254" t="s">
         <v>109</v>
       </c>
-      <c r="G252" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="253" spans="3:15">
-      <c r="D253" t="s">
+      <c r="G254" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="255" spans="4:15">
+      <c r="D255" t="s">
         <v>110</v>
       </c>
-      <c r="G253" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="254" spans="3:15">
-      <c r="D254" t="s">
+      <c r="G255" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="256" spans="4:15">
+      <c r="D256" t="s">
         <v>111</v>
       </c>
-      <c r="G254" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="255" spans="3:15">
-      <c r="C255" t="s">
+      <c r="G256" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
+      <c r="C257" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="256" spans="3:15">
-      <c r="D256" t="s">
-        <v>113</v>
-      </c>
-      <c r="G256" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15">
-      <c r="D257" t="s">
-        <v>114</v>
-      </c>
-      <c r="G257" t="s">
-        <v>143</v>
-      </c>
-      <c r="K257" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="258" spans="1:15">
       <c r="D258" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="G258" t="s">
-        <v>150</v>
-      </c>
-      <c r="K258" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
     <row r="259" spans="1:15">
       <c r="D259" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G259" t="s">
         <v>143</v>
       </c>
       <c r="K259" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
     </row>
     <row r="260" spans="1:15">
-      <c r="E260" t="s">
-        <v>116</v>
+      <c r="D260" t="s">
+        <v>220</v>
       </c>
       <c r="G260" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="K260" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="261" spans="1:15">
       <c r="D261" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G261" t="s">
         <v>143</v>
       </c>
+      <c r="K261" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="262" spans="1:15">
-      <c r="D262" t="s">
-        <v>118</v>
+      <c r="E262" t="s">
+        <v>116</v>
       </c>
       <c r="G262" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="263" spans="1:15">
       <c r="D263" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G263" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="264" spans="1:15">
       <c r="D264" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G264" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="265" spans="1:15">
       <c r="D265" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G265" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:15">
       <c r="D266" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G266" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="267" spans="1:15">
       <c r="D267" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G267" t="s">
         <v>143</v>
@@ -5930,153 +5901,150 @@
     </row>
     <row r="268" spans="1:15">
       <c r="D268" t="s">
+        <v>122</v>
+      </c>
+      <c r="G268" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15">
+      <c r="D269" t="s">
+        <v>123</v>
+      </c>
+      <c r="G269" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15">
+      <c r="D270" t="s">
         <v>124</v>
       </c>
-      <c r="G268" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" ht="16" thickBot="1">
-      <c r="A270" s="3">
-        <f>COUNTA($A$4:A269)+1</f>
+      <c r="G270" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" ht="16" thickBot="1">
+      <c r="A272" s="3">
+        <f>COUNTA($A$4:A271)+1</f>
         <v>8</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B272" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
-      <c r="G270" s="4"/>
-      <c r="H270" s="4"/>
-      <c r="I270" s="15"/>
-      <c r="J270" s="15"/>
-      <c r="K270" s="4"/>
-      <c r="L270" s="26"/>
-      <c r="M270" s="26"/>
-      <c r="N270" s="26"/>
-      <c r="O270" s="4"/>
-    </row>
-    <row r="271" spans="1:15" ht="16" thickTop="1">
-      <c r="C271" t="s">
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
+      <c r="I272" s="15"/>
+      <c r="J272" s="15"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="26"/>
+      <c r="M272" s="26"/>
+      <c r="N272" s="26"/>
+      <c r="O272" s="4"/>
+    </row>
+    <row r="273" spans="1:15" ht="16" thickTop="1">
+      <c r="C273" t="s">
         <v>226</v>
       </c>
-      <c r="G271" t="s">
-        <v>143</v>
-      </c>
-      <c r="O271" t="s">
+      <c r="F273" t="s">
+        <v>309</v>
+      </c>
+      <c r="G273" t="s">
+        <v>143</v>
+      </c>
+      <c r="O273" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15">
-      <c r="C272" t="s">
-        <v>249</v>
-      </c>
-      <c r="G272" t="s">
-        <v>145</v>
-      </c>
-      <c r="K272" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15">
-      <c r="C273" t="s">
-        <v>285</v>
-      </c>
-      <c r="G273" t="s">
-        <v>150</v>
-      </c>
-      <c r="K273" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="C274" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G274" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K274" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="C275" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G275" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K275" t="s">
-        <v>165</v>
-      </c>
-      <c r="O275" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
     </row>
     <row r="276" spans="1:15">
       <c r="C276" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G276" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K276" t="s">
-        <v>298</v>
-      </c>
-      <c r="O276" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
     </row>
     <row r="277" spans="1:15">
       <c r="C277" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G277" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="K277" t="s">
+        <v>165</v>
       </c>
       <c r="O277" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="C278" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G278" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K278" t="s">
-        <v>228</v>
+        <v>298</v>
+      </c>
+      <c r="O278" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="C279" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="G279" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="O279" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="280" spans="1:15">
       <c r="C280" t="s">
-        <v>288</v>
-      </c>
-      <c r="G280" s="20" t="s">
-        <v>245</v>
+        <v>287</v>
+      </c>
+      <c r="G280" t="s">
+        <v>143</v>
       </c>
       <c r="K280" t="s">
-        <v>227</v>
-      </c>
-      <c r="O280" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
     </row>
     <row r="281" spans="1:15">
       <c r="C281" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G281" t="s">
         <v>143</v>
@@ -6084,236 +6052,238 @@
     </row>
     <row r="282" spans="1:15">
       <c r="C282" t="s">
-        <v>291</v>
-      </c>
-      <c r="G282" t="s">
-        <v>143</v>
+        <v>288</v>
+      </c>
+      <c r="G282" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K282" t="s">
+        <v>227</v>
+      </c>
+      <c r="O282" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:15">
       <c r="C283" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G283" t="s">
         <v>143</v>
-      </c>
-      <c r="O283" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:15">
       <c r="C284" t="s">
+        <v>291</v>
+      </c>
+      <c r="G284" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15">
+      <c r="C285" t="s">
+        <v>292</v>
+      </c>
+      <c r="G285" t="s">
+        <v>143</v>
+      </c>
+      <c r="O285" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15">
+      <c r="C286" t="s">
         <v>294</v>
       </c>
-      <c r="G284" t="s">
-        <v>145</v>
-      </c>
-      <c r="O284" t="s">
+      <c r="G286" t="s">
+        <v>145</v>
+      </c>
+      <c r="O286" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="16" thickBot="1">
-      <c r="A286" s="3">
-        <f>COUNTA($A$4:A285)+1</f>
+    <row r="288" spans="1:15" ht="16" thickBot="1">
+      <c r="A288" s="3">
+        <f>COUNTA($A$4:A287)+1</f>
         <v>9</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B288" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="4"/>
-      <c r="G286" s="4"/>
-      <c r="H286" s="4"/>
-      <c r="I286" s="15"/>
-      <c r="J286" s="15"/>
-      <c r="K286" s="4"/>
-      <c r="L286" s="26"/>
-      <c r="M286" s="26"/>
-      <c r="N286" s="26"/>
-      <c r="O286" s="4"/>
-    </row>
-    <row r="287" spans="1:15" ht="16" thickTop="1">
-      <c r="C287" t="s">
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
+      <c r="H288" s="4"/>
+      <c r="I288" s="15"/>
+      <c r="J288" s="15"/>
+      <c r="K288" s="4"/>
+      <c r="L288" s="26"/>
+      <c r="M288" s="26"/>
+      <c r="N288" s="26"/>
+      <c r="O288" s="4"/>
+    </row>
+    <row r="289" spans="1:15" ht="16" thickTop="1">
+      <c r="C289" t="s">
+        <v>226</v>
+      </c>
+      <c r="F289" t="s">
+        <v>309</v>
+      </c>
+      <c r="G289" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15">
+      <c r="A290" s="31"/>
+      <c r="C290" t="s">
         <v>125</v>
       </c>
-      <c r="G287" t="s">
-        <v>143</v>
-      </c>
-      <c r="K287" t="s">
+      <c r="G290" t="s">
+        <v>245</v>
+      </c>
+      <c r="K290" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
-      <c r="D288" t="s">
+    <row r="291" spans="1:15">
+      <c r="A291" s="31"/>
+      <c r="D291" t="s">
         <v>126</v>
       </c>
-      <c r="G288" t="s">
-        <v>150</v>
-      </c>
-      <c r="K288" t="s">
+      <c r="G291" t="s">
+        <v>245</v>
+      </c>
+      <c r="K291" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
-      <c r="D289" t="s">
+    <row r="292" spans="1:15">
+      <c r="A292" s="31"/>
+      <c r="D292" t="s">
         <v>127</v>
       </c>
-      <c r="G289" t="s">
-        <v>150</v>
-      </c>
-      <c r="K289" t="s">
+      <c r="G292" t="s">
+        <v>245</v>
+      </c>
+      <c r="K292" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
-      <c r="D290" t="s">
+    <row r="293" spans="1:15">
+      <c r="A293" s="31"/>
+      <c r="D293" t="s">
         <v>128</v>
       </c>
-      <c r="G290" t="s">
-        <v>150</v>
-      </c>
-      <c r="K290" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15">
-      <c r="D291" t="s">
-        <v>223</v>
-      </c>
-      <c r="G291" t="s">
-        <v>150</v>
-      </c>
-      <c r="O291" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15">
-      <c r="C292" t="s">
-        <v>129</v>
-      </c>
-      <c r="G292" t="s">
-        <v>143</v>
-      </c>
-      <c r="K292" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15">
-      <c r="D293" t="s">
-        <v>127</v>
-      </c>
       <c r="G293" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="K293" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="294" spans="1:15">
+      <c r="A294" s="31"/>
       <c r="D294" t="s">
         <v>223</v>
       </c>
       <c r="G294" t="s">
-        <v>150</v>
-      </c>
-      <c r="K294" t="s">
+        <v>245</v>
+      </c>
+      <c r="O294" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
+      <c r="A295" s="31"/>
+      <c r="C295" t="s">
+        <v>129</v>
+      </c>
+      <c r="G295" t="s">
+        <v>245</v>
+      </c>
+      <c r="K295" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
+      <c r="A296" s="31"/>
+      <c r="D296" t="s">
+        <v>127</v>
+      </c>
+      <c r="G296" t="s">
+        <v>245</v>
+      </c>
+      <c r="K296" t="s">
         <v>227</v>
       </c>
-      <c r="O294" t="s">
+    </row>
+    <row r="297" spans="1:15">
+      <c r="A297" s="31"/>
+      <c r="D297" t="s">
+        <v>223</v>
+      </c>
+      <c r="G297" t="s">
+        <v>245</v>
+      </c>
+      <c r="K297" t="s">
+        <v>227</v>
+      </c>
+      <c r="O297" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="16" thickBot="1">
-      <c r="A296" s="3">
-        <f>COUNTA($A$4:A295)+1</f>
+    <row r="299" spans="1:15" ht="16" thickBot="1">
+      <c r="A299" s="3">
+        <f>COUNTA($A$4:A298)+1</f>
         <v>10</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B299" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="4"/>
-      <c r="F296" s="4"/>
-      <c r="G296" s="4"/>
-      <c r="H296" s="4"/>
-      <c r="I296" s="15"/>
-      <c r="J296" s="15"/>
-      <c r="K296" s="4"/>
-      <c r="L296" s="26"/>
-      <c r="M296" s="26"/>
-      <c r="N296" s="26"/>
-      <c r="O296" s="4"/>
-    </row>
-    <row r="297" spans="1:15" ht="16" thickTop="1">
-      <c r="C297" t="s">
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
+      <c r="G299" s="4"/>
+      <c r="H299" s="4"/>
+      <c r="I299" s="15"/>
+      <c r="J299" s="15"/>
+      <c r="K299" s="4"/>
+      <c r="L299" s="26"/>
+      <c r="M299" s="26"/>
+      <c r="N299" s="26"/>
+      <c r="O299" s="4"/>
+    </row>
+    <row r="300" spans="1:15" ht="16" thickTop="1">
+      <c r="C300" t="s">
         <v>226</v>
       </c>
-      <c r="G297" t="s">
-        <v>143</v>
-      </c>
-      <c r="O297" t="s">
+      <c r="F300" t="s">
+        <v>400</v>
+      </c>
+      <c r="G300" t="s">
+        <v>143</v>
+      </c>
+      <c r="O300" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15">
-      <c r="C298" t="s">
-        <v>249</v>
-      </c>
-      <c r="G298" t="s">
-        <v>145</v>
-      </c>
-      <c r="K298" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15">
-      <c r="C299" t="s">
-        <v>250</v>
-      </c>
-      <c r="G299" t="s">
-        <v>145</v>
-      </c>
-      <c r="I299" s="14">
-        <v>1</v>
-      </c>
-      <c r="J299" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15">
-      <c r="C300" t="s">
-        <v>251</v>
-      </c>
-      <c r="G300" t="s">
-        <v>145</v>
-      </c>
-      <c r="I300" s="14">
-        <v>1</v>
-      </c>
-      <c r="J300" s="14">
-        <v>256</v>
       </c>
     </row>
     <row r="301" spans="1:15">
       <c r="C301" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G301" t="s">
         <v>145</v>
       </c>
-      <c r="I301" s="14">
-        <v>1</v>
-      </c>
-      <c r="J301" s="14">
-        <v>256</v>
+      <c r="K301" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="302" spans="1:15">
       <c r="C302" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G302" t="s">
         <v>145</v>
@@ -6327,7 +6297,7 @@
     </row>
     <row r="303" spans="1:15">
       <c r="C303" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G303" t="s">
         <v>145</v>
@@ -6341,7 +6311,7 @@
     </row>
     <row r="304" spans="1:15">
       <c r="C304" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G304" t="s">
         <v>145</v>
@@ -6355,285 +6325,332 @@
     </row>
     <row r="305" spans="1:15">
       <c r="C305" t="s">
+        <v>253</v>
+      </c>
+      <c r="G305" t="s">
+        <v>145</v>
+      </c>
+      <c r="I305" s="14">
+        <v>1</v>
+      </c>
+      <c r="J305" s="14">
         <v>256</v>
-      </c>
-      <c r="G305" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="C306" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G306" t="s">
         <v>145</v>
+      </c>
+      <c r="I306" s="14">
+        <v>1</v>
+      </c>
+      <c r="J306" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="307" spans="1:15">
       <c r="C307" t="s">
+        <v>255</v>
+      </c>
+      <c r="G307" t="s">
+        <v>145</v>
+      </c>
+      <c r="I307" s="14">
+        <v>1</v>
+      </c>
+      <c r="J307" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
+      <c r="C308" t="s">
+        <v>256</v>
+      </c>
+      <c r="G308" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15">
+      <c r="C309" t="s">
+        <v>257</v>
+      </c>
+      <c r="G309" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="C310" t="s">
         <v>258</v>
       </c>
-      <c r="G307" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15">
-      <c r="D308" t="s">
+    </row>
+    <row r="311" spans="1:15">
+      <c r="A311" s="31"/>
+      <c r="D311" t="s">
         <v>151</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G311" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
-      <c r="D309" t="s">
+    <row r="312" spans="1:15">
+      <c r="A312" s="31"/>
+      <c r="D312" t="s">
         <v>152</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G312" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="16" thickBot="1">
-      <c r="A311" s="3">
-        <f>COUNTA($A$4:A310)+1</f>
+    <row r="314" spans="1:15" ht="16" thickBot="1">
+      <c r="A314" s="3">
+        <f>COUNTA($A$4:A313)+1</f>
         <v>11</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B314" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
-      <c r="G311" s="4"/>
-      <c r="H311" s="4"/>
-      <c r="I311" s="15"/>
-      <c r="J311" s="15"/>
-      <c r="K311" s="4"/>
-      <c r="L311" s="26"/>
-      <c r="M311" s="26"/>
-      <c r="N311" s="26"/>
-      <c r="O311" s="4"/>
-    </row>
-    <row r="312" spans="1:15" ht="16" thickTop="1">
-      <c r="C312" t="s">
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
+      <c r="H314" s="4"/>
+      <c r="I314" s="15"/>
+      <c r="J314" s="15"/>
+      <c r="K314" s="4"/>
+      <c r="L314" s="26"/>
+      <c r="M314" s="26"/>
+      <c r="N314" s="26"/>
+      <c r="O314" s="4"/>
+    </row>
+    <row r="315" spans="1:15" ht="16" thickTop="1">
+      <c r="C315" t="s">
         <v>226</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F315" t="s">
         <v>336</v>
       </c>
-      <c r="G312" t="s">
-        <v>143</v>
-      </c>
-      <c r="O312" t="s">
+      <c r="G315" t="s">
+        <v>143</v>
+      </c>
+      <c r="O315" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="313" spans="1:15">
-      <c r="C313" t="s">
-        <v>249</v>
-      </c>
-      <c r="F313" t="s">
-        <v>309</v>
-      </c>
-      <c r="G313" t="s">
-        <v>145</v>
-      </c>
-      <c r="K313" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15">
-      <c r="C314" t="s">
-        <v>337</v>
-      </c>
-      <c r="F314" t="s">
-        <v>322</v>
-      </c>
-      <c r="G314" t="s">
-        <v>143</v>
-      </c>
-      <c r="O314" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15">
-      <c r="C315" t="s">
-        <v>263</v>
-      </c>
-      <c r="G315" t="s">
-        <v>144</v>
-      </c>
-      <c r="I315" s="14">
-        <v>0</v>
-      </c>
-      <c r="J315" s="14">
-        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:15">
       <c r="C316" t="s">
-        <v>264</v>
+        <v>249</v>
+      </c>
+      <c r="F316" t="s">
+        <v>309</v>
       </c>
       <c r="G316" t="s">
         <v>145</v>
       </c>
-      <c r="I316" s="14">
-        <v>1</v>
-      </c>
-      <c r="J316" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O316" t="s">
-        <v>265</v>
+      <c r="K316" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="317" spans="1:15">
       <c r="C317" t="s">
+        <v>337</v>
+      </c>
+      <c r="F317" t="s">
+        <v>322</v>
+      </c>
+      <c r="G317" t="s">
+        <v>143</v>
+      </c>
+      <c r="O317" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15">
+      <c r="C318" t="s">
+        <v>263</v>
+      </c>
+      <c r="G318" t="s">
+        <v>144</v>
+      </c>
+      <c r="I318" s="14">
+        <v>0</v>
+      </c>
+      <c r="J318" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15">
+      <c r="C319" t="s">
+        <v>264</v>
+      </c>
+      <c r="G319" t="s">
+        <v>145</v>
+      </c>
+      <c r="I319" s="14">
+        <v>1</v>
+      </c>
+      <c r="J319" s="14">
+        <v>4096</v>
+      </c>
+      <c r="O319" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15">
+      <c r="C320" t="s">
         <v>266</v>
       </c>
-      <c r="G317" t="s">
-        <v>145</v>
-      </c>
-      <c r="I317" s="14">
+      <c r="G320" t="s">
+        <v>145</v>
+      </c>
+      <c r="I320" s="14">
         <v>1</v>
       </c>
-      <c r="J317" s="14">
+      <c r="J320" s="14">
         <v>256</v>
       </c>
-      <c r="O317" t="s">
+      <c r="O320" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="16" thickBot="1">
-      <c r="A319" s="3">
-        <f>COUNTA($A$4:A318)+1</f>
+    <row r="322" spans="1:15" ht="16" thickBot="1">
+      <c r="A322" s="3">
+        <f>COUNTA($A$4:A321)+1</f>
         <v>12</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B322" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
-      <c r="H319" s="4"/>
-      <c r="I319" s="15"/>
-      <c r="J319" s="15"/>
-      <c r="K319" s="4"/>
-      <c r="L319" s="26"/>
-      <c r="M319" s="26"/>
-      <c r="N319" s="26"/>
-      <c r="O319" s="4"/>
-    </row>
-    <row r="320" spans="1:15" ht="16" thickTop="1">
-      <c r="C320" t="s">
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
+      <c r="H322" s="4"/>
+      <c r="I322" s="15"/>
+      <c r="J322" s="15"/>
+      <c r="K322" s="4"/>
+      <c r="L322" s="26"/>
+      <c r="M322" s="26"/>
+      <c r="N322" s="26"/>
+      <c r="O322" s="4"/>
+    </row>
+    <row r="323" spans="1:15" ht="16" thickTop="1">
+      <c r="C323" t="s">
         <v>226</v>
       </c>
-      <c r="G320" t="s">
-        <v>143</v>
-      </c>
-      <c r="O320" t="s">
+      <c r="F323" t="s">
+        <v>400</v>
+      </c>
+      <c r="G323" t="s">
+        <v>143</v>
+      </c>
+      <c r="O323" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15">
-      <c r="C321" t="s">
-        <v>249</v>
-      </c>
-      <c r="G321" t="s">
-        <v>145</v>
-      </c>
-      <c r="K321" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15">
-      <c r="C322" t="s">
-        <v>273</v>
-      </c>
-      <c r="G322" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15">
-      <c r="C323" t="s">
-        <v>273</v>
-      </c>
-      <c r="G323" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="324" spans="1:15">
       <c r="C324" t="s">
+        <v>249</v>
+      </c>
+      <c r="G324" t="s">
+        <v>145</v>
+      </c>
+      <c r="K324" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15">
+      <c r="C325" t="s">
+        <v>273</v>
+      </c>
+      <c r="G325" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15">
+      <c r="C326" t="s">
+        <v>273</v>
+      </c>
+      <c r="G326" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15">
+      <c r="C327" t="s">
         <v>274</v>
       </c>
-      <c r="G324" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15" ht="16" thickBot="1">
-      <c r="A326" s="3">
-        <f>COUNTA($A$4:A325)+1</f>
+      <c r="G327" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" ht="16" thickBot="1">
+      <c r="A329" s="3">
+        <f>COUNTA($A$4:A328)+1</f>
         <v>13</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B329" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
-      <c r="E326" s="4"/>
-      <c r="F326" s="4"/>
-      <c r="G326" s="4"/>
-      <c r="H326" s="4"/>
-      <c r="I326" s="15"/>
-      <c r="J326" s="15"/>
-      <c r="K326" s="4"/>
-      <c r="L326" s="26"/>
-      <c r="M326" s="26"/>
-      <c r="N326" s="26"/>
-      <c r="O326" s="4"/>
-    </row>
-    <row r="327" spans="1:15" ht="16" thickTop="1">
-      <c r="C327" t="s">
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
+      <c r="H329" s="4"/>
+      <c r="I329" s="15"/>
+      <c r="J329" s="15"/>
+      <c r="K329" s="4"/>
+      <c r="L329" s="26"/>
+      <c r="M329" s="26"/>
+      <c r="N329" s="26"/>
+      <c r="O329" s="4"/>
+    </row>
+    <row r="330" spans="1:15" ht="16" thickTop="1">
+      <c r="C330" t="s">
         <v>226</v>
       </c>
-      <c r="G327" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="328" spans="1:15">
-      <c r="C328" t="s">
+      <c r="F330" t="s">
+        <v>400</v>
+      </c>
+      <c r="G330" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15">
+      <c r="C331" t="s">
         <v>345</v>
       </c>
-      <c r="G328" t="s">
+      <c r="G331" t="s">
         <v>147</v>
       </c>
-      <c r="I328" s="14">
+      <c r="I331" s="14">
         <v>24</v>
       </c>
-      <c r="J328" s="14">
+      <c r="J331" s="14">
         <v>24</v>
       </c>
-      <c r="K328" t="s">
+      <c r="K331" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
-      <c r="C329" t="s">
+    <row r="332" spans="1:15">
+      <c r="C332" t="s">
         <v>344</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G332" t="s">
         <v>147</v>
       </c>
-      <c r="I329" s="14">
+      <c r="I332" s="14">
         <v>24</v>
       </c>
-      <c r="J329" s="14">
+      <c r="J332" s="14">
         <v>24</v>
       </c>
-      <c r="K329" t="s">
+      <c r="K332" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6646,7 +6663,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{277FBE70-A336-6C46-A87F-9BC130032D5F}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{277FBE70-A336-6C46-A87F-9BC130032D5F}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6659,10 +6676,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G1:G67 G69:G124 G126:G132 G134:G156 G158:G161 G163:G1048576</xm:sqref>
+          <xm:sqref>G1:G67 G69:G124 G126:G132 G135:G157 G159:G162 G164:G205 G207:G289 G291:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{85322518-53BE-DD49-9DAF-2686AECF81BD}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{85322518-53BE-DD49-9DAF-2686AECF81BD}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6678,7 +6695,7 @@
           <xm:sqref>G68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{3B3D28A8-0617-3546-8F98-4028FB409A14}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{3B3D28A8-0617-3546-8F98-4028FB409A14}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6694,7 +6711,7 @@
           <xm:sqref>G125</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{7E68CD9F-17B0-764E-9328-52BA69CA69BD}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{7E68CD9F-17B0-764E-9328-52BA69CA69BD}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6707,10 +6724,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G133</xm:sqref>
+          <xm:sqref>G133:G134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{A33AB7E9-5B25-7346-B043-D0E68F05EA66}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{A33AB7E9-5B25-7346-B043-D0E68F05EA66}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6723,7 +6740,39 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G162 G157</xm:sqref>
+          <xm:sqref>G163 G158</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{BCE5CD51-EA0D-464D-AD6D-5433D1054E6C}">
+            <xm:f>Sheet2!$A$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G206</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{25F7E9E8-98D9-894A-86C4-D3AC4D83332D}">
+            <xm:f>Sheet2!$A$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G290</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6733,19 +6782,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>G326:G329 G5:G324</xm:sqref>
+          <xm:sqref>G329:G332 G5:G327</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N329</xm:sqref>
+          <xm:sqref>N5:N332</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:M329</xm:sqref>
+          <xm:sqref>L5:M332</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="403">
   <si>
     <t>Communication:</t>
   </si>
@@ -1202,15 +1202,6 @@
     <t>prices</t>
   </si>
   <si>
-    <t xml:space="preserve"> boat_per_day</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> captain_per_day</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> insurance_total</t>
-  </si>
-  <si>
     <t xml:space="preserve"> sailo comission_total</t>
   </si>
   <si>
@@ -1224,6 +1215,21 @@
   </si>
   <si>
     <t>pk</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>insurance_total</t>
+  </si>
+  <si>
+    <t>captain_per_day</t>
+  </si>
+  <si>
+    <t>boat_per_day</t>
+  </si>
+  <si>
+    <t>sailo comission_total</t>
   </si>
 </sst>
 </file>
@@ -1428,11 +1434,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="356">
+  <cellStyleXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1852,7 +1862,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="356">
+  <cellStyles count="360">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2031,6 +2041,8 @@
     <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2208,9 +2220,41 @@
     <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2671,11 +2715,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O332"/>
+  <dimension ref="A1:O341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A311" sqref="A311:A312"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3364,231 +3408,166 @@
     </row>
     <row r="44" spans="1:15">
       <c r="C44" t="s">
-        <v>25</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="31"/>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
         <v>144</v>
       </c>
-      <c r="O45" s="12" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="31"/>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>399</v>
       </c>
       <c r="G46" t="s">
         <v>144</v>
       </c>
-      <c r="O46" s="12" t="s">
+    </row>
+    <row r="47" spans="1:15">
+      <c r="D47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="31"/>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" t="s">
+        <v>144</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" t="s">
-        <v>322</v>
-      </c>
-      <c r="G47" t="s">
-        <v>245</v>
-      </c>
-      <c r="K47" t="s">
-        <v>321</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="20" customFormat="1">
-      <c r="C48" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="O48" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K49" t="s">
-        <v>173</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O49" t="s">
-        <v>269</v>
-      </c>
-    </row>
     <row r="50" spans="1:15">
-      <c r="C50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" t="s">
-        <v>322</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K50" t="s">
-        <v>276</v>
-      </c>
-      <c r="N50" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O50" t="s">
-        <v>275</v>
+      <c r="A50" s="31"/>
+      <c r="D50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" t="s">
+        <v>144</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="C51" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
         <v>322</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" t="s">
         <v>245</v>
       </c>
-      <c r="I51" s="14">
+      <c r="K51" t="s">
+        <v>321</v>
+      </c>
+      <c r="N51" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="20" customFormat="1">
+      <c r="C52" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K53" t="s">
+        <v>173</v>
+      </c>
+      <c r="N53" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="O53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K54" t="s">
+        <v>276</v>
+      </c>
+      <c r="N54" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="O54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="C55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="I55" s="14">
         <v>0</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J55" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K55" t="s">
         <v>279</v>
       </c>
-      <c r="N51" s="25" t="s">
+      <c r="N55" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O55" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="C52" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="22"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23">
-        <v>0</v>
-      </c>
-      <c r="J53" s="23">
-        <v>100</v>
-      </c>
-      <c r="K53" s="22"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23">
-        <v>0</v>
-      </c>
-      <c r="J54" s="23">
-        <v>100</v>
-      </c>
-      <c r="K54" s="22"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="C55" s="22"/>
-      <c r="D55" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="23">
-        <v>0</v>
-      </c>
-      <c r="J55" s="23">
-        <v>48</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="22" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="C56" s="22" t="s">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -3597,113 +3576,154 @@
       <c r="H56" s="22"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
-      <c r="K56" s="22" t="s">
-        <v>319</v>
-      </c>
+      <c r="K56" s="22"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
       <c r="N56" s="29"/>
-      <c r="O56" s="22" t="s">
+      <c r="O56" s="22"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="C57" s="22"/>
+      <c r="D57" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23">
+        <v>0</v>
+      </c>
+      <c r="J57" s="23">
+        <v>100</v>
+      </c>
+      <c r="K57" s="22"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23">
+        <v>0</v>
+      </c>
+      <c r="J58" s="23">
+        <v>100</v>
+      </c>
+      <c r="K58" s="22"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="C59" s="22"/>
+      <c r="D59" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23">
+        <v>0</v>
+      </c>
+      <c r="J59" s="23">
+        <v>48</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="C60" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="16" thickBot="1">
-      <c r="A58" s="3">
+    <row r="62" spans="1:15" ht="16" thickBot="1">
+      <c r="A62" s="3">
         <f>COUNTA($A$4:A41)+1</f>
         <v>2</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" ht="16" thickTop="1">
-      <c r="C59" t="s">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" spans="1:15" ht="16" thickTop="1">
+      <c r="C63" t="s">
         <v>281</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F63" t="s">
         <v>309</v>
       </c>
-      <c r="G59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="C60" t="s">
+      <c r="G63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="C64" t="s">
         <v>316</v>
       </c>
-      <c r="G60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="C61" t="s">
-        <v>249</v>
-      </c>
-      <c r="G61" t="s">
-        <v>145</v>
-      </c>
-      <c r="I61" s="14">
-        <v>1</v>
-      </c>
-      <c r="J61" s="14">
-        <v>20</v>
-      </c>
-      <c r="K61" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="16" thickBot="1">
-      <c r="A63" s="3">
-        <f>COUNTA($A$4:A62)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" ht="16" thickTop="1">
-      <c r="C64" t="s">
-        <v>323</v>
-      </c>
-      <c r="F64" t="s">
-        <v>309</v>
-      </c>
       <c r="G64" t="s">
         <v>143</v>
-      </c>
-      <c r="O64" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="C65" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="G65" t="s">
         <v>145</v>
@@ -3712,66 +3732,51 @@
         <v>1</v>
       </c>
       <c r="J65" s="14">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="C66" t="s">
-        <v>325</v>
-      </c>
-      <c r="G66" t="s">
-        <v>145</v>
-      </c>
-      <c r="I66" s="14">
-        <v>1</v>
-      </c>
-      <c r="J66" s="14">
-        <v>35</v>
-      </c>
-      <c r="K66" t="s">
-        <v>332</v>
-      </c>
-      <c r="O66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="C67" t="s">
-        <v>326</v>
-      </c>
-      <c r="G67" t="s">
-        <v>143</v>
-      </c>
-      <c r="I67" s="14">
-        <v>1</v>
-      </c>
-      <c r="J67" s="14">
-        <v>300</v>
-      </c>
-      <c r="O67" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="16" thickBot="1">
+      <c r="A67" s="3">
+        <f>COUNTA($A$4:A66)+1</f>
+        <v>3</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="4"/>
+    </row>
+    <row r="68" spans="1:15" ht="16" thickTop="1">
       <c r="C68" t="s">
-        <v>333</v>
+        <v>323</v>
+      </c>
+      <c r="F68" t="s">
+        <v>309</v>
       </c>
       <c r="G68" t="s">
         <v>143</v>
       </c>
-      <c r="I68" s="14">
-        <v>1</v>
-      </c>
-      <c r="J68" s="14">
-        <v>1000000</v>
-      </c>
       <c r="O68" t="s">
-        <v>335</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="C69" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G69" t="s">
         <v>145</v>
@@ -3782,424 +3787,394 @@
       <c r="J69" s="14">
         <v>4096</v>
       </c>
-      <c r="O69" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="70" spans="1:15">
       <c r="C70" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="G70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="14">
+        <v>1</v>
+      </c>
+      <c r="J70" s="14">
+        <v>35</v>
+      </c>
+      <c r="K70" t="s">
+        <v>332</v>
+      </c>
+      <c r="O70" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="31"/>
-      <c r="D71" t="s">
-        <v>151</v>
+      <c r="C71" t="s">
+        <v>326</v>
       </c>
       <c r="G71" t="s">
-        <v>144</v>
-      </c>
-      <c r="O71" s="12" t="s">
-        <v>181</v>
+        <v>143</v>
+      </c>
+      <c r="I71" s="14">
+        <v>1</v>
+      </c>
+      <c r="J71" s="14">
+        <v>300</v>
+      </c>
+      <c r="O71" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="31"/>
-      <c r="D72" t="s">
-        <v>152</v>
+      <c r="C72" t="s">
+        <v>333</v>
       </c>
       <c r="G72" t="s">
-        <v>144</v>
-      </c>
-      <c r="O72" s="12" t="s">
-        <v>181</v>
+        <v>143</v>
+      </c>
+      <c r="I72" s="14">
+        <v>1</v>
+      </c>
+      <c r="J72" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="O72" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="C73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I73" s="14">
         <v>1</v>
       </c>
       <c r="J73" s="14">
-        <v>5000</v>
-      </c>
-      <c r="K73" t="s">
-        <v>190</v>
+        <v>4096</v>
       </c>
       <c r="O73" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="31"/>
       <c r="C74" t="s">
-        <v>237</v>
-      </c>
-      <c r="G74" t="s">
-        <v>245</v>
-      </c>
-      <c r="K74" t="s">
-        <v>269</v>
-      </c>
-      <c r="N74" s="25" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="C75" s="22"/>
-      <c r="D75" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22" t="s">
+      <c r="A75" s="31"/>
+      <c r="D75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" t="s">
         <v>144</v>
       </c>
-      <c r="H75" s="22"/>
-      <c r="I75" s="23">
-        <v>0</v>
-      </c>
-      <c r="J75" s="23">
-        <v>5</v>
-      </c>
-      <c r="K75" s="22"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="22" t="s">
-        <v>246</v>
+      <c r="O75" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="31"/>
-      <c r="C76" t="s">
-        <v>330</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K76" t="s">
-        <v>275</v>
-      </c>
-      <c r="N76" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O76" t="s">
-        <v>276</v>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" t="s">
+        <v>144</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="C77" t="s">
+        <v>329</v>
+      </c>
+      <c r="G77" t="s">
+        <v>144</v>
+      </c>
+      <c r="I77" s="14">
+        <v>1</v>
+      </c>
+      <c r="J77" s="14">
+        <v>5000</v>
+      </c>
+      <c r="K77" t="s">
+        <v>190</v>
+      </c>
+      <c r="O77" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="31"/>
+      <c r="C78" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" t="s">
+        <v>245</v>
+      </c>
+      <c r="K78" t="s">
+        <v>269</v>
+      </c>
+      <c r="N78" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="C79" s="22"/>
+      <c r="D79" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23">
+        <v>0</v>
+      </c>
+      <c r="J79" s="23">
+        <v>5</v>
+      </c>
+      <c r="K79" s="22"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="31"/>
+      <c r="C80" t="s">
+        <v>330</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K80" t="s">
+        <v>275</v>
+      </c>
+      <c r="N80" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="O80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15">
+      <c r="C81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15">
+      <c r="D82" t="s">
+        <v>400</v>
+      </c>
+      <c r="G82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15">
+      <c r="D83" t="s">
+        <v>399</v>
+      </c>
+      <c r="G83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15">
+      <c r="D84" t="s">
+        <v>402</v>
+      </c>
+      <c r="G84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15">
+      <c r="C85" t="s">
         <v>302</v>
       </c>
-      <c r="O77" t="s">
+      <c r="O85" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="D78" t="s">
+    <row r="86" spans="3:15">
+      <c r="D86" t="s">
         <v>339</v>
       </c>
-      <c r="G78" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="D79" t="s">
+      <c r="G86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15">
+      <c r="D87" t="s">
         <v>340</v>
       </c>
-      <c r="G79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="D80" t="s">
+      <c r="G87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15">
+      <c r="D88" t="s">
         <v>341</v>
       </c>
-      <c r="G80" t="s">
-        <v>143</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="G88" t="s">
+        <v>143</v>
+      </c>
+      <c r="K88" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
-      <c r="D81" s="22" t="s">
+    <row r="89" spans="3:15">
+      <c r="D89" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22" t="s">
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H81" s="22"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="22" t="s">
+      <c r="H89" s="22"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="22"/>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="D82" s="22" t="s">
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="22"/>
+    </row>
+    <row r="90" spans="3:15">
+      <c r="D90" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22" t="s">
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="22" t="s">
+      <c r="H90" s="22"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="22"/>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="C83" t="s">
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="22"/>
+    </row>
+    <row r="91" spans="3:15">
+      <c r="C91" t="s">
         <v>303</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O91" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
-      <c r="D84" t="s">
+    <row r="92" spans="3:15">
+      <c r="D92" t="s">
         <v>352</v>
       </c>
-      <c r="G84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="D85" t="s">
+      <c r="G92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15">
+      <c r="D93" t="s">
         <v>353</v>
       </c>
-      <c r="G85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="D86" t="s">
+      <c r="G93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15">
+      <c r="D94" t="s">
         <v>354</v>
       </c>
-      <c r="G86" t="s">
-        <v>143</v>
-      </c>
-      <c r="K86" t="s">
+      <c r="G94" t="s">
+        <v>143</v>
+      </c>
+      <c r="K94" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
-      <c r="D87" s="22" t="s">
+    <row r="95" spans="3:15">
+      <c r="D95" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22" t="s">
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="22" t="s">
+      <c r="H95" s="22"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="22"/>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="D88" s="22" t="s">
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="22"/>
+    </row>
+    <row r="96" spans="3:15">
+      <c r="D96" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22" t="s">
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="22" t="s">
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="22"/>
-    </row>
-    <row r="90" spans="1:15" ht="16" thickBot="1">
-      <c r="A90" s="3">
-        <f>COUNTA($A$4:A89)+1</f>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="22"/>
+    </row>
+    <row r="98" spans="1:15" ht="16" thickBot="1">
+      <c r="A98" s="3">
+        <f>COUNTA($A$4:A97)+1</f>
         <v>4</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="1:15" ht="16" thickTop="1">
-      <c r="C91" t="s">
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="4"/>
+    </row>
+    <row r="99" spans="1:15" ht="16" thickTop="1">
+      <c r="C99" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
-      <c r="D92" t="s">
+    <row r="100" spans="1:15">
+      <c r="D100" t="s">
         <v>39</v>
-      </c>
-      <c r="G92" t="s">
-        <v>145</v>
-      </c>
-      <c r="I92" s="14">
-        <v>1</v>
-      </c>
-      <c r="J92" s="14">
-        <v>256</v>
-      </c>
-      <c r="L92" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M92" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="D93" t="s">
-        <v>357</v>
-      </c>
-      <c r="G93" t="s">
-        <v>145</v>
-      </c>
-      <c r="I93" s="14">
-        <v>1</v>
-      </c>
-      <c r="J93" s="14">
-        <v>256</v>
-      </c>
-      <c r="L93" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="M93" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="D94" t="s">
-        <v>40</v>
-      </c>
-      <c r="G94" t="s">
-        <v>145</v>
-      </c>
-      <c r="I94" s="14">
-        <v>1</v>
-      </c>
-      <c r="J94" s="14">
-        <v>256</v>
-      </c>
-      <c r="L94" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M94" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="C95" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" t="s">
-        <v>145</v>
-      </c>
-      <c r="I95" s="14">
-        <v>1</v>
-      </c>
-      <c r="J95" s="14">
-        <v>256</v>
-      </c>
-      <c r="L95" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="M95" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="C96" t="s">
-        <v>358</v>
-      </c>
-      <c r="G96" t="s">
-        <v>146</v>
-      </c>
-      <c r="L96" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="M96" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15">
-      <c r="C97" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="3:15">
-      <c r="D98" t="s">
-        <v>43</v>
-      </c>
-      <c r="G98" t="s">
-        <v>145</v>
-      </c>
-      <c r="I98" s="14">
-        <v>1</v>
-      </c>
-      <c r="J98" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="3:15">
-      <c r="D99" t="s">
-        <v>44</v>
-      </c>
-      <c r="G99" t="s">
-        <v>145</v>
-      </c>
-      <c r="I99" s="14">
-        <v>1</v>
-      </c>
-      <c r="J99" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="3:15">
-      <c r="D100" t="s">
-        <v>45</v>
       </c>
       <c r="G100" t="s">
         <v>145</v>
@@ -4210,13 +4185,16 @@
       <c r="J100" s="14">
         <v>256</v>
       </c>
-      <c r="K100" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15">
+      <c r="L100" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="M100" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="D101" t="s">
-        <v>46</v>
+        <v>357</v>
       </c>
       <c r="G101" t="s">
         <v>145</v>
@@ -4227,27 +4205,36 @@
       <c r="J101" s="14">
         <v>256</v>
       </c>
-    </row>
-    <row r="102" spans="3:15">
+      <c r="L101" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="M101" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="D102" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>143</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J102" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="O102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="3:15">
-      <c r="D103" t="s">
-        <v>48</v>
+        <v>145</v>
+      </c>
+      <c r="I102" s="14">
+        <v>1</v>
+      </c>
+      <c r="J102" s="14">
+        <v>256</v>
+      </c>
+      <c r="L102" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="M102" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="C103" t="s">
+        <v>41</v>
       </c>
       <c r="G103" t="s">
         <v>145</v>
@@ -4258,408 +4245,414 @@
       <c r="J103" s="14">
         <v>256</v>
       </c>
-      <c r="K103" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="3:15">
+      <c r="L103" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="M103" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="C104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="3:15">
-      <c r="D105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="3:15">
-      <c r="E106" t="s">
-        <v>51</v>
+        <v>358</v>
+      </c>
+      <c r="G104" t="s">
+        <v>146</v>
+      </c>
+      <c r="L104" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="M104" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="C105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="D106" t="s">
+        <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>143</v>
-      </c>
-      <c r="K106" t="s">
-        <v>359</v>
-      </c>
-      <c r="O106" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="107" spans="3:15">
-      <c r="E107" t="s">
-        <v>52</v>
+        <v>145</v>
+      </c>
+      <c r="I106" s="14">
+        <v>1</v>
+      </c>
+      <c r="J106" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="D107" t="s">
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>143</v>
-      </c>
-      <c r="K107" t="s">
-        <v>359</v>
-      </c>
-      <c r="O107" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="108" spans="3:15">
+        <v>145</v>
+      </c>
+      <c r="I107" s="14">
+        <v>1</v>
+      </c>
+      <c r="J107" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="D108" t="s">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="G108" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="109" spans="3:15">
+      <c r="I108" s="14">
+        <v>1</v>
+      </c>
+      <c r="J108" s="14">
+        <v>256</v>
+      </c>
+      <c r="K108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="D109" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="3:15">
-      <c r="C110" t="s">
-        <v>387</v>
+        <v>145</v>
+      </c>
+      <c r="I109" s="14">
+        <v>1</v>
+      </c>
+      <c r="J109" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="D110" t="s">
+        <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="3:15">
-      <c r="C111" t="s">
-        <v>388</v>
+        <v>143</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="O110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="D111" t="s">
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I111" s="14">
         <v>1</v>
       </c>
       <c r="J111" s="14">
+        <v>256</v>
+      </c>
+      <c r="K111" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="D113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="E114" t="s">
+        <v>51</v>
+      </c>
+      <c r="G114" t="s">
+        <v>143</v>
+      </c>
+      <c r="K114" t="s">
+        <v>359</v>
+      </c>
+      <c r="O114" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="E115" t="s">
+        <v>52</v>
+      </c>
+      <c r="G115" t="s">
+        <v>143</v>
+      </c>
+      <c r="K115" t="s">
+        <v>359</v>
+      </c>
+      <c r="O115" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="D116" t="s">
+        <v>386</v>
+      </c>
+      <c r="G116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="D117" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="C118" t="s">
+        <v>387</v>
+      </c>
+      <c r="G118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="C119" t="s">
+        <v>388</v>
+      </c>
+      <c r="G119" t="s">
+        <v>143</v>
+      </c>
+      <c r="I119" s="14">
+        <v>1</v>
+      </c>
+      <c r="J119" s="14">
         <v>1000000</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K119" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="3:15">
-      <c r="C112" t="s">
-        <v>389</v>
-      </c>
-      <c r="G112" t="s">
-        <v>143</v>
-      </c>
-      <c r="I112" s="14">
-        <v>0</v>
-      </c>
-      <c r="J112" s="14">
-        <v>100</v>
-      </c>
-      <c r="K112" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="C113" t="s">
-        <v>257</v>
-      </c>
-      <c r="G113" t="s">
-        <v>145</v>
-      </c>
-      <c r="I113" s="14">
-        <v>1</v>
-      </c>
-      <c r="J113" s="14">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="30"/>
-      <c r="C114" t="s">
-        <v>361</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K114" t="s">
-        <v>260</v>
-      </c>
-      <c r="N114" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="30"/>
-      <c r="C115" t="s">
-        <v>237</v>
-      </c>
-      <c r="G115" t="s">
-        <v>245</v>
-      </c>
-      <c r="K115" t="s">
-        <v>362</v>
-      </c>
-      <c r="N115" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O115" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" s="30"/>
-      <c r="C116" t="s">
-        <v>229</v>
-      </c>
-      <c r="G116" t="s">
-        <v>245</v>
-      </c>
-      <c r="K116" t="s">
-        <v>238</v>
-      </c>
-      <c r="N116" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O116" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="16" thickBot="1">
-      <c r="A118" s="3">
-        <f>COUNTA($A$4:A117)+1</f>
-        <v>5</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="4"/>
-    </row>
-    <row r="119" spans="1:15" ht="16" thickTop="1">
-      <c r="C119" t="s">
-        <v>369</v>
-      </c>
-      <c r="F119" t="s">
-        <v>309</v>
-      </c>
-      <c r="G119" t="s">
-        <v>143</v>
-      </c>
-      <c r="H119" t="s">
-        <v>313</v>
-      </c>
-      <c r="L119" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M119" s="25" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="C120" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="G120" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="I120" s="14">
+        <v>0</v>
+      </c>
+      <c r="J120" s="14">
+        <v>100</v>
       </c>
       <c r="K120" t="s">
-        <v>371</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="C121" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="G121" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="I121" s="14">
+        <v>1</v>
+      </c>
+      <c r="J121" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="122" spans="1:15">
+      <c r="A122" s="30"/>
       <c r="C122" t="s">
-        <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>322</v>
-      </c>
-      <c r="G122" t="s">
-        <v>143</v>
+        <v>361</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="K122" t="s">
-        <v>174</v>
+        <v>260</v>
+      </c>
+      <c r="N122" s="25" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:15">
+      <c r="A123" s="30"/>
       <c r="C123" t="s">
-        <v>366</v>
+        <v>237</v>
       </c>
       <c r="G123" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="K123" t="s">
-        <v>367</v>
+        <v>362</v>
+      </c>
+      <c r="N123" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="O123" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:15">
+      <c r="A124" s="30"/>
       <c r="C124" t="s">
-        <v>232</v>
-      </c>
-      <c r="F124" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="G124" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="K124" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="C125" t="s">
-        <v>368</v>
-      </c>
-      <c r="G125" t="s">
-        <v>145</v>
-      </c>
-      <c r="K125" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="C126" t="s">
-        <v>363</v>
-      </c>
-      <c r="F126" t="s">
-        <v>322</v>
-      </c>
-      <c r="G126" t="s">
-        <v>143</v>
-      </c>
-      <c r="K126" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>238</v>
+      </c>
+      <c r="N124" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="O124" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="16" thickBot="1">
+      <c r="A126" s="3">
+        <f>COUNTA($A$4:A125)+1</f>
+        <v>5</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="4"/>
+    </row>
+    <row r="127" spans="1:15" ht="16" thickTop="1">
       <c r="C127" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F127" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G127" t="s">
         <v>143</v>
       </c>
-      <c r="K127" t="s">
-        <v>226</v>
+      <c r="H127" t="s">
+        <v>313</v>
+      </c>
+      <c r="L127" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="M127" s="25" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="C128" t="s">
-        <v>365</v>
-      </c>
-      <c r="F128" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="G128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K128" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="C129" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
-      </c>
-      <c r="I129" s="14">
-        <v>1</v>
-      </c>
-      <c r="J129" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O129" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="C130" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+      <c r="F130" t="s">
+        <v>322</v>
       </c>
       <c r="G130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K130" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="16" thickBot="1">
-      <c r="A132" s="3">
-        <f>COUNTA($A$4:A131)+1</f>
-        <v>6</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="26"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="1:15" ht="16" thickTop="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="C131" t="s">
+        <v>366</v>
+      </c>
+      <c r="G131" t="s">
+        <v>145</v>
+      </c>
+      <c r="K131" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="C132" t="s">
+        <v>232</v>
+      </c>
+      <c r="F132" t="s">
+        <v>322</v>
+      </c>
+      <c r="G132" t="s">
+        <v>143</v>
+      </c>
+      <c r="K132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="C133" t="s">
-        <v>391</v>
-      </c>
-      <c r="F133" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="G133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H133" t="s">
-        <v>313</v>
-      </c>
-      <c r="L133" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M133" s="25" t="s">
-        <v>311</v>
+        <v>145</v>
+      </c>
+      <c r="K133" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="C134" t="s">
-        <v>397</v>
+        <v>363</v>
+      </c>
+      <c r="F134" t="s">
+        <v>322</v>
       </c>
       <c r="G134" t="s">
-        <v>145</v>
-      </c>
-      <c r="O134" t="s">
-        <v>398</v>
+        <v>143</v>
+      </c>
+      <c r="K134" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="C135" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F135" t="s">
         <v>322</v>
@@ -4667,167 +4660,196 @@
       <c r="G135" t="s">
         <v>143</v>
       </c>
+      <c r="K135" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="31"/>
       <c r="C136" t="s">
+        <v>365</v>
+      </c>
+      <c r="F136" t="s">
+        <v>322</v>
+      </c>
+      <c r="G136" t="s">
+        <v>143</v>
+      </c>
+      <c r="K136" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="C137" t="s">
+        <v>233</v>
+      </c>
+      <c r="G137" t="s">
+        <v>145</v>
+      </c>
+      <c r="I137" s="14">
+        <v>1</v>
+      </c>
+      <c r="J137" s="14">
+        <v>4096</v>
+      </c>
+      <c r="O137" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="C138" t="s">
+        <v>234</v>
+      </c>
+      <c r="G138" t="s">
+        <v>145</v>
+      </c>
+      <c r="K138" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="16" thickBot="1">
+      <c r="A140" s="3">
+        <f>COUNTA($A$4:A139)+1</f>
+        <v>6</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="26"/>
+      <c r="M140" s="26"/>
+      <c r="N140" s="26"/>
+      <c r="O140" s="4"/>
+    </row>
+    <row r="141" spans="1:15" ht="16" thickTop="1">
+      <c r="C141" t="s">
+        <v>391</v>
+      </c>
+      <c r="F141" t="s">
+        <v>309</v>
+      </c>
+      <c r="G141" t="s">
+        <v>143</v>
+      </c>
+      <c r="H141" t="s">
+        <v>313</v>
+      </c>
+      <c r="L141" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="M141" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="C142" t="s">
+        <v>394</v>
+      </c>
+      <c r="G142" t="s">
+        <v>145</v>
+      </c>
+      <c r="O142" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="C143" t="s">
+        <v>372</v>
+      </c>
+      <c r="F143" t="s">
+        <v>322</v>
+      </c>
+      <c r="G143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="31"/>
+      <c r="C144" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
-      <c r="D137" t="s">
+    <row r="145" spans="1:15">
+      <c r="D145" t="s">
         <v>55</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G145" t="s">
         <v>312</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K145" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
-      <c r="E138" t="s">
+    <row r="146" spans="1:15">
+      <c r="E146" t="s">
         <v>56</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G146" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
-      <c r="E139" t="s">
+    <row r="147" spans="1:15">
+      <c r="E147" t="s">
         <v>57</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G147" t="s">
         <v>144</v>
       </c>
-      <c r="K139" t="s">
+      <c r="K147" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
-      <c r="D140" t="s">
+    <row r="148" spans="1:15">
+      <c r="D148" t="s">
         <v>58</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G148" t="s">
         <v>312</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K148" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
-      <c r="E141" t="s">
+    <row r="149" spans="1:15">
+      <c r="E149" t="s">
         <v>56</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
-      <c r="D142" t="s">
+    <row r="150" spans="1:15">
+      <c r="D150" t="s">
         <v>239</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G150" t="s">
         <v>312</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K150" t="s">
         <v>165</v>
       </c>
-      <c r="O142" t="s">
+      <c r="O150" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
-      <c r="E143" t="s">
+    <row r="151" spans="1:15">
+      <c r="E151" t="s">
         <v>56</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G151" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
-      <c r="D144" t="s">
+    <row r="152" spans="1:15">
+      <c r="D152" t="s">
         <v>60</v>
-      </c>
-      <c r="G144" t="s">
-        <v>312</v>
-      </c>
-      <c r="K144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="E145" t="s">
-        <v>56</v>
-      </c>
-      <c r="G145" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="E146" t="s">
-        <v>61</v>
-      </c>
-      <c r="G146" t="s">
-        <v>145</v>
-      </c>
-      <c r="I146" s="14">
-        <v>1</v>
-      </c>
-      <c r="J146" s="14">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="D147" t="s">
-        <v>200</v>
-      </c>
-      <c r="G147" t="s">
-        <v>312</v>
-      </c>
-      <c r="K147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="E148" t="s">
-        <v>56</v>
-      </c>
-      <c r="G148" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="E149" t="s">
-        <v>62</v>
-      </c>
-      <c r="G149" t="s">
-        <v>312</v>
-      </c>
-      <c r="K149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="C150" t="s">
-        <v>374</v>
-      </c>
-      <c r="F150" t="s">
-        <v>322</v>
-      </c>
-      <c r="G150" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="31"/>
-      <c r="C151" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="D152" t="s">
-        <v>55</v>
       </c>
       <c r="G152" t="s">
         <v>312</v>
@@ -4836,7 +4858,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:15">
       <c r="E153" t="s">
         <v>56</v>
       </c>
@@ -4844,20 +4866,23 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:15">
       <c r="E154" t="s">
-        <v>390</v>
+        <v>61</v>
       </c>
       <c r="G154" t="s">
-        <v>144</v>
-      </c>
-      <c r="K154" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>145</v>
+      </c>
+      <c r="I154" s="14">
+        <v>1</v>
+      </c>
+      <c r="J154" s="14">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="D155" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G155" t="s">
         <v>312</v>
@@ -4866,7 +4891,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:15">
       <c r="E156" t="s">
         <v>56</v>
       </c>
@@ -4874,9 +4899,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
-      <c r="D157" t="s">
-        <v>59</v>
+    <row r="157" spans="1:15">
+      <c r="E157" t="s">
+        <v>62</v>
       </c>
       <c r="G157" t="s">
         <v>312</v>
@@ -4885,300 +4910,277 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
-      <c r="E158" t="s">
-        <v>56</v>
+    <row r="158" spans="1:15">
+      <c r="C158" t="s">
+        <v>374</v>
+      </c>
+      <c r="F158" t="s">
+        <v>322</v>
       </c>
       <c r="G158" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="D159" t="s">
-        <v>60</v>
-      </c>
-      <c r="G159" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="31"/>
+      <c r="C159" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="D160" t="s">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
         <v>312</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K160" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="E160" t="s">
-        <v>56</v>
-      </c>
-      <c r="G160" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="161" spans="3:11">
       <c r="E161" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G161" t="s">
-        <v>145</v>
-      </c>
-      <c r="I161" s="14">
-        <v>1</v>
-      </c>
-      <c r="J161" s="14">
-        <v>4096</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="3:11">
-      <c r="D162" t="s">
-        <v>200</v>
+      <c r="E162" t="s">
+        <v>390</v>
       </c>
       <c r="G162" t="s">
+        <v>144</v>
+      </c>
+      <c r="K162" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" spans="3:11">
+      <c r="D163" t="s">
+        <v>58</v>
+      </c>
+      <c r="G163" t="s">
         <v>312</v>
       </c>
-      <c r="K162" t="s">
+      <c r="K163" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="3:11">
-      <c r="E163" t="s">
-        <v>56</v>
-      </c>
-      <c r="G163" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="164" spans="3:11">
       <c r="E164" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G164" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="3:11">
+      <c r="D165" t="s">
+        <v>59</v>
+      </c>
+      <c r="G165" t="s">
         <v>312</v>
       </c>
-      <c r="K164" t="s">
+      <c r="K165" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="3:11">
-      <c r="C165" t="s">
-        <v>392</v>
-      </c>
-    </row>
     <row r="166" spans="3:11">
-      <c r="D166" t="s">
-        <v>393</v>
+      <c r="E166" t="s">
+        <v>56</v>
       </c>
       <c r="G166" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167" spans="3:11">
       <c r="D167" t="s">
-        <v>394</v>
+        <v>60</v>
       </c>
       <c r="G167" t="s">
-        <v>144</v>
+        <v>312</v>
+      </c>
+      <c r="K167" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="3:11">
-      <c r="D168" t="s">
-        <v>395</v>
+      <c r="E168" t="s">
+        <v>56</v>
       </c>
       <c r="G168" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="3:11">
-      <c r="D169" t="s">
-        <v>396</v>
+      <c r="E169" t="s">
+        <v>61</v>
       </c>
       <c r="G169" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="I169" s="14">
+        <v>1</v>
+      </c>
+      <c r="J169" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="170" spans="3:11">
-      <c r="C170" t="s">
-        <v>376</v>
+      <c r="D170" t="s">
+        <v>200</v>
+      </c>
+      <c r="G170" t="s">
+        <v>312</v>
+      </c>
+      <c r="K170" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="3:11">
-      <c r="D171" t="s">
-        <v>63</v>
+      <c r="E171" t="s">
+        <v>56</v>
       </c>
       <c r="G171" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="172" spans="3:11">
-      <c r="D172" t="s">
-        <v>64</v>
+      <c r="E172" t="s">
+        <v>62</v>
       </c>
       <c r="G172" t="s">
-        <v>148</v>
+        <v>312</v>
+      </c>
+      <c r="K172" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="3:11">
       <c r="C173" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="174" spans="3:11">
       <c r="D174" t="s">
-        <v>65</v>
+        <v>401</v>
       </c>
       <c r="G174" t="s">
-        <v>145</v>
-      </c>
-      <c r="I174" s="14">
-        <v>1</v>
-      </c>
-      <c r="J174" s="14">
-        <v>4096</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175" spans="3:11">
       <c r="D175" t="s">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="G175" t="s">
-        <v>145</v>
-      </c>
-      <c r="I175" s="14">
-        <v>1</v>
-      </c>
-      <c r="J175" s="14">
-        <v>4096</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="3:11">
       <c r="D176" t="s">
+        <v>399</v>
+      </c>
+      <c r="G176" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="D177" t="s">
+        <v>398</v>
+      </c>
+      <c r="G177" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="D178" t="s">
+        <v>393</v>
+      </c>
+      <c r="G178" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="C179" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="D180" t="s">
+        <v>63</v>
+      </c>
+      <c r="G180" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="G181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="C182" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="D183" t="s">
+        <v>65</v>
+      </c>
+      <c r="G183" t="s">
+        <v>145</v>
+      </c>
+      <c r="I183" s="14">
+        <v>1</v>
+      </c>
+      <c r="J183" s="14">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="D184" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184" t="s">
+        <v>145</v>
+      </c>
+      <c r="I184" s="14">
+        <v>1</v>
+      </c>
+      <c r="J184" s="14">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="D185" t="s">
         <v>66</v>
       </c>
-      <c r="G176" t="s">
-        <v>145</v>
-      </c>
-      <c r="I176" s="14">
+      <c r="G185" t="s">
+        <v>145</v>
+      </c>
+      <c r="I185" s="14">
         <v>1</v>
       </c>
-      <c r="J176" s="14">
+      <c r="J185" s="14">
         <v>4096</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
-      <c r="A177" s="31"/>
-      <c r="C177" t="s">
+    <row r="186" spans="1:11">
+      <c r="A186" s="31"/>
+      <c r="C186" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
-      <c r="A178" s="31"/>
-      <c r="D178" t="s">
-        <v>67</v>
-      </c>
-      <c r="G178" t="s">
-        <v>312</v>
-      </c>
-      <c r="K178" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
-      <c r="A179" s="31"/>
-      <c r="D179" t="s">
-        <v>68</v>
-      </c>
-      <c r="G179" t="s">
-        <v>312</v>
-      </c>
-      <c r="K179" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
-      <c r="A180" s="31"/>
-      <c r="D180" t="s">
-        <v>69</v>
-      </c>
-      <c r="G180" t="s">
-        <v>312</v>
-      </c>
-      <c r="K180" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
-      <c r="A181" s="31"/>
-      <c r="D181" t="s">
-        <v>70</v>
-      </c>
-      <c r="G181" t="s">
-        <v>312</v>
-      </c>
-      <c r="K181" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
-      <c r="A182" s="31"/>
-      <c r="D182" t="s">
-        <v>71</v>
-      </c>
-      <c r="G182" t="s">
-        <v>312</v>
-      </c>
-      <c r="K182" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
-      <c r="A183" s="31"/>
-      <c r="D183" t="s">
-        <v>72</v>
-      </c>
-      <c r="G183" t="s">
-        <v>312</v>
-      </c>
-      <c r="K183" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
-      <c r="A184" s="31"/>
-      <c r="D184" t="s">
-        <v>73</v>
-      </c>
-      <c r="G184" t="s">
-        <v>312</v>
-      </c>
-      <c r="K184" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
-      <c r="A185" s="31"/>
-      <c r="D185" t="s">
-        <v>74</v>
-      </c>
-      <c r="G185" t="s">
-        <v>312</v>
-      </c>
-      <c r="K185" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15">
-      <c r="A186" s="31"/>
-      <c r="D186" t="s">
-        <v>75</v>
-      </c>
-      <c r="G186" t="s">
-        <v>312</v>
-      </c>
-      <c r="K186" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:11">
       <c r="A187" s="31"/>
       <c r="D187" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G187" t="s">
         <v>312</v>
@@ -5187,16 +5189,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:11">
       <c r="A188" s="31"/>
-      <c r="C188" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
+      <c r="D188" t="s">
+        <v>68</v>
+      </c>
+      <c r="G188" t="s">
+        <v>312</v>
+      </c>
+      <c r="K188" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="31"/>
       <c r="D189" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G189" t="s">
         <v>312</v>
@@ -5205,10 +5213,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:11">
       <c r="A190" s="31"/>
       <c r="D190" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="G190" t="s">
         <v>312</v>
@@ -5216,14 +5224,11 @@
       <c r="K190" t="s">
         <v>165</v>
       </c>
-      <c r="O190" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="31"/>
       <c r="D191" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="G191" t="s">
         <v>312</v>
@@ -5231,29 +5236,23 @@
       <c r="K191" t="s">
         <v>165</v>
       </c>
-      <c r="O191" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="31"/>
       <c r="D192" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="G192" t="s">
         <v>312</v>
       </c>
       <c r="K192" t="s">
         <v>165</v>
-      </c>
-      <c r="O192" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="31"/>
       <c r="D193" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="G193" t="s">
         <v>312</v>
@@ -5261,20 +5260,23 @@
       <c r="K193" t="s">
         <v>165</v>
       </c>
-      <c r="O193" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="31"/>
-      <c r="C194" t="s">
-        <v>380</v>
+      <c r="D194" t="s">
+        <v>74</v>
+      </c>
+      <c r="G194" t="s">
+        <v>312</v>
+      </c>
+      <c r="K194" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="31"/>
       <c r="D195" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G195" t="s">
         <v>312</v>
@@ -5286,7 +5288,7 @@
     <row r="196" spans="1:15">
       <c r="A196" s="31"/>
       <c r="D196" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G196" t="s">
         <v>312</v>
@@ -5297,20 +5299,14 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="31"/>
-      <c r="D197" t="s">
-        <v>80</v>
-      </c>
-      <c r="G197" t="s">
-        <v>312</v>
-      </c>
-      <c r="K197" t="s">
-        <v>165</v>
+      <c r="C197" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="31"/>
       <c r="D198" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G198" t="s">
         <v>312</v>
@@ -5322,31 +5318,37 @@
     <row r="199" spans="1:15">
       <c r="A199" s="31"/>
       <c r="D199" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="G199" t="s">
         <v>312</v>
       </c>
       <c r="K199" t="s">
         <v>165</v>
+      </c>
+      <c r="O199" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="31"/>
       <c r="D200" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="G200" t="s">
         <v>312</v>
       </c>
       <c r="K200" t="s">
         <v>165</v>
+      </c>
+      <c r="O200" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="31"/>
       <c r="D201" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="G201" t="s">
         <v>312</v>
@@ -5354,1303 +5356,1411 @@
       <c r="K201" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" ht="16" thickBot="1">
-      <c r="A204" s="3">
-        <f>COUNTA($A$4:A203)+1</f>
+      <c r="O201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="31"/>
+      <c r="D202" t="s">
+        <v>208</v>
+      </c>
+      <c r="G202" t="s">
+        <v>312</v>
+      </c>
+      <c r="K202" t="s">
+        <v>165</v>
+      </c>
+      <c r="O202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="31"/>
+      <c r="C203" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="31"/>
+      <c r="D204" t="s">
+        <v>78</v>
+      </c>
+      <c r="G204" t="s">
+        <v>312</v>
+      </c>
+      <c r="K204" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" s="31"/>
+      <c r="D205" t="s">
+        <v>79</v>
+      </c>
+      <c r="G205" t="s">
+        <v>312</v>
+      </c>
+      <c r="K205" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
+      <c r="A206" s="31"/>
+      <c r="D206" t="s">
+        <v>80</v>
+      </c>
+      <c r="G206" t="s">
+        <v>312</v>
+      </c>
+      <c r="K206" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
+      <c r="A207" s="31"/>
+      <c r="D207" t="s">
+        <v>81</v>
+      </c>
+      <c r="G207" t="s">
+        <v>312</v>
+      </c>
+      <c r="K207" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
+      <c r="A208" s="31"/>
+      <c r="D208" t="s">
+        <v>82</v>
+      </c>
+      <c r="G208" t="s">
+        <v>312</v>
+      </c>
+      <c r="K208" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="A209" s="31"/>
+      <c r="D209" t="s">
+        <v>83</v>
+      </c>
+      <c r="G209" t="s">
+        <v>312</v>
+      </c>
+      <c r="K209" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210" s="31"/>
+      <c r="D210" t="s">
+        <v>84</v>
+      </c>
+      <c r="G210" t="s">
+        <v>312</v>
+      </c>
+      <c r="K210" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="16" thickBot="1">
+      <c r="A213" s="3">
+        <f>COUNTA($A$4:A212)+1</f>
         <v>7</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-      <c r="I204" s="15"/>
-      <c r="J204" s="15"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="26"/>
-      <c r="M204" s="26"/>
-      <c r="N204" s="26"/>
-      <c r="O204" s="4" t="s">
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="15"/>
+      <c r="J213" s="15"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="26"/>
+      <c r="M213" s="26"/>
+      <c r="N213" s="26"/>
+      <c r="O213" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="16" thickTop="1">
-      <c r="C205" t="s">
-        <v>399</v>
-      </c>
-      <c r="F205" t="s">
+    <row r="214" spans="1:15" ht="16" thickTop="1">
+      <c r="C214" t="s">
+        <v>396</v>
+      </c>
+      <c r="F214" t="s">
         <v>309</v>
       </c>
-      <c r="G205" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15">
-      <c r="C206" t="s">
+      <c r="G214" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="C215" t="s">
         <v>281</v>
       </c>
-      <c r="G206" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15">
-      <c r="C207" t="s">
+      <c r="G215" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="C216" t="s">
         <v>146</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G216" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
-      <c r="C208" t="s">
+    <row r="217" spans="1:15">
+      <c r="C217" t="s">
         <v>381</v>
       </c>
-      <c r="G208" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="C209" t="s">
+      <c r="G217" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="C218" t="s">
         <v>382</v>
       </c>
-      <c r="G209" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="31"/>
-      <c r="C210" t="s">
+      <c r="G218" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" s="31"/>
+      <c r="C219" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
-      <c r="D211" t="s">
+    <row r="220" spans="1:15">
+      <c r="D220" t="s">
         <v>14</v>
       </c>
-      <c r="G211" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="D212" t="s">
+      <c r="G220" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="D221" t="s">
         <v>85</v>
       </c>
-      <c r="G212" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="D213" t="s">
+      <c r="G221" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="D222" t="s">
         <v>42</v>
       </c>
-      <c r="G213" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="D214" t="s">
+      <c r="G222" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="D223" t="s">
         <v>86</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G223" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
-      <c r="D215" t="s">
+    <row r="224" spans="1:15">
+      <c r="D224" t="s">
         <v>46</v>
       </c>
-      <c r="G215" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="D216" t="s">
+      <c r="G224" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="225" spans="3:11">
+      <c r="D225" t="s">
         <v>45</v>
       </c>
-      <c r="G216" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="D217" t="s">
+      <c r="G225" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="226" spans="3:11">
+      <c r="D226" t="s">
         <v>87</v>
       </c>
-      <c r="G217" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="D218" t="s">
+      <c r="G226" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="227" spans="3:11">
+      <c r="D227" t="s">
         <v>53</v>
       </c>
-      <c r="G218" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="D219" t="s">
+      <c r="G227" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="228" spans="3:11">
+      <c r="D228" t="s">
         <v>88</v>
       </c>
-      <c r="G219" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="D220" t="s">
+      <c r="G228" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="229" spans="3:11">
+      <c r="D229" t="s">
         <v>89</v>
       </c>
-      <c r="G220" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="C221" t="s">
+      <c r="G229" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="230" spans="3:11">
+      <c r="C230" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
-      <c r="D222" t="s">
+    <row r="231" spans="3:11">
+      <c r="D231" t="s">
         <v>90</v>
       </c>
-      <c r="G222" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="D223" t="s">
+      <c r="G231" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="232" spans="3:11">
+      <c r="D232" t="s">
         <v>10</v>
       </c>
-      <c r="G223" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="D224" t="s">
+      <c r="G232" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="233" spans="3:11">
+      <c r="D233" t="s">
         <v>91</v>
       </c>
-      <c r="G224" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="225" spans="3:15">
-      <c r="D225" t="s">
+      <c r="G233" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="234" spans="3:11">
+      <c r="D234" t="s">
         <v>3</v>
       </c>
-      <c r="G225" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="226" spans="3:15">
-      <c r="D226" t="s">
+      <c r="G234" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="235" spans="3:11">
+      <c r="D235" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="227" spans="3:15">
-      <c r="E227" t="s">
+    <row r="236" spans="3:11">
+      <c r="E236" t="s">
         <v>90</v>
       </c>
-      <c r="G227" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="228" spans="3:15">
-      <c r="E228" t="s">
+      <c r="G236" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="237" spans="3:11">
+      <c r="E237" t="s">
         <v>93</v>
       </c>
-      <c r="G228" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="229" spans="3:15">
-      <c r="E229" t="s">
+      <c r="G237" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="238" spans="3:11">
+      <c r="E238" t="s">
         <v>91</v>
       </c>
-      <c r="G229" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="230" spans="3:15">
-      <c r="E230" t="s">
+      <c r="G238" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="239" spans="3:11">
+      <c r="E239" t="s">
         <v>9</v>
       </c>
-      <c r="G230" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="231" spans="3:15">
-      <c r="D231" t="s">
+      <c r="G239" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="240" spans="3:11">
+      <c r="D240" t="s">
         <v>217</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G240" t="s">
         <v>150</v>
       </c>
-      <c r="K231" t="s">
+      <c r="K240" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="232" spans="3:15">
-      <c r="D232" t="s">
+    <row r="241" spans="3:15">
+      <c r="D241" t="s">
         <v>211</v>
       </c>
-      <c r="G232" t="s">
-        <v>145</v>
-      </c>
-      <c r="K232" t="s">
+      <c r="G241" t="s">
+        <v>145</v>
+      </c>
+      <c r="K241" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="233" spans="3:15">
-      <c r="D233" t="s">
+    <row r="242" spans="3:15">
+      <c r="D242" t="s">
         <v>213</v>
       </c>
-      <c r="G233" t="s">
-        <v>145</v>
-      </c>
-      <c r="K233" t="s">
+      <c r="G242" t="s">
+        <v>145</v>
+      </c>
+      <c r="K242" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="234" spans="3:15">
-      <c r="D234" t="s">
+    <row r="243" spans="3:15">
+      <c r="D243" t="s">
         <v>215</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G243" t="s">
         <v>150</v>
       </c>
-      <c r="K234" t="s">
+      <c r="K243" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="235" spans="3:15">
-      <c r="D235" t="s">
+    <row r="244" spans="3:15">
+      <c r="D244" t="s">
         <v>23</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G244" t="s">
         <v>150</v>
       </c>
-      <c r="K235" t="s">
+      <c r="K244" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="3:15">
-      <c r="C236" t="s">
+    <row r="245" spans="3:15">
+      <c r="C245" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="237" spans="3:15">
-      <c r="D237" t="s">
+    <row r="246" spans="3:15">
+      <c r="D246" t="s">
         <v>94</v>
       </c>
-      <c r="O237" t="s">
+      <c r="O246" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="238" spans="3:15">
-      <c r="D238" t="s">
+    <row r="247" spans="3:15">
+      <c r="D247" t="s">
         <v>95</v>
       </c>
-      <c r="G238" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="239" spans="3:15">
-      <c r="D239" t="s">
+      <c r="G247" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="248" spans="3:15">
+      <c r="D248" t="s">
         <v>218</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G248" t="s">
         <v>150</v>
       </c>
-      <c r="K239" t="s">
+      <c r="K248" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="3:15">
-      <c r="D240" t="s">
+    <row r="249" spans="3:15">
+      <c r="D249" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="241" spans="4:15">
-      <c r="E241" t="s">
+    <row r="250" spans="3:15">
+      <c r="E250" t="s">
         <v>33</v>
       </c>
-      <c r="G241" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="242" spans="4:15">
-      <c r="E242" t="s">
+      <c r="G250" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="251" spans="3:15">
+      <c r="E251" t="s">
         <v>97</v>
       </c>
-      <c r="G242" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="243" spans="4:15">
-      <c r="E243" t="s">
+      <c r="G251" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="252" spans="3:15">
+      <c r="E252" t="s">
         <v>98</v>
       </c>
-      <c r="G243" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="244" spans="4:15">
-      <c r="E244" t="s">
+      <c r="G252" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="253" spans="3:15">
+      <c r="E253" t="s">
         <v>99</v>
       </c>
-      <c r="G244" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="245" spans="4:15">
-      <c r="D245" t="s">
+      <c r="G253" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="254" spans="3:15">
+      <c r="D254" t="s">
         <v>100</v>
       </c>
-      <c r="G245" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="246" spans="4:15">
-      <c r="D246" t="s">
+      <c r="G254" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="255" spans="3:15">
+      <c r="D255" t="s">
         <v>101</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G255" t="s">
         <v>150</v>
       </c>
-      <c r="K246" t="s">
+      <c r="K255" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="247" spans="4:15">
-      <c r="D247" t="s">
+    <row r="256" spans="3:15">
+      <c r="D256" t="s">
         <v>102</v>
       </c>
-      <c r="G247" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="248" spans="4:15">
-      <c r="D248" t="s">
+      <c r="G256" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="257" spans="3:15">
+      <c r="D257" t="s">
         <v>103</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G257" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="249" spans="4:15">
-      <c r="D249" t="s">
+    <row r="258" spans="3:15">
+      <c r="D258" t="s">
         <v>104</v>
       </c>
-      <c r="G249" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="250" spans="4:15">
-      <c r="D250" t="s">
+      <c r="G258" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="259" spans="3:15">
+      <c r="D259" t="s">
         <v>105</v>
       </c>
-      <c r="G250" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="251" spans="4:15">
-      <c r="D251" t="s">
+      <c r="G259" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="260" spans="3:15">
+      <c r="D260" t="s">
         <v>106</v>
       </c>
-      <c r="O251" t="s">
+      <c r="O260" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="252" spans="4:15">
-      <c r="D252" t="s">
+    <row r="261" spans="3:15">
+      <c r="D261" t="s">
         <v>107</v>
       </c>
-      <c r="O252" t="s">
+      <c r="O261" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="253" spans="4:15">
-      <c r="D253" t="s">
+    <row r="262" spans="3:15">
+      <c r="D262" t="s">
         <v>108</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G262" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="4:15">
-      <c r="D254" t="s">
+    <row r="263" spans="3:15">
+      <c r="D263" t="s">
         <v>109</v>
       </c>
-      <c r="G254" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="255" spans="4:15">
-      <c r="D255" t="s">
+      <c r="G263" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="264" spans="3:15">
+      <c r="D264" t="s">
         <v>110</v>
       </c>
-      <c r="G255" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="256" spans="4:15">
-      <c r="D256" t="s">
+      <c r="G264" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="265" spans="3:15">
+      <c r="D265" t="s">
         <v>111</v>
       </c>
-      <c r="G256" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15">
-      <c r="C257" t="s">
+      <c r="G265" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="266" spans="3:15">
+      <c r="C266" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
-      <c r="D258" t="s">
+    <row r="267" spans="3:15">
+      <c r="D267" t="s">
         <v>113</v>
       </c>
-      <c r="G258" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15">
-      <c r="D259" t="s">
+      <c r="G267" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="268" spans="3:15">
+      <c r="D268" t="s">
         <v>114</v>
       </c>
-      <c r="G259" t="s">
-        <v>143</v>
-      </c>
-      <c r="K259" t="s">
+      <c r="G268" t="s">
+        <v>143</v>
+      </c>
+      <c r="K268" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
-      <c r="D260" t="s">
+    <row r="269" spans="3:15">
+      <c r="D269" t="s">
         <v>220</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G269" t="s">
         <v>150</v>
       </c>
-      <c r="K260" t="s">
+      <c r="K269" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
-      <c r="D261" t="s">
+    <row r="270" spans="3:15">
+      <c r="D270" t="s">
         <v>115</v>
       </c>
-      <c r="G261" t="s">
-        <v>143</v>
-      </c>
-      <c r="K261" t="s">
+      <c r="G270" t="s">
+        <v>143</v>
+      </c>
+      <c r="K270" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
-      <c r="E262" t="s">
+    <row r="271" spans="3:15">
+      <c r="E271" t="s">
         <v>116</v>
       </c>
-      <c r="G262" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15">
-      <c r="D263" t="s">
+      <c r="G271" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="272" spans="3:15">
+      <c r="D272" t="s">
         <v>117</v>
       </c>
-      <c r="G263" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15">
-      <c r="D264" t="s">
+      <c r="G272" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
+      <c r="D273" t="s">
         <v>118</v>
       </c>
-      <c r="G264" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15">
-      <c r="D265" t="s">
+      <c r="G273" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
+      <c r="D274" t="s">
         <v>119</v>
       </c>
-      <c r="G265" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15">
-      <c r="D266" t="s">
+      <c r="G274" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
+      <c r="D275" t="s">
         <v>120</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G275" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
-      <c r="D267" t="s">
+    <row r="276" spans="1:15">
+      <c r="D276" t="s">
         <v>121</v>
       </c>
-      <c r="G267" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15">
-      <c r="D268" t="s">
+      <c r="G276" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15">
+      <c r="D277" t="s">
         <v>122</v>
       </c>
-      <c r="G268" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15">
-      <c r="D269" t="s">
+      <c r="G277" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15">
+      <c r="D278" t="s">
         <v>123</v>
       </c>
-      <c r="G269" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15">
-      <c r="D270" t="s">
+      <c r="G278" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
+      <c r="D279" t="s">
         <v>124</v>
       </c>
-      <c r="G270" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" ht="16" thickBot="1">
-      <c r="A272" s="3">
-        <f>COUNTA($A$4:A271)+1</f>
+      <c r="G279" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" ht="16" thickBot="1">
+      <c r="A281" s="3">
+        <f>COUNTA($A$4:A280)+1</f>
         <v>8</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B281" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="15"/>
-      <c r="J272" s="15"/>
-      <c r="K272" s="4"/>
-      <c r="L272" s="26"/>
-      <c r="M272" s="26"/>
-      <c r="N272" s="26"/>
-      <c r="O272" s="4"/>
-    </row>
-    <row r="273" spans="1:15" ht="16" thickTop="1">
-      <c r="C273" t="s">
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
+      <c r="H281" s="4"/>
+      <c r="I281" s="15"/>
+      <c r="J281" s="15"/>
+      <c r="K281" s="4"/>
+      <c r="L281" s="26"/>
+      <c r="M281" s="26"/>
+      <c r="N281" s="26"/>
+      <c r="O281" s="4"/>
+    </row>
+    <row r="282" spans="1:15" ht="16" thickTop="1">
+      <c r="C282" t="s">
         <v>226</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F282" t="s">
         <v>309</v>
       </c>
-      <c r="G273" t="s">
-        <v>143</v>
-      </c>
-      <c r="O273" t="s">
+      <c r="G282" t="s">
+        <v>143</v>
+      </c>
+      <c r="O282" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15">
-      <c r="C274" t="s">
-        <v>249</v>
-      </c>
-      <c r="G274" t="s">
-        <v>145</v>
-      </c>
-      <c r="K274" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15">
-      <c r="C275" t="s">
-        <v>285</v>
-      </c>
-      <c r="G275" t="s">
-        <v>150</v>
-      </c>
-      <c r="K275" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15">
-      <c r="C276" t="s">
-        <v>286</v>
-      </c>
-      <c r="G276" t="s">
-        <v>150</v>
-      </c>
-      <c r="K276" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15">
-      <c r="C277" t="s">
-        <v>300</v>
-      </c>
-      <c r="G277" t="s">
-        <v>145</v>
-      </c>
-      <c r="K277" t="s">
-        <v>165</v>
-      </c>
-      <c r="O277" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15">
-      <c r="C278" t="s">
-        <v>297</v>
-      </c>
-      <c r="G278" t="s">
-        <v>145</v>
-      </c>
-      <c r="K278" t="s">
-        <v>298</v>
-      </c>
-      <c r="O278" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15">
-      <c r="C279" t="s">
-        <v>272</v>
-      </c>
-      <c r="G279" t="s">
-        <v>150</v>
-      </c>
-      <c r="O279" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15">
-      <c r="C280" t="s">
-        <v>287</v>
-      </c>
-      <c r="G280" t="s">
-        <v>143</v>
-      </c>
-      <c r="K280" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15">
-      <c r="C281" t="s">
-        <v>296</v>
-      </c>
-      <c r="G281" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15">
-      <c r="C282" t="s">
-        <v>288</v>
-      </c>
-      <c r="G282" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K282" t="s">
-        <v>227</v>
-      </c>
-      <c r="O282" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:15">
       <c r="C283" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="G283" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="K283" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:15">
       <c r="C284" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G284" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="K284" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="285" spans="1:15">
       <c r="C285" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G285" t="s">
-        <v>143</v>
-      </c>
-      <c r="O285" t="s">
-        <v>293</v>
+        <v>150</v>
+      </c>
+      <c r="K285" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="286" spans="1:15">
       <c r="C286" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G286" t="s">
         <v>145</v>
       </c>
+      <c r="K286" t="s">
+        <v>165</v>
+      </c>
       <c r="O286" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" ht="16" thickBot="1">
-      <c r="A288" s="3">
-        <f>COUNTA($A$4:A287)+1</f>
-        <v>9</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="4"/>
-      <c r="G288" s="4"/>
-      <c r="H288" s="4"/>
-      <c r="I288" s="15"/>
-      <c r="J288" s="15"/>
-      <c r="K288" s="4"/>
-      <c r="L288" s="26"/>
-      <c r="M288" s="26"/>
-      <c r="N288" s="26"/>
-      <c r="O288" s="4"/>
-    </row>
-    <row r="289" spans="1:15" ht="16" thickTop="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15">
+      <c r="C287" t="s">
+        <v>297</v>
+      </c>
+      <c r="G287" t="s">
+        <v>145</v>
+      </c>
+      <c r="K287" t="s">
+        <v>298</v>
+      </c>
+      <c r="O287" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
+      <c r="C288" t="s">
+        <v>272</v>
+      </c>
+      <c r="G288" t="s">
+        <v>150</v>
+      </c>
+      <c r="O288" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15">
       <c r="C289" t="s">
-        <v>226</v>
-      </c>
-      <c r="F289" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="G289" t="s">
         <v>143</v>
       </c>
+      <c r="K289" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="290" spans="1:15">
-      <c r="A290" s="31"/>
       <c r="C290" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="G290" t="s">
-        <v>245</v>
-      </c>
-      <c r="K290" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="31"/>
-      <c r="D291" t="s">
-        <v>126</v>
-      </c>
-      <c r="G291" t="s">
+      <c r="C291" t="s">
+        <v>288</v>
+      </c>
+      <c r="G291" s="20" t="s">
         <v>245</v>
       </c>
       <c r="K291" t="s">
         <v>227</v>
       </c>
+      <c r="O291" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="292" spans="1:15">
-      <c r="A292" s="31"/>
-      <c r="D292" t="s">
+      <c r="C292" t="s">
+        <v>290</v>
+      </c>
+      <c r="G292" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
+      <c r="C293" t="s">
+        <v>291</v>
+      </c>
+      <c r="G293" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
+      <c r="C294" t="s">
+        <v>292</v>
+      </c>
+      <c r="G294" t="s">
+        <v>143</v>
+      </c>
+      <c r="O294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
+      <c r="C295" t="s">
+        <v>294</v>
+      </c>
+      <c r="G295" t="s">
+        <v>145</v>
+      </c>
+      <c r="O295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" ht="16" thickBot="1">
+      <c r="A297" s="3">
+        <f>COUNTA($A$4:A296)+1</f>
+        <v>9</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+      <c r="I297" s="15"/>
+      <c r="J297" s="15"/>
+      <c r="K297" s="4"/>
+      <c r="L297" s="26"/>
+      <c r="M297" s="26"/>
+      <c r="N297" s="26"/>
+      <c r="O297" s="4"/>
+    </row>
+    <row r="298" spans="1:15" ht="16" thickTop="1">
+      <c r="C298" t="s">
+        <v>226</v>
+      </c>
+      <c r="F298" t="s">
+        <v>309</v>
+      </c>
+      <c r="G298" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
+      <c r="A299" s="31"/>
+      <c r="C299" t="s">
+        <v>125</v>
+      </c>
+      <c r="G299" t="s">
+        <v>245</v>
+      </c>
+      <c r="K299" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
+      <c r="A300" s="31"/>
+      <c r="D300" t="s">
+        <v>126</v>
+      </c>
+      <c r="G300" t="s">
+        <v>245</v>
+      </c>
+      <c r="K300" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
+      <c r="A301" s="31"/>
+      <c r="D301" t="s">
         <v>127</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G301" t="s">
         <v>245</v>
       </c>
-      <c r="K292" t="s">
+      <c r="K301" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
-      <c r="A293" s="31"/>
-      <c r="D293" t="s">
+    <row r="302" spans="1:15">
+      <c r="A302" s="31"/>
+      <c r="D302" t="s">
         <v>128</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G302" t="s">
         <v>245</v>
       </c>
-      <c r="K293" t="s">
+      <c r="K302" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
-      <c r="A294" s="31"/>
-      <c r="D294" t="s">
+    <row r="303" spans="1:15">
+      <c r="A303" s="31"/>
+      <c r="D303" t="s">
         <v>223</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G303" t="s">
         <v>245</v>
       </c>
-      <c r="O294" t="s">
+      <c r="O303" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
-      <c r="A295" s="31"/>
-      <c r="C295" t="s">
+    <row r="304" spans="1:15">
+      <c r="A304" s="31"/>
+      <c r="C304" t="s">
         <v>129</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G304" t="s">
         <v>245</v>
       </c>
-      <c r="K295" t="s">
+      <c r="K304" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
-      <c r="A296" s="31"/>
-      <c r="D296" t="s">
+    <row r="305" spans="1:15">
+      <c r="A305" s="31"/>
+      <c r="D305" t="s">
         <v>127</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G305" t="s">
         <v>245</v>
       </c>
-      <c r="K296" t="s">
+      <c r="K305" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
-      <c r="A297" s="31"/>
-      <c r="D297" t="s">
+    <row r="306" spans="1:15">
+      <c r="A306" s="31"/>
+      <c r="D306" t="s">
         <v>223</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G306" t="s">
         <v>245</v>
       </c>
-      <c r="K297" t="s">
+      <c r="K306" t="s">
         <v>227</v>
       </c>
-      <c r="O297" t="s">
+      <c r="O306" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="16" thickBot="1">
-      <c r="A299" s="3">
-        <f>COUNTA($A$4:A298)+1</f>
+    <row r="308" spans="1:15" ht="16" thickBot="1">
+      <c r="A308" s="3">
+        <f>COUNTA($A$4:A307)+1</f>
         <v>10</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B308" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4"/>
-      <c r="F299" s="4"/>
-      <c r="G299" s="4"/>
-      <c r="H299" s="4"/>
-      <c r="I299" s="15"/>
-      <c r="J299" s="15"/>
-      <c r="K299" s="4"/>
-      <c r="L299" s="26"/>
-      <c r="M299" s="26"/>
-      <c r="N299" s="26"/>
-      <c r="O299" s="4"/>
-    </row>
-    <row r="300" spans="1:15" ht="16" thickTop="1">
-      <c r="C300" t="s">
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
+      <c r="H308" s="4"/>
+      <c r="I308" s="15"/>
+      <c r="J308" s="15"/>
+      <c r="K308" s="4"/>
+      <c r="L308" s="26"/>
+      <c r="M308" s="26"/>
+      <c r="N308" s="26"/>
+      <c r="O308" s="4"/>
+    </row>
+    <row r="309" spans="1:15" ht="16" thickTop="1">
+      <c r="C309" t="s">
         <v>226</v>
       </c>
-      <c r="F300" t="s">
-        <v>400</v>
-      </c>
-      <c r="G300" t="s">
-        <v>143</v>
-      </c>
-      <c r="O300" t="s">
+      <c r="F309" t="s">
+        <v>397</v>
+      </c>
+      <c r="G309" t="s">
+        <v>143</v>
+      </c>
+      <c r="O309" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15">
-      <c r="C301" t="s">
-        <v>249</v>
-      </c>
-      <c r="G301" t="s">
-        <v>145</v>
-      </c>
-      <c r="K301" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15">
-      <c r="C302" t="s">
-        <v>250</v>
-      </c>
-      <c r="G302" t="s">
-        <v>145</v>
-      </c>
-      <c r="I302" s="14">
-        <v>1</v>
-      </c>
-      <c r="J302" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15">
-      <c r="C303" t="s">
-        <v>251</v>
-      </c>
-      <c r="G303" t="s">
-        <v>145</v>
-      </c>
-      <c r="I303" s="14">
-        <v>1</v>
-      </c>
-      <c r="J303" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="304" spans="1:15">
-      <c r="C304" t="s">
-        <v>252</v>
-      </c>
-      <c r="G304" t="s">
-        <v>145</v>
-      </c>
-      <c r="I304" s="14">
-        <v>1</v>
-      </c>
-      <c r="J304" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15">
-      <c r="C305" t="s">
-        <v>253</v>
-      </c>
-      <c r="G305" t="s">
-        <v>145</v>
-      </c>
-      <c r="I305" s="14">
-        <v>1</v>
-      </c>
-      <c r="J305" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15">
-      <c r="C306" t="s">
-        <v>254</v>
-      </c>
-      <c r="G306" t="s">
-        <v>145</v>
-      </c>
-      <c r="I306" s="14">
-        <v>1</v>
-      </c>
-      <c r="J306" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="307" spans="1:15">
-      <c r="C307" t="s">
-        <v>255</v>
-      </c>
-      <c r="G307" t="s">
-        <v>145</v>
-      </c>
-      <c r="I307" s="14">
-        <v>1</v>
-      </c>
-      <c r="J307" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15">
-      <c r="C308" t="s">
-        <v>256</v>
-      </c>
-      <c r="G308" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="309" spans="1:15">
-      <c r="C309" t="s">
-        <v>257</v>
-      </c>
-      <c r="G309" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="310" spans="1:15">
       <c r="C310" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="G310" t="s">
+        <v>145</v>
+      </c>
+      <c r="K310" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="311" spans="1:15">
-      <c r="A311" s="31"/>
-      <c r="D311" t="s">
-        <v>151</v>
+      <c r="C311" t="s">
+        <v>250</v>
       </c>
       <c r="G311" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="I311" s="14">
+        <v>1</v>
+      </c>
+      <c r="J311" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="312" spans="1:15">
-      <c r="A312" s="31"/>
-      <c r="D312" t="s">
-        <v>152</v>
+      <c r="C312" t="s">
+        <v>251</v>
       </c>
       <c r="G312" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" ht="16" thickBot="1">
-      <c r="A314" s="3">
-        <f>COUNTA($A$4:A313)+1</f>
-        <v>11</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="4"/>
-      <c r="G314" s="4"/>
-      <c r="H314" s="4"/>
-      <c r="I314" s="15"/>
-      <c r="J314" s="15"/>
-      <c r="K314" s="4"/>
-      <c r="L314" s="26"/>
-      <c r="M314" s="26"/>
-      <c r="N314" s="26"/>
-      <c r="O314" s="4"/>
-    </row>
-    <row r="315" spans="1:15" ht="16" thickTop="1">
+        <v>145</v>
+      </c>
+      <c r="I312" s="14">
+        <v>1</v>
+      </c>
+      <c r="J312" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15">
+      <c r="C313" t="s">
+        <v>252</v>
+      </c>
+      <c r="G313" t="s">
+        <v>145</v>
+      </c>
+      <c r="I313" s="14">
+        <v>1</v>
+      </c>
+      <c r="J313" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15">
+      <c r="C314" t="s">
+        <v>253</v>
+      </c>
+      <c r="G314" t="s">
+        <v>145</v>
+      </c>
+      <c r="I314" s="14">
+        <v>1</v>
+      </c>
+      <c r="J314" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15">
       <c r="C315" t="s">
-        <v>226</v>
-      </c>
-      <c r="F315" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="G315" t="s">
-        <v>143</v>
-      </c>
-      <c r="O315" t="s">
-        <v>268</v>
+        <v>145</v>
+      </c>
+      <c r="I315" s="14">
+        <v>1</v>
+      </c>
+      <c r="J315" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="316" spans="1:15">
       <c r="C316" t="s">
-        <v>249</v>
-      </c>
-      <c r="F316" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="G316" t="s">
         <v>145</v>
       </c>
-      <c r="K316" t="s">
-        <v>262</v>
+      <c r="I316" s="14">
+        <v>1</v>
+      </c>
+      <c r="J316" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="317" spans="1:15">
       <c r="C317" t="s">
-        <v>337</v>
-      </c>
-      <c r="F317" t="s">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="G317" t="s">
-        <v>143</v>
-      </c>
-      <c r="O317" t="s">
-        <v>338</v>
+        <v>145</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="C318" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G318" t="s">
-        <v>144</v>
-      </c>
-      <c r="I318" s="14">
-        <v>0</v>
-      </c>
-      <c r="J318" s="14">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="319" spans="1:15">
       <c r="C319" t="s">
-        <v>264</v>
-      </c>
-      <c r="G319" t="s">
-        <v>145</v>
-      </c>
-      <c r="I319" s="14">
-        <v>1</v>
-      </c>
-      <c r="J319" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O319" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="320" spans="1:15">
-      <c r="C320" t="s">
-        <v>266</v>
+      <c r="A320" s="31"/>
+      <c r="D320" t="s">
+        <v>151</v>
       </c>
       <c r="G320" t="s">
-        <v>145</v>
-      </c>
-      <c r="I320" s="14">
-        <v>1</v>
-      </c>
-      <c r="J320" s="14">
-        <v>256</v>
-      </c>
-      <c r="O320" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15" ht="16" thickBot="1">
-      <c r="A322" s="3">
-        <f>COUNTA($A$4:A321)+1</f>
-        <v>12</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="4"/>
-      <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
-      <c r="I322" s="15"/>
-      <c r="J322" s="15"/>
-      <c r="K322" s="4"/>
-      <c r="L322" s="26"/>
-      <c r="M322" s="26"/>
-      <c r="N322" s="26"/>
-      <c r="O322" s="4"/>
-    </row>
-    <row r="323" spans="1:15" ht="16" thickTop="1">
-      <c r="C323" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15">
+      <c r="A321" s="31"/>
+      <c r="D321" t="s">
+        <v>152</v>
+      </c>
+      <c r="G321" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" ht="16" thickBot="1">
+      <c r="A323" s="3">
+        <f>COUNTA($A$4:A322)+1</f>
+        <v>11</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
+      <c r="H323" s="4"/>
+      <c r="I323" s="15"/>
+      <c r="J323" s="15"/>
+      <c r="K323" s="4"/>
+      <c r="L323" s="26"/>
+      <c r="M323" s="26"/>
+      <c r="N323" s="26"/>
+      <c r="O323" s="4"/>
+    </row>
+    <row r="324" spans="1:15" ht="16" thickTop="1">
+      <c r="C324" t="s">
         <v>226</v>
       </c>
-      <c r="F323" t="s">
-        <v>400</v>
-      </c>
-      <c r="G323" t="s">
-        <v>143</v>
-      </c>
-      <c r="O323" t="s">
+      <c r="F324" t="s">
+        <v>336</v>
+      </c>
+      <c r="G324" t="s">
+        <v>143</v>
+      </c>
+      <c r="O324" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15">
-      <c r="C324" t="s">
-        <v>249</v>
-      </c>
-      <c r="G324" t="s">
-        <v>145</v>
-      </c>
-      <c r="K324" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="325" spans="1:15">
       <c r="C325" t="s">
-        <v>273</v>
+        <v>249</v>
+      </c>
+      <c r="F325" t="s">
+        <v>309</v>
       </c>
       <c r="G325" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="K325" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="326" spans="1:15">
       <c r="C326" t="s">
-        <v>273</v>
+        <v>337</v>
+      </c>
+      <c r="F326" t="s">
+        <v>322</v>
       </c>
       <c r="G326" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="O326" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="327" spans="1:15">
       <c r="C327" t="s">
+        <v>263</v>
+      </c>
+      <c r="G327" t="s">
+        <v>144</v>
+      </c>
+      <c r="I327" s="14">
+        <v>0</v>
+      </c>
+      <c r="J327" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15">
+      <c r="C328" t="s">
+        <v>264</v>
+      </c>
+      <c r="G328" t="s">
+        <v>145</v>
+      </c>
+      <c r="I328" s="14">
+        <v>1</v>
+      </c>
+      <c r="J328" s="14">
+        <v>4096</v>
+      </c>
+      <c r="O328" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15">
+      <c r="C329" t="s">
+        <v>266</v>
+      </c>
+      <c r="G329" t="s">
+        <v>145</v>
+      </c>
+      <c r="I329" s="14">
+        <v>1</v>
+      </c>
+      <c r="J329" s="14">
+        <v>256</v>
+      </c>
+      <c r="O329" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" ht="16" thickBot="1">
+      <c r="A331" s="3">
+        <f>COUNTA($A$4:A330)+1</f>
+        <v>12</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+      <c r="G331" s="4"/>
+      <c r="H331" s="4"/>
+      <c r="I331" s="15"/>
+      <c r="J331" s="15"/>
+      <c r="K331" s="4"/>
+      <c r="L331" s="26"/>
+      <c r="M331" s="26"/>
+      <c r="N331" s="26"/>
+      <c r="O331" s="4"/>
+    </row>
+    <row r="332" spans="1:15" ht="16" thickTop="1">
+      <c r="C332" t="s">
+        <v>226</v>
+      </c>
+      <c r="F332" t="s">
+        <v>397</v>
+      </c>
+      <c r="G332" t="s">
+        <v>143</v>
+      </c>
+      <c r="O332" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15">
+      <c r="C333" t="s">
+        <v>249</v>
+      </c>
+      <c r="G333" t="s">
+        <v>145</v>
+      </c>
+      <c r="K333" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15">
+      <c r="C334" t="s">
+        <v>273</v>
+      </c>
+      <c r="G334" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15">
+      <c r="C335" t="s">
+        <v>273</v>
+      </c>
+      <c r="G335" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="C336" t="s">
         <v>274</v>
       </c>
-      <c r="G327" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15" ht="16" thickBot="1">
-      <c r="A329" s="3">
-        <f>COUNTA($A$4:A328)+1</f>
+      <c r="G336" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" ht="16" thickBot="1">
+      <c r="A338" s="3">
+        <f>COUNTA($A$4:A337)+1</f>
         <v>13</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B338" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="4"/>
-      <c r="G329" s="4"/>
-      <c r="H329" s="4"/>
-      <c r="I329" s="15"/>
-      <c r="J329" s="15"/>
-      <c r="K329" s="4"/>
-      <c r="L329" s="26"/>
-      <c r="M329" s="26"/>
-      <c r="N329" s="26"/>
-      <c r="O329" s="4"/>
-    </row>
-    <row r="330" spans="1:15" ht="16" thickTop="1">
-      <c r="C330" t="s">
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
+      <c r="H338" s="4"/>
+      <c r="I338" s="15"/>
+      <c r="J338" s="15"/>
+      <c r="K338" s="4"/>
+      <c r="L338" s="26"/>
+      <c r="M338" s="26"/>
+      <c r="N338" s="26"/>
+      <c r="O338" s="4"/>
+    </row>
+    <row r="339" spans="1:15" ht="16" thickTop="1">
+      <c r="C339" t="s">
         <v>226</v>
       </c>
-      <c r="F330" t="s">
-        <v>400</v>
-      </c>
-      <c r="G330" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15">
-      <c r="C331" t="s">
+      <c r="F339" t="s">
+        <v>397</v>
+      </c>
+      <c r="G339" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="C340" t="s">
         <v>345</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G340" t="s">
         <v>147</v>
       </c>
-      <c r="I331" s="14">
+      <c r="I340" s="14">
         <v>24</v>
       </c>
-      <c r="J331" s="14">
+      <c r="J340" s="14">
         <v>24</v>
       </c>
-      <c r="K331" t="s">
+      <c r="K340" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
-      <c r="C332" t="s">
+    <row r="341" spans="1:15">
+      <c r="C341" t="s">
         <v>344</v>
       </c>
-      <c r="G332" t="s">
+      <c r="G341" t="s">
         <v>147</v>
       </c>
-      <c r="I332" s="14">
+      <c r="I341" s="14">
         <v>24</v>
       </c>
-      <c r="J332" s="14">
+      <c r="J341" s="14">
         <v>24</v>
       </c>
-      <c r="K332" t="s">
+      <c r="K341" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6663,7 +6773,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{277FBE70-A336-6C46-A87F-9BC130032D5F}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{277FBE70-A336-6C46-A87F-9BC130032D5F}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6676,10 +6786,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G1:G67 G69:G124 G126:G132 G135:G157 G159:G162 G164:G205 G207:G289 G291:G1048576</xm:sqref>
+          <xm:sqref>G73:G80 G134:G140 G143:G165 G167:G170 G172:G214 G216:G298 G300:G1048576 G1:G71 G85:G132</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{85322518-53BE-DD49-9DAF-2686AECF81BD}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{85322518-53BE-DD49-9DAF-2686AECF81BD}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6692,10 +6802,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G68</xm:sqref>
+          <xm:sqref>G72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{3B3D28A8-0617-3546-8F98-4028FB409A14}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{3B3D28A8-0617-3546-8F98-4028FB409A14}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6708,10 +6818,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G125</xm:sqref>
+          <xm:sqref>G133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{7E68CD9F-17B0-764E-9328-52BA69CA69BD}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{7E68CD9F-17B0-764E-9328-52BA69CA69BD}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6724,10 +6834,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G133:G134</xm:sqref>
+          <xm:sqref>G141:G142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{A33AB7E9-5B25-7346-B043-D0E68F05EA66}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{A33AB7E9-5B25-7346-B043-D0E68F05EA66}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6740,10 +6850,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G163 G158</xm:sqref>
+          <xm:sqref>G171 G166</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{BCE5CD51-EA0D-464D-AD6D-5433D1054E6C}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{BCE5CD51-EA0D-464D-AD6D-5433D1054E6C}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6756,10 +6866,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G206</xm:sqref>
+          <xm:sqref>G215</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{25F7E9E8-98D9-894A-86C4-D3AC4D83332D}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{25F7E9E8-98D9-894A-86C4-D3AC4D83332D}">
             <xm:f>Sheet2!$A$10</xm:f>
             <x14:dxf>
               <font>
@@ -6772,7 +6882,23 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G290</xm:sqref>
+          <xm:sqref>G299</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{75666685-6E91-DA40-8EC0-BDCEFFC5090C}">
+            <xm:f>Sheet2!$A$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G81:G84</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6782,19 +6908,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>G329:G332 G5:G327</xm:sqref>
+          <xm:sqref>G338:G341 G5:G336</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N332</xm:sqref>
+          <xm:sqref>N5:N341</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:M332</xm:sqref>
+          <xm:sqref>L5:M341</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="408">
   <si>
     <t>Communication:</t>
   </si>
@@ -113,15 +113,6 @@
     <t xml:space="preserve"> restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve"> smoking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shoes type (e.g. white soles only?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kids</t>
-  </si>
-  <si>
     <t xml:space="preserve"> number of guests</t>
   </si>
   <si>
@@ -983,9 +974,6 @@
     <t>in preferred_captains table</t>
   </si>
   <si>
-    <t xml:space="preserve"> registration address</t>
-  </si>
-  <si>
     <t>link to address table</t>
   </si>
   <si>
@@ -1230,6 +1218,33 @@
   </si>
   <si>
     <t>sailo comission_total</t>
+  </si>
+  <si>
+    <t>registration address</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>number of guests</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>shoes type (e.g. white soles only?)</t>
+  </si>
+  <si>
+    <t>smoking</t>
+  </si>
+  <si>
+    <t>list: active, disabled, deleted</t>
+  </si>
+  <si>
+    <t>pets</t>
+  </si>
+  <si>
+    <t>alcohol</t>
   </si>
 </sst>
 </file>
@@ -1434,11 +1449,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="360">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1862,7 +1879,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="360">
+  <cellStyles count="362">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2043,6 +2060,7 @@
     <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2222,6 +2240,7 @@
     <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
@@ -2715,11 +2734,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O341"/>
+  <dimension ref="A1:O346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2738,14 +2757,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G1" s="7">
         <v>2</v>
@@ -2765,43 +2784,43 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="44" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="48" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="K3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
@@ -2809,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -2827,80 +2846,77 @@
     </row>
     <row r="5" spans="1:15" ht="16" thickTop="1">
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="C6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="C7" t="s">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
-        <v>256</v>
+        <v>142</v>
+      </c>
+      <c r="K7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="C8" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I8" s="14">
         <v>1</v>
       </c>
       <c r="J8" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O8" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="C9" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I9" s="14">
         <v>1</v>
       </c>
       <c r="J9" s="14">
-        <v>256</v>
+        <v>4096</v>
+      </c>
+      <c r="O9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I10" s="14">
         <v>1</v>
@@ -2911,114 +2927,111 @@
     </row>
     <row r="11" spans="1:15">
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I11" s="14">
-        <v>1850</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>179</v>
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I12" s="14">
-        <v>1</v>
-      </c>
-      <c r="J12" s="14">
-        <v>256</v>
+        <v>1850</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="14">
-        <v>20000</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I14" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="14">
-        <v>512</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I15" s="14">
-        <v>1850</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>179</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
         <v>143</v>
       </c>
       <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <v>200</v>
-      </c>
-      <c r="K16" t="s">
-        <v>180</v>
+        <v>1850</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="C17" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I17" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="C18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
@@ -3027,66 +3040,69 @@
         <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="C19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I19" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="14">
-        <v>100000</v>
+        <v>300</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
-      </c>
-      <c r="O19" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="C20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
       </c>
       <c r="J20" s="14">
-        <v>300</v>
+        <v>100000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="C21" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I21" s="14">
         <v>0</v>
       </c>
       <c r="J21" s="14">
-        <v>30</v>
+        <v>300</v>
+      </c>
+      <c r="O21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I22" s="14">
         <v>0</v>
@@ -3097,571 +3113,521 @@
     </row>
     <row r="23" spans="1:15">
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I23" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="14">
-        <v>256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="C24" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" t="s">
-        <v>168</v>
+        <v>142</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="C25" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
-      </c>
-      <c r="O25" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="C26" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>163</v>
       </c>
       <c r="O26" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="C27" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K27" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="O27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="C28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I28" s="14">
         <v>0</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="31"/>
       <c r="C29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" t="s">
+        <v>159</v>
+      </c>
+      <c r="O29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="31"/>
+      <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="O29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>312</v>
-      </c>
-      <c r="K30" t="s">
-        <v>165</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>313</v>
+      <c r="N30" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="O30" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="D33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="D35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" t="s">
+        <v>162</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="D37" t="s">
         <v>23</v>
       </c>
-      <c r="G36" t="s">
-        <v>312</v>
-      </c>
-      <c r="K36" t="s">
-        <v>165</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="31"/>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="31"/>
+      <c r="D38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="39" spans="1:15">
-      <c r="D39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>312</v>
-      </c>
-      <c r="K39" t="s">
-        <v>165</v>
+      <c r="C39" t="s">
+        <v>291</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="O39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="D40" t="s">
-        <v>31</v>
+        <v>404</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="14">
-        <v>1</v>
-      </c>
-      <c r="J40" s="14">
-        <v>256</v>
+        <v>309</v>
+      </c>
+      <c r="K40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="D41" t="s">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
-        <v>312</v>
-      </c>
-      <c r="K41" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+      <c r="J41" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="D42" t="s">
-        <v>33</v>
+        <v>402</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="14">
+        <v>309</v>
+      </c>
+      <c r="K42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="D43" t="s">
+        <v>401</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="14">
         <v>1</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="14">
         <v>200</v>
       </c>
-      <c r="O42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="C43" t="s">
-        <v>320</v>
-      </c>
-      <c r="F43" t="s">
-        <v>322</v>
-      </c>
-      <c r="G43" t="s">
-        <v>245</v>
-      </c>
-      <c r="K43" t="s">
-        <v>321</v>
-      </c>
-      <c r="N43" s="25" t="s">
-        <v>349</v>
-      </c>
       <c r="O43" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="C44" t="s">
-        <v>392</v>
+      <c r="D44" t="s">
+        <v>406</v>
+      </c>
+      <c r="G44" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="D45" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G45" t="s">
-        <v>144</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="D46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="C47" t="s">
         <v>399</v>
       </c>
-      <c r="G46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="D47" t="s">
-        <v>402</v>
+      <c r="F47" t="s">
+        <v>318</v>
       </c>
       <c r="G47" t="s">
-        <v>144</v>
+        <v>242</v>
+      </c>
+      <c r="K47" t="s">
+        <v>317</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="O47" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="C48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="D49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="D50" t="s">
+        <v>395</v>
+      </c>
+      <c r="G50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="D51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="C52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="31"/>
-      <c r="D49" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" t="s">
-        <v>144</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="31"/>
-      <c r="D50" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" t="s">
-        <v>144</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" t="s">
-        <v>322</v>
-      </c>
-      <c r="G51" t="s">
-        <v>245</v>
-      </c>
-      <c r="K51" t="s">
-        <v>321</v>
-      </c>
-      <c r="N51" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="20" customFormat="1">
-      <c r="C52" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="O52" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
     <row r="53" spans="1:15">
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K53" t="s">
-        <v>173</v>
-      </c>
-      <c r="N53" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O53" t="s">
-        <v>269</v>
+      <c r="A53" s="31"/>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" t="s">
+        <v>141</v>
+      </c>
+      <c r="O53" s="12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" t="s">
-        <v>322</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K54" t="s">
-        <v>276</v>
-      </c>
-      <c r="N54" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O54" t="s">
-        <v>275</v>
+      <c r="A54" s="31"/>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" t="s">
+        <v>141</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" t="s">
+        <v>242</v>
+      </c>
+      <c r="K55" t="s">
+        <v>317</v>
+      </c>
+      <c r="N55" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="20" customFormat="1">
+      <c r="C56" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="O56" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K57" t="s">
+        <v>170</v>
+      </c>
+      <c r="N57" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="O57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>318</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K58" t="s">
+        <v>273</v>
+      </c>
+      <c r="N58" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="O58" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="C59" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I59" s="14">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="K59" t="s">
+        <v>276</v>
+      </c>
+      <c r="N59" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="O59" t="s">
         <v>277</v>
-      </c>
-      <c r="F55" t="s">
-        <v>322</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="I55" s="14">
-        <v>0</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="K55" t="s">
-        <v>279</v>
-      </c>
-      <c r="N55" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="O55" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="C56" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="22"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="C57" s="22"/>
-      <c r="D57" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23">
-        <v>0</v>
-      </c>
-      <c r="J57" s="23">
-        <v>100</v>
-      </c>
-      <c r="K57" s="22"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="C58" s="22"/>
-      <c r="D58" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23">
-        <v>0</v>
-      </c>
-      <c r="J58" s="23">
-        <v>100</v>
-      </c>
-      <c r="K58" s="22"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="C59" s="22"/>
-      <c r="D59" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23">
-        <v>0</v>
-      </c>
-      <c r="J59" s="23">
-        <v>48</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="22" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="C60" s="22" t="s">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
@@ -3670,222 +3636,264 @@
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
-      <c r="K60" s="22" t="s">
-        <v>319</v>
-      </c>
+      <c r="K60" s="22"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
-      <c r="O60" s="22" t="s">
+      <c r="O60" s="22"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23">
+        <v>0</v>
+      </c>
+      <c r="J61" s="23">
+        <v>100</v>
+      </c>
+      <c r="K61" s="22"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="C62" s="22"/>
+      <c r="D62" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23">
+        <v>0</v>
+      </c>
+      <c r="J62" s="23">
+        <v>100</v>
+      </c>
+      <c r="K62" s="22"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="C63" s="22"/>
+      <c r="D63" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23">
+        <v>0</v>
+      </c>
+      <c r="J63" s="23">
+        <v>48</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="C64" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="16" thickBot="1">
+      <c r="A66" s="3">
+        <f>COUNTA($A$4:A42)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="4"/>
+    </row>
+    <row r="67" spans="1:15" ht="16" thickTop="1">
+      <c r="C67" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="C68" t="s">
+        <v>278</v>
+      </c>
+      <c r="F68" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="16" thickBot="1">
-      <c r="A62" s="3">
-        <f>COUNTA($A$4:A41)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="1:15" ht="16" thickTop="1">
-      <c r="C63" t="s">
-        <v>281</v>
-      </c>
-      <c r="F63" t="s">
-        <v>309</v>
-      </c>
-      <c r="G63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="C64" t="s">
-        <v>316</v>
-      </c>
-      <c r="G64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="C65" t="s">
-        <v>249</v>
-      </c>
-      <c r="G65" t="s">
-        <v>145</v>
-      </c>
-      <c r="I65" s="14">
-        <v>1</v>
-      </c>
-      <c r="J65" s="14">
-        <v>20</v>
-      </c>
-      <c r="K65" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="16" thickBot="1">
-      <c r="A67" s="3">
-        <f>COUNTA($A$4:A66)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" ht="16" thickTop="1">
-      <c r="C68" t="s">
-        <v>323</v>
-      </c>
-      <c r="F68" t="s">
-        <v>309</v>
-      </c>
       <c r="G68" t="s">
-        <v>143</v>
-      </c>
-      <c r="O68" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="C69" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="F69" t="s">
+        <v>318</v>
       </c>
       <c r="G69" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" s="14">
-        <v>1</v>
-      </c>
-      <c r="J69" s="14">
-        <v>4096</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="C70" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="G70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I70" s="14">
         <v>1</v>
       </c>
       <c r="J70" s="14">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>332</v>
-      </c>
-      <c r="O70" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="16" thickBot="1">
+      <c r="A72" s="3">
+        <f>COUNTA($A$4:A71)+1</f>
+        <v>3</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" spans="1:15" ht="16" thickTop="1">
+      <c r="C73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F73" t="s">
+        <v>306</v>
+      </c>
+      <c r="G73" t="s">
+        <v>140</v>
+      </c>
+      <c r="O73" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="C71" t="s">
-        <v>326</v>
-      </c>
-      <c r="G71" t="s">
-        <v>143</v>
-      </c>
-      <c r="I71" s="14">
-        <v>1</v>
-      </c>
-      <c r="J71" s="14">
-        <v>300</v>
-      </c>
-      <c r="O71" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="C72" t="s">
-        <v>333</v>
-      </c>
-      <c r="G72" t="s">
-        <v>143</v>
-      </c>
-      <c r="I72" s="14">
-        <v>1</v>
-      </c>
-      <c r="J72" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="O72" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="C73" t="s">
-        <v>327</v>
-      </c>
-      <c r="G73" t="s">
-        <v>145</v>
-      </c>
-      <c r="I73" s="14">
-        <v>1</v>
-      </c>
-      <c r="J73" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O73" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="C74" t="s">
+        <v>320</v>
+      </c>
+      <c r="G74" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" s="14">
+        <v>1</v>
+      </c>
+      <c r="J74" s="14">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="C75" t="s">
+        <v>321</v>
+      </c>
+      <c r="G75" t="s">
+        <v>142</v>
+      </c>
+      <c r="I75" s="14">
+        <v>1</v>
+      </c>
+      <c r="J75" s="14">
+        <v>35</v>
+      </c>
+      <c r="K75" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="31"/>
-      <c r="D75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G75" t="s">
-        <v>144</v>
-      </c>
-      <c r="O75" s="12" t="s">
-        <v>181</v>
+      <c r="O75" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="31"/>
-      <c r="D76" t="s">
-        <v>152</v>
+      <c r="C76" t="s">
+        <v>322</v>
       </c>
       <c r="G76" t="s">
-        <v>144</v>
-      </c>
-      <c r="O76" s="12" t="s">
-        <v>181</v>
+        <v>140</v>
+      </c>
+      <c r="I76" s="14">
+        <v>1</v>
+      </c>
+      <c r="J76" s="14">
+        <v>300</v>
+      </c>
+      <c r="O76" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3893,390 +3901,374 @@
         <v>329</v>
       </c>
       <c r="G77" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I77" s="14">
         <v>1</v>
       </c>
       <c r="J77" s="14">
-        <v>5000</v>
-      </c>
-      <c r="K77" t="s">
-        <v>190</v>
+        <v>1000000</v>
       </c>
       <c r="O77" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="31"/>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
-      </c>
-      <c r="K78" t="s">
-        <v>269</v>
-      </c>
-      <c r="N78" s="25" t="s">
-        <v>346</v>
+        <v>142</v>
+      </c>
+      <c r="I78" s="14">
+        <v>1</v>
+      </c>
+      <c r="J78" s="14">
+        <v>4096</v>
+      </c>
+      <c r="O78" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:15">
-      <c r="C79" s="22"/>
-      <c r="D79" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="23">
-        <v>0</v>
-      </c>
-      <c r="J79" s="23">
-        <v>5</v>
-      </c>
-      <c r="K79" s="22"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="22" t="s">
-        <v>246</v>
+      <c r="C79" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="31"/>
-      <c r="C80" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K80" t="s">
-        <v>275</v>
-      </c>
-      <c r="N80" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O80" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15">
-      <c r="C81" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15">
-      <c r="D82" t="s">
-        <v>400</v>
+      <c r="D80" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" t="s">
+        <v>141</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="31"/>
+      <c r="D81" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" t="s">
+        <v>141</v>
+      </c>
+      <c r="O81" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="C82" t="s">
+        <v>325</v>
       </c>
       <c r="G82" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="3:15">
-      <c r="D83" t="s">
-        <v>399</v>
+        <v>141</v>
+      </c>
+      <c r="I82" s="14">
+        <v>1</v>
+      </c>
+      <c r="J82" s="14">
+        <v>5000</v>
+      </c>
+      <c r="K82" t="s">
+        <v>187</v>
+      </c>
+      <c r="O82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="31"/>
+      <c r="C83" t="s">
+        <v>234</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15">
-      <c r="D84" t="s">
-        <v>402</v>
-      </c>
-      <c r="G84" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="3:15">
+        <v>242</v>
+      </c>
+      <c r="K83" t="s">
+        <v>266</v>
+      </c>
+      <c r="N83" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23">
+        <v>0</v>
+      </c>
+      <c r="J84" s="23">
+        <v>5</v>
+      </c>
+      <c r="K84" s="22"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="31"/>
       <c r="C85" t="s">
-        <v>302</v>
+        <v>326</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K85" t="s">
+        <v>272</v>
+      </c>
+      <c r="N85" s="25" t="s">
+        <v>342</v>
       </c>
       <c r="O85" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="86" spans="3:15">
-      <c r="D86" t="s">
-        <v>339</v>
-      </c>
-      <c r="G86" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="3:15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="C86" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="D87" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="3:15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="D88" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="G88" t="s">
-        <v>143</v>
-      </c>
-      <c r="K88" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="3:15">
-      <c r="D89" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H89" s="22"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="22"/>
-    </row>
-    <row r="90" spans="3:15">
-      <c r="D90" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="22"/>
-    </row>
-    <row r="91" spans="3:15">
-      <c r="C91" t="s">
-        <v>303</v>
-      </c>
-      <c r="O91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="D89" t="s">
+        <v>398</v>
+      </c>
+      <c r="G89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="C90" t="s">
+        <v>299</v>
+      </c>
+      <c r="O90" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="D91" t="s">
+        <v>335</v>
+      </c>
+      <c r="G91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="D92" t="s">
+        <v>336</v>
+      </c>
+      <c r="G92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="D93" t="s">
+        <v>337</v>
+      </c>
+      <c r="G93" t="s">
+        <v>140</v>
+      </c>
+      <c r="K93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="D94" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="22" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="92" spans="3:15">
-      <c r="D92" t="s">
-        <v>352</v>
-      </c>
-      <c r="G92" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="3:15">
-      <c r="D93" t="s">
-        <v>353</v>
-      </c>
-      <c r="G93" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="3:15">
-      <c r="D94" t="s">
-        <v>354</v>
-      </c>
-      <c r="G94" t="s">
-        <v>143</v>
-      </c>
-      <c r="K94" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15">
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="22"/>
+    </row>
+    <row r="95" spans="1:15">
       <c r="D95" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
       <c r="G95" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="23"/>
       <c r="J95" s="23"/>
       <c r="K95" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
       <c r="N95" s="29"/>
       <c r="O95" s="22"/>
     </row>
-    <row r="96" spans="3:15">
-      <c r="D96" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="22"/>
-    </row>
-    <row r="98" spans="1:15" ht="16" thickBot="1">
-      <c r="A98" s="3">
-        <f>COUNTA($A$4:A97)+1</f>
+    <row r="96" spans="1:15">
+      <c r="C96" t="s">
+        <v>300</v>
+      </c>
+      <c r="O96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="D97" t="s">
+        <v>348</v>
+      </c>
+      <c r="G97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="D98" t="s">
+        <v>349</v>
+      </c>
+      <c r="G98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="D99" t="s">
+        <v>350</v>
+      </c>
+      <c r="G99" t="s">
+        <v>140</v>
+      </c>
+      <c r="K99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="D100" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="22"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="D101" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="22"/>
+    </row>
+    <row r="103" spans="1:15" ht="16" thickBot="1">
+      <c r="A103" s="3">
+        <f>COUNTA($A$4:A102)+1</f>
         <v>4</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="26"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="1:15" ht="16" thickTop="1">
-      <c r="C99" t="s">
+      <c r="B103" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="4"/>
+    </row>
+    <row r="104" spans="1:15" ht="16" thickTop="1">
+      <c r="C104" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
-      <c r="D100" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100" t="s">
-        <v>145</v>
-      </c>
-      <c r="I100" s="14">
+    <row r="105" spans="1:15">
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
+        <v>142</v>
+      </c>
+      <c r="I105" s="14">
         <v>1</v>
       </c>
-      <c r="J100" s="14">
+      <c r="J105" s="14">
         <v>256</v>
       </c>
-      <c r="L100" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M100" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="D101" t="s">
-        <v>357</v>
-      </c>
-      <c r="G101" t="s">
-        <v>145</v>
-      </c>
-      <c r="I101" s="14">
-        <v>1</v>
-      </c>
-      <c r="J101" s="14">
-        <v>256</v>
-      </c>
-      <c r="L101" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="M101" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="D102" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" t="s">
-        <v>145</v>
-      </c>
-      <c r="I102" s="14">
-        <v>1</v>
-      </c>
-      <c r="J102" s="14">
-        <v>256</v>
-      </c>
-      <c r="L102" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M102" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="C103" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" t="s">
-        <v>145</v>
-      </c>
-      <c r="I103" s="14">
-        <v>1</v>
-      </c>
-      <c r="J103" s="14">
-        <v>256</v>
-      </c>
-      <c r="L103" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="M103" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="C104" t="s">
-        <v>358</v>
-      </c>
-      <c r="G104" t="s">
-        <v>146</v>
-      </c>
-      <c r="L104" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="M104" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="C105" t="s">
-        <v>42</v>
+      <c r="L105" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="M105" s="25" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="D106" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="G106" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I106" s="14">
         <v>1</v>
@@ -4284,13 +4276,19 @@
       <c r="J106" s="14">
         <v>256</v>
       </c>
+      <c r="L106" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="M106" s="25" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="107" spans="1:15">
       <c r="D107" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I107" s="14">
         <v>1</v>
@@ -4298,13 +4296,19 @@
       <c r="J107" s="14">
         <v>256</v>
       </c>
+      <c r="L107" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="M107" s="25" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="108" spans="1:15">
-      <c r="D108" t="s">
-        <v>45</v>
+      <c r="C108" t="s">
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I108" s="14">
         <v>1</v>
@@ -4312,47 +4316,38 @@
       <c r="J108" s="14">
         <v>256</v>
       </c>
-      <c r="K108" t="s">
-        <v>197</v>
+      <c r="L108" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="M108" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:15">
-      <c r="D109" t="s">
-        <v>46</v>
+      <c r="C109" t="s">
+        <v>354</v>
       </c>
       <c r="G109" t="s">
-        <v>145</v>
-      </c>
-      <c r="I109" s="14">
-        <v>1</v>
-      </c>
-      <c r="J109" s="14">
-        <v>256</v>
+        <v>143</v>
+      </c>
+      <c r="L109" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="M109" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:15">
-      <c r="D110" t="s">
-        <v>47</v>
-      </c>
-      <c r="G110" t="s">
-        <v>143</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J110" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="O110" t="s">
-        <v>195</v>
+      <c r="C110" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="D111" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I111" s="14">
         <v>1</v>
@@ -4360,277 +4355,295 @@
       <c r="J111" s="14">
         <v>256</v>
       </c>
-      <c r="K111" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="112" spans="1:15">
-      <c r="C112" t="s">
-        <v>49</v>
+      <c r="D112" t="s">
+        <v>41</v>
+      </c>
+      <c r="G112" t="s">
+        <v>142</v>
+      </c>
+      <c r="I112" s="14">
+        <v>1</v>
+      </c>
+      <c r="J112" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="D113" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
+        <v>142</v>
+      </c>
+      <c r="I113" s="14">
+        <v>1</v>
+      </c>
+      <c r="J113" s="14">
+        <v>256</v>
+      </c>
+      <c r="K113" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:15">
-      <c r="E114" t="s">
-        <v>51</v>
+      <c r="D114" t="s">
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>143</v>
-      </c>
-      <c r="K114" t="s">
-        <v>359</v>
-      </c>
-      <c r="O114" t="s">
-        <v>360</v>
+        <v>142</v>
+      </c>
+      <c r="I114" s="14">
+        <v>1</v>
+      </c>
+      <c r="J114" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:15">
-      <c r="E115" t="s">
-        <v>52</v>
+      <c r="D115" t="s">
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>143</v>
-      </c>
-      <c r="K115" t="s">
-        <v>359</v>
+        <v>140</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="O115" t="s">
-        <v>360</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="D116" t="s">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="I116" s="14">
+        <v>1</v>
+      </c>
+      <c r="J116" s="14">
+        <v>256</v>
+      </c>
+      <c r="K116" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:15">
-      <c r="D117" t="s">
-        <v>53</v>
-      </c>
-      <c r="G117" t="s">
-        <v>143</v>
+      <c r="C117" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:15">
-      <c r="C118" t="s">
-        <v>387</v>
-      </c>
-      <c r="G118" t="s">
-        <v>145</v>
+      <c r="D118" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:15">
-      <c r="C119" t="s">
-        <v>388</v>
+      <c r="E119" t="s">
+        <v>48</v>
       </c>
       <c r="G119" t="s">
-        <v>143</v>
-      </c>
-      <c r="I119" s="14">
+        <v>140</v>
+      </c>
+      <c r="K119" t="s">
+        <v>355</v>
+      </c>
+      <c r="O119" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="E120" t="s">
+        <v>49</v>
+      </c>
+      <c r="G120" t="s">
+        <v>140</v>
+      </c>
+      <c r="K120" t="s">
+        <v>355</v>
+      </c>
+      <c r="O120" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="D121" t="s">
+        <v>382</v>
+      </c>
+      <c r="G121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="D122" t="s">
+        <v>50</v>
+      </c>
+      <c r="G122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="C123" t="s">
+        <v>383</v>
+      </c>
+      <c r="G123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="C124" t="s">
+        <v>384</v>
+      </c>
+      <c r="G124" t="s">
+        <v>140</v>
+      </c>
+      <c r="I124" s="14">
         <v>1</v>
       </c>
-      <c r="J119" s="14">
+      <c r="J124" s="14">
         <v>1000000</v>
       </c>
-      <c r="K119" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="C120" t="s">
-        <v>389</v>
-      </c>
-      <c r="G120" t="s">
-        <v>143</v>
-      </c>
-      <c r="I120" s="14">
+      <c r="K124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="C125" t="s">
+        <v>385</v>
+      </c>
+      <c r="G125" t="s">
+        <v>140</v>
+      </c>
+      <c r="I125" s="14">
         <v>0</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J125" s="14">
         <v>100</v>
       </c>
-      <c r="K120" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="C121" t="s">
+      <c r="K125" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="C126" t="s">
+        <v>254</v>
+      </c>
+      <c r="G126" t="s">
+        <v>142</v>
+      </c>
+      <c r="I126" s="14">
+        <v>1</v>
+      </c>
+      <c r="J126" s="14">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="30"/>
+      <c r="C127" t="s">
+        <v>357</v>
+      </c>
+      <c r="G127" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K127" t="s">
         <v>257</v>
       </c>
-      <c r="G121" t="s">
-        <v>145</v>
-      </c>
-      <c r="I121" s="14">
-        <v>1</v>
-      </c>
-      <c r="J121" s="14">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="30"/>
-      <c r="C122" t="s">
-        <v>361</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K122" t="s">
-        <v>260</v>
-      </c>
-      <c r="N122" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="30"/>
-      <c r="C123" t="s">
-        <v>237</v>
-      </c>
-      <c r="G123" t="s">
-        <v>245</v>
-      </c>
-      <c r="K123" t="s">
-        <v>362</v>
-      </c>
-      <c r="N123" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O123" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="30"/>
-      <c r="C124" t="s">
-        <v>229</v>
-      </c>
-      <c r="G124" t="s">
-        <v>245</v>
-      </c>
-      <c r="K124" t="s">
-        <v>238</v>
-      </c>
-      <c r="N124" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="O124" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="16" thickBot="1">
-      <c r="A126" s="3">
-        <f>COUNTA($A$4:A125)+1</f>
+      <c r="N127" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="30"/>
+      <c r="C128" t="s">
+        <v>234</v>
+      </c>
+      <c r="G128" t="s">
+        <v>242</v>
+      </c>
+      <c r="K128" t="s">
+        <v>358</v>
+      </c>
+      <c r="N128" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="O128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="30"/>
+      <c r="C129" t="s">
+        <v>226</v>
+      </c>
+      <c r="G129" t="s">
+        <v>242</v>
+      </c>
+      <c r="K129" t="s">
+        <v>235</v>
+      </c>
+      <c r="N129" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="O129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="16" thickBot="1">
+      <c r="A131" s="3">
+        <f>COUNTA($A$4:A130)+1</f>
         <v>5</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:15" ht="16" thickTop="1">
-      <c r="C127" t="s">
-        <v>369</v>
-      </c>
-      <c r="F127" t="s">
-        <v>309</v>
-      </c>
-      <c r="G127" t="s">
-        <v>143</v>
-      </c>
-      <c r="H127" t="s">
-        <v>313</v>
-      </c>
-      <c r="L127" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M127" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="C128" t="s">
-        <v>370</v>
-      </c>
-      <c r="G128" t="s">
-        <v>145</v>
-      </c>
-      <c r="K128" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="C129" t="s">
-        <v>146</v>
-      </c>
-      <c r="G129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="C130" t="s">
-        <v>231</v>
-      </c>
-      <c r="F130" t="s">
-        <v>322</v>
-      </c>
-      <c r="G130" t="s">
-        <v>143</v>
-      </c>
-      <c r="K130" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="C131" t="s">
-        <v>366</v>
-      </c>
-      <c r="G131" t="s">
-        <v>145</v>
-      </c>
-      <c r="K131" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="B131" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="4"/>
+    </row>
+    <row r="132" spans="1:15" ht="16" thickTop="1">
       <c r="C132" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="F132" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G132" t="s">
-        <v>143</v>
-      </c>
-      <c r="K132" t="s">
-        <v>174</v>
+        <v>140</v>
+      </c>
+      <c r="H132" t="s">
+        <v>310</v>
+      </c>
+      <c r="L132" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="M132" s="25" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="C133" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G133" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K133" t="s">
         <v>367</v>
@@ -4638,1835 +4651,1823 @@
     </row>
     <row r="134" spans="1:15">
       <c r="C134" t="s">
-        <v>363</v>
-      </c>
-      <c r="F134" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="G134" t="s">
-        <v>143</v>
-      </c>
-      <c r="K134" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="C135" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="F135" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G135" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K135" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="C136" t="s">
-        <v>365</v>
-      </c>
-      <c r="F136" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="G136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K136" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="C137" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="F137" t="s">
+        <v>318</v>
       </c>
       <c r="G137" t="s">
-        <v>145</v>
-      </c>
-      <c r="I137" s="14">
-        <v>1</v>
-      </c>
-      <c r="J137" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O137" t="s">
-        <v>236</v>
+        <v>140</v>
+      </c>
+      <c r="K137" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="C138" t="s">
-        <v>234</v>
+        <v>364</v>
       </c>
       <c r="G138" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K138" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="16" thickBot="1">
-      <c r="A140" s="3">
-        <f>COUNTA($A$4:A139)+1</f>
-        <v>6</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="26"/>
-      <c r="N140" s="26"/>
-      <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:15" ht="16" thickTop="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="C139" t="s">
+        <v>359</v>
+      </c>
+      <c r="F139" t="s">
+        <v>318</v>
+      </c>
+      <c r="G139" t="s">
+        <v>140</v>
+      </c>
+      <c r="K139" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="C140" t="s">
+        <v>360</v>
+      </c>
+      <c r="F140" t="s">
+        <v>318</v>
+      </c>
+      <c r="G140" t="s">
+        <v>140</v>
+      </c>
+      <c r="K140" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="C141" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="F141" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G141" t="s">
-        <v>143</v>
-      </c>
-      <c r="H141" t="s">
-        <v>313</v>
-      </c>
-      <c r="L141" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M141" s="25" t="s">
-        <v>311</v>
+        <v>140</v>
+      </c>
+      <c r="K141" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="C142" t="s">
-        <v>394</v>
+        <v>230</v>
       </c>
       <c r="G142" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="I142" s="14">
+        <v>1</v>
+      </c>
+      <c r="J142" s="14">
+        <v>4096</v>
       </c>
       <c r="O142" t="s">
-        <v>395</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="C143" t="s">
-        <v>372</v>
-      </c>
-      <c r="F143" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="G143" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="31"/>
-      <c r="C144" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="D145" t="s">
-        <v>55</v>
-      </c>
-      <c r="G145" t="s">
-        <v>312</v>
-      </c>
-      <c r="K145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="E146" t="s">
-        <v>56</v>
+        <v>142</v>
+      </c>
+      <c r="K143" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="16" thickBot="1">
+      <c r="A145" s="3">
+        <f>COUNTA($A$4:A144)+1</f>
+        <v>6</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="4"/>
+    </row>
+    <row r="146" spans="1:15" ht="16" thickTop="1">
+      <c r="C146" t="s">
+        <v>387</v>
+      </c>
+      <c r="F146" t="s">
+        <v>306</v>
       </c>
       <c r="G146" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="H146" t="s">
+        <v>310</v>
+      </c>
+      <c r="L146" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="M146" s="25" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:15">
-      <c r="E147" t="s">
-        <v>57</v>
+      <c r="C147" t="s">
+        <v>390</v>
       </c>
       <c r="G147" t="s">
-        <v>144</v>
-      </c>
-      <c r="K147" t="s">
-        <v>176</v>
+        <v>142</v>
+      </c>
+      <c r="O147" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="1:15">
-      <c r="D148" t="s">
-        <v>58</v>
+      <c r="C148" t="s">
+        <v>368</v>
+      </c>
+      <c r="F148" t="s">
+        <v>318</v>
       </c>
       <c r="G148" t="s">
-        <v>312</v>
-      </c>
-      <c r="K148" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:15">
-      <c r="E149" t="s">
-        <v>56</v>
-      </c>
-      <c r="G149" t="s">
-        <v>148</v>
+      <c r="A149" s="31"/>
+      <c r="C149" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="D150" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="G150" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K150" t="s">
-        <v>165</v>
-      </c>
-      <c r="O150" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="E151" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G151" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:15">
-      <c r="D152" t="s">
-        <v>60</v>
+      <c r="E152" t="s">
+        <v>54</v>
       </c>
       <c r="G152" t="s">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="K152" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:15">
-      <c r="E153" t="s">
-        <v>56</v>
+      <c r="D153" t="s">
+        <v>55</v>
       </c>
       <c r="G153" t="s">
-        <v>148</v>
+        <v>309</v>
+      </c>
+      <c r="K153" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="E154" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G154" t="s">
         <v>145</v>
       </c>
-      <c r="I154" s="14">
-        <v>1</v>
-      </c>
-      <c r="J154" s="14">
-        <v>4096</v>
-      </c>
     </row>
     <row r="155" spans="1:15">
       <c r="D155" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="G155" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K155" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="O155" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="E156" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G156" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:15">
-      <c r="E157" t="s">
-        <v>62</v>
+      <c r="D157" t="s">
+        <v>57</v>
       </c>
       <c r="G157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K157" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:15">
-      <c r="C158" t="s">
-        <v>374</v>
-      </c>
-      <c r="F158" t="s">
-        <v>322</v>
+      <c r="E158" t="s">
+        <v>53</v>
       </c>
       <c r="G158" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="31"/>
-      <c r="C159" t="s">
-        <v>375</v>
+      <c r="E159" t="s">
+        <v>58</v>
+      </c>
+      <c r="G159" t="s">
+        <v>142</v>
+      </c>
+      <c r="I159" s="14">
+        <v>1</v>
+      </c>
+      <c r="J159" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="D160" t="s">
+        <v>197</v>
+      </c>
+      <c r="G160" t="s">
+        <v>309</v>
+      </c>
+      <c r="K160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="E161" t="s">
+        <v>53</v>
+      </c>
+      <c r="G161" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="E162" t="s">
+        <v>59</v>
+      </c>
+      <c r="G162" t="s">
+        <v>309</v>
+      </c>
+      <c r="K162" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="C163" t="s">
+        <v>370</v>
+      </c>
+      <c r="F163" t="s">
+        <v>318</v>
+      </c>
+      <c r="G163" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="31"/>
+      <c r="C164" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="D165" t="s">
+        <v>52</v>
+      </c>
+      <c r="G165" t="s">
+        <v>309</v>
+      </c>
+      <c r="K165" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="E166" t="s">
+        <v>53</v>
+      </c>
+      <c r="G166" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="E167" t="s">
+        <v>386</v>
+      </c>
+      <c r="G167" t="s">
+        <v>141</v>
+      </c>
+      <c r="K167" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="D168" t="s">
         <v>55</v>
       </c>
-      <c r="G160" t="s">
-        <v>312</v>
-      </c>
-      <c r="K160" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="3:11">
-      <c r="E161" t="s">
-        <v>56</v>
-      </c>
-      <c r="G161" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="162" spans="3:11">
-      <c r="E162" t="s">
-        <v>390</v>
-      </c>
-      <c r="G162" t="s">
-        <v>144</v>
-      </c>
-      <c r="K162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="3:11">
-      <c r="D163" t="s">
-        <v>58</v>
-      </c>
-      <c r="G163" t="s">
-        <v>312</v>
-      </c>
-      <c r="K163" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="3:11">
-      <c r="E164" t="s">
-        <v>56</v>
-      </c>
-      <c r="G164" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="165" spans="3:11">
-      <c r="D165" t="s">
-        <v>59</v>
-      </c>
-      <c r="G165" t="s">
-        <v>312</v>
-      </c>
-      <c r="K165" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="3:11">
-      <c r="E166" t="s">
-        <v>56</v>
-      </c>
-      <c r="G166" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="167" spans="3:11">
-      <c r="D167" t="s">
-        <v>60</v>
-      </c>
-      <c r="G167" t="s">
-        <v>312</v>
-      </c>
-      <c r="K167" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="3:11">
-      <c r="E168" t="s">
-        <v>56</v>
-      </c>
       <c r="G168" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="169" spans="3:11">
+        <v>309</v>
+      </c>
+      <c r="K168" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="E169" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G169" t="s">
         <v>145</v>
       </c>
-      <c r="I169" s="14">
+    </row>
+    <row r="170" spans="1:11">
+      <c r="D170" t="s">
+        <v>56</v>
+      </c>
+      <c r="G170" t="s">
+        <v>309</v>
+      </c>
+      <c r="K170" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="E171" t="s">
+        <v>53</v>
+      </c>
+      <c r="G171" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="D172" t="s">
+        <v>57</v>
+      </c>
+      <c r="G172" t="s">
+        <v>309</v>
+      </c>
+      <c r="K172" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="E173" t="s">
+        <v>53</v>
+      </c>
+      <c r="G173" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="E174" t="s">
+        <v>58</v>
+      </c>
+      <c r="G174" t="s">
+        <v>142</v>
+      </c>
+      <c r="I174" s="14">
         <v>1</v>
       </c>
-      <c r="J169" s="14">
+      <c r="J174" s="14">
         <v>4096</v>
       </c>
     </row>
-    <row r="170" spans="3:11">
-      <c r="D170" t="s">
-        <v>200</v>
-      </c>
-      <c r="G170" t="s">
-        <v>312</v>
-      </c>
-      <c r="K170" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="3:11">
-      <c r="E171" t="s">
-        <v>56</v>
-      </c>
-      <c r="G171" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="172" spans="3:11">
-      <c r="E172" t="s">
-        <v>62</v>
-      </c>
-      <c r="G172" t="s">
-        <v>312</v>
-      </c>
-      <c r="K172" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="173" spans="3:11">
-      <c r="C173" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="174" spans="3:11">
-      <c r="D174" t="s">
-        <v>401</v>
-      </c>
-      <c r="G174" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="175" spans="3:11">
+    <row r="175" spans="1:11">
       <c r="D175" t="s">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="G175" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="176" spans="3:11">
-      <c r="D176" t="s">
-        <v>399</v>
+        <v>309</v>
+      </c>
+      <c r="K175" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="E176" t="s">
+        <v>53</v>
       </c>
       <c r="G176" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="D177" t="s">
-        <v>398</v>
+      <c r="E177" t="s">
+        <v>59</v>
       </c>
       <c r="G177" t="s">
-        <v>144</v>
+        <v>309</v>
+      </c>
+      <c r="K177" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="D178" t="s">
-        <v>393</v>
-      </c>
-      <c r="G178" t="s">
-        <v>144</v>
+      <c r="C178" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="C179" t="s">
-        <v>376</v>
+      <c r="D179" t="s">
+        <v>397</v>
+      </c>
+      <c r="G179" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:11">
       <c r="D180" t="s">
-        <v>63</v>
+        <v>396</v>
       </c>
       <c r="G180" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:11">
       <c r="D181" t="s">
-        <v>64</v>
+        <v>395</v>
       </c>
       <c r="G181" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="C182" t="s">
-        <v>377</v>
+      <c r="D182" t="s">
+        <v>394</v>
+      </c>
+      <c r="G182" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:11">
       <c r="D183" t="s">
-        <v>65</v>
+        <v>389</v>
       </c>
       <c r="G183" t="s">
-        <v>145</v>
-      </c>
-      <c r="I183" s="14">
-        <v>1</v>
-      </c>
-      <c r="J183" s="14">
-        <v>4096</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="D184" t="s">
-        <v>29</v>
-      </c>
-      <c r="G184" t="s">
-        <v>145</v>
-      </c>
-      <c r="I184" s="14">
-        <v>1</v>
-      </c>
-      <c r="J184" s="14">
-        <v>4096</v>
+      <c r="C184" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="185" spans="1:11">
       <c r="D185" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G185" t="s">
         <v>145</v>
       </c>
-      <c r="I185" s="14">
+    </row>
+    <row r="186" spans="1:11">
+      <c r="D186" t="s">
+        <v>61</v>
+      </c>
+      <c r="G186" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="C187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="D188" t="s">
+        <v>62</v>
+      </c>
+      <c r="G188" t="s">
+        <v>142</v>
+      </c>
+      <c r="I188" s="14">
         <v>1</v>
       </c>
-      <c r="J185" s="14">
+      <c r="J188" s="14">
         <v>4096</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
-      <c r="A186" s="31"/>
-      <c r="C186" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187" s="31"/>
-      <c r="D187" t="s">
-        <v>67</v>
-      </c>
-      <c r="G187" t="s">
-        <v>312</v>
-      </c>
-      <c r="K187" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188" s="31"/>
-      <c r="D188" t="s">
-        <v>68</v>
-      </c>
-      <c r="G188" t="s">
-        <v>312</v>
-      </c>
-      <c r="K188" t="s">
-        <v>165</v>
-      </c>
-    </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="31"/>
       <c r="D189" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>312</v>
-      </c>
-      <c r="K189" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="I189" s="14">
+        <v>1</v>
+      </c>
+      <c r="J189" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="31"/>
       <c r="D190" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G190" t="s">
-        <v>312</v>
-      </c>
-      <c r="K190" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="I190" s="14">
+        <v>1</v>
+      </c>
+      <c r="J190" s="14">
+        <v>4096</v>
       </c>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="31"/>
-      <c r="D191" t="s">
-        <v>71</v>
-      </c>
-      <c r="G191" t="s">
-        <v>312</v>
-      </c>
-      <c r="K191" t="s">
-        <v>165</v>
+      <c r="C191" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="31"/>
       <c r="D192" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G192" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K192" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="31"/>
       <c r="D193" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G193" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K193" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="31"/>
       <c r="D194" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G194" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K194" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="31"/>
       <c r="D195" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G195" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K195" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="31"/>
       <c r="D196" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G196" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K196" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="31"/>
-      <c r="C197" t="s">
-        <v>379</v>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="G197" t="s">
+        <v>309</v>
+      </c>
+      <c r="K197" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="31"/>
       <c r="D198" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G198" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K198" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="31"/>
       <c r="D199" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="G199" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K199" t="s">
-        <v>165</v>
-      </c>
-      <c r="O199" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="31"/>
       <c r="D200" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="G200" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K200" t="s">
-        <v>165</v>
-      </c>
-      <c r="O200" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="31"/>
       <c r="D201" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="G201" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K201" t="s">
-        <v>165</v>
-      </c>
-      <c r="O201" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="31"/>
-      <c r="D202" t="s">
-        <v>208</v>
-      </c>
-      <c r="G202" t="s">
-        <v>312</v>
-      </c>
-      <c r="K202" t="s">
-        <v>165</v>
-      </c>
-      <c r="O202" t="s">
-        <v>204</v>
+      <c r="C202" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="31"/>
-      <c r="C203" t="s">
-        <v>380</v>
+      <c r="D203" t="s">
+        <v>74</v>
+      </c>
+      <c r="G203" t="s">
+        <v>309</v>
+      </c>
+      <c r="K203" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="31"/>
       <c r="D204" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="G204" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K204" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="O204" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="31"/>
       <c r="D205" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="G205" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K205" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="O205" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="31"/>
       <c r="D206" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="G206" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K206" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="O206" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="31"/>
       <c r="D207" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="G207" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K207" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="O207" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="31"/>
-      <c r="D208" t="s">
-        <v>82</v>
-      </c>
-      <c r="G208" t="s">
-        <v>312</v>
-      </c>
-      <c r="K208" t="s">
-        <v>165</v>
+      <c r="C208" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="31"/>
       <c r="D209" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G209" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K209" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="31"/>
       <c r="D210" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G210" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K210" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" ht="16" thickBot="1">
-      <c r="A213" s="3">
-        <f>COUNTA($A$4:A212)+1</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="A211" s="31"/>
+      <c r="D211" t="s">
+        <v>77</v>
+      </c>
+      <c r="G211" t="s">
+        <v>309</v>
+      </c>
+      <c r="K211" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" s="31"/>
+      <c r="D212" t="s">
+        <v>78</v>
+      </c>
+      <c r="G212" t="s">
+        <v>309</v>
+      </c>
+      <c r="K212" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" s="31"/>
+      <c r="D213" t="s">
+        <v>79</v>
+      </c>
+      <c r="G213" t="s">
+        <v>309</v>
+      </c>
+      <c r="K213" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" s="31"/>
+      <c r="D214" t="s">
+        <v>80</v>
+      </c>
+      <c r="G214" t="s">
+        <v>309</v>
+      </c>
+      <c r="K214" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" s="31"/>
+      <c r="D215" t="s">
+        <v>81</v>
+      </c>
+      <c r="G215" t="s">
+        <v>309</v>
+      </c>
+      <c r="K215" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="16" thickBot="1">
+      <c r="A218" s="3">
+        <f>COUNTA($A$4:A217)+1</f>
         <v>7</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
-      <c r="I213" s="15"/>
-      <c r="J213" s="15"/>
-      <c r="K213" s="4"/>
-      <c r="L213" s="26"/>
-      <c r="M213" s="26"/>
-      <c r="N213" s="26"/>
-      <c r="O213" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" ht="16" thickTop="1">
-      <c r="C214" t="s">
-        <v>396</v>
-      </c>
-      <c r="F214" t="s">
-        <v>309</v>
-      </c>
-      <c r="G214" t="s">
+      <c r="B218" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="26"/>
+      <c r="M218" s="26"/>
+      <c r="N218" s="26"/>
+      <c r="O218" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="16" thickTop="1">
+      <c r="C219" t="s">
+        <v>392</v>
+      </c>
+      <c r="F219" t="s">
+        <v>306</v>
+      </c>
+      <c r="G219" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="C220" t="s">
+        <v>278</v>
+      </c>
+      <c r="G220" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="C221" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15">
-      <c r="C215" t="s">
-        <v>281</v>
-      </c>
-      <c r="G215" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15">
-      <c r="C216" t="s">
-        <v>146</v>
-      </c>
-      <c r="G216" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15">
-      <c r="C217" t="s">
-        <v>381</v>
-      </c>
-      <c r="G217" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15">
-      <c r="C218" t="s">
-        <v>382</v>
-      </c>
-      <c r="G218" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15">
-      <c r="A219" s="31"/>
-      <c r="C219" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15">
-      <c r="D220" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15">
-      <c r="D221" t="s">
-        <v>85</v>
       </c>
       <c r="G221" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:15">
-      <c r="D222" t="s">
+      <c r="C222" t="s">
+        <v>377</v>
+      </c>
+      <c r="G222" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="C223" t="s">
+        <v>378</v>
+      </c>
+      <c r="G223" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" s="31"/>
+      <c r="C224" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7">
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+      <c r="G225" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7">
+      <c r="D226" t="s">
+        <v>82</v>
+      </c>
+      <c r="G226" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7">
+      <c r="D227" t="s">
+        <v>39</v>
+      </c>
+      <c r="G227" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7">
+      <c r="D228" t="s">
+        <v>83</v>
+      </c>
+      <c r="G228" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7">
+      <c r="D229" t="s">
+        <v>43</v>
+      </c>
+      <c r="G229" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7">
+      <c r="D230" t="s">
         <v>42</v>
       </c>
-      <c r="G222" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15">
-      <c r="D223" t="s">
+      <c r="G230" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7">
+      <c r="D231" t="s">
+        <v>84</v>
+      </c>
+      <c r="G231" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7">
+      <c r="D232" t="s">
+        <v>50</v>
+      </c>
+      <c r="G232" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7">
+      <c r="D233" t="s">
+        <v>85</v>
+      </c>
+      <c r="G233" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7">
+      <c r="D234" t="s">
         <v>86</v>
       </c>
-      <c r="G223" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
-      <c r="D224" t="s">
-        <v>46</v>
-      </c>
-      <c r="G224" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="225" spans="3:11">
-      <c r="D225" t="s">
-        <v>45</v>
-      </c>
-      <c r="G225" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="226" spans="3:11">
-      <c r="D226" t="s">
+      <c r="G234" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7">
+      <c r="C235" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="236" spans="3:7">
+      <c r="D236" t="s">
         <v>87</v>
       </c>
-      <c r="G226" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="227" spans="3:11">
-      <c r="D227" t="s">
-        <v>53</v>
-      </c>
-      <c r="G227" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="228" spans="3:11">
-      <c r="D228" t="s">
+      <c r="G236" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="237" spans="3:7">
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="238" spans="3:7">
+      <c r="D238" t="s">
         <v>88</v>
       </c>
-      <c r="G228" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="229" spans="3:11">
-      <c r="D229" t="s">
+      <c r="G238" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="239" spans="3:7">
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+      <c r="G239" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="240" spans="3:7">
+      <c r="D240" t="s">
         <v>89</v>
       </c>
-      <c r="G229" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="230" spans="3:11">
-      <c r="C230" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="231" spans="3:11">
-      <c r="D231" t="s">
+    </row>
+    <row r="241" spans="3:15">
+      <c r="E241" t="s">
+        <v>87</v>
+      </c>
+      <c r="G241" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="242" spans="3:15">
+      <c r="E242" t="s">
         <v>90</v>
       </c>
-      <c r="G231" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="232" spans="3:11">
-      <c r="D232" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="233" spans="3:11">
-      <c r="D233" t="s">
-        <v>91</v>
-      </c>
-      <c r="G233" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="234" spans="3:11">
-      <c r="D234" t="s">
-        <v>3</v>
-      </c>
-      <c r="G234" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="235" spans="3:11">
-      <c r="D235" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="236" spans="3:11">
-      <c r="E236" t="s">
-        <v>90</v>
-      </c>
-      <c r="G236" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="237" spans="3:11">
-      <c r="E237" t="s">
-        <v>93</v>
-      </c>
-      <c r="G237" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="238" spans="3:11">
-      <c r="E238" t="s">
-        <v>91</v>
-      </c>
-      <c r="G238" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="239" spans="3:11">
-      <c r="E239" t="s">
+      <c r="G242" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="243" spans="3:15">
+      <c r="E243" t="s">
+        <v>88</v>
+      </c>
+      <c r="G243" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="244" spans="3:15">
+      <c r="E244" t="s">
         <v>9</v>
       </c>
-      <c r="G239" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="240" spans="3:11">
-      <c r="D240" t="s">
-        <v>217</v>
-      </c>
-      <c r="G240" t="s">
-        <v>150</v>
-      </c>
-      <c r="K240" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="241" spans="3:15">
-      <c r="D241" t="s">
-        <v>211</v>
-      </c>
-      <c r="G241" t="s">
-        <v>145</v>
-      </c>
-      <c r="K241" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="242" spans="3:15">
-      <c r="D242" t="s">
-        <v>213</v>
-      </c>
-      <c r="G242" t="s">
-        <v>145</v>
-      </c>
-      <c r="K242" t="s">
+      <c r="G244" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="245" spans="3:15">
+      <c r="D245" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="243" spans="3:15">
-      <c r="D243" t="s">
-        <v>215</v>
-      </c>
-      <c r="G243" t="s">
-        <v>150</v>
-      </c>
-      <c r="K243" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="244" spans="3:15">
-      <c r="D244" t="s">
-        <v>23</v>
-      </c>
-      <c r="G244" t="s">
-        <v>150</v>
-      </c>
-      <c r="K244" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="245" spans="3:15">
-      <c r="C245" t="s">
-        <v>385</v>
+      <c r="G245" t="s">
+        <v>147</v>
+      </c>
+      <c r="K245" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="246" spans="3:15">
       <c r="D246" t="s">
-        <v>94</v>
-      </c>
-      <c r="O246" t="s">
-        <v>171</v>
+        <v>208</v>
+      </c>
+      <c r="G246" t="s">
+        <v>142</v>
+      </c>
+      <c r="K246" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="247" spans="3:15">
       <c r="D247" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="G247" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="K247" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="248" spans="3:15">
       <c r="D248" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G248" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K248" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="249" spans="3:15">
       <c r="D249" t="s">
-        <v>96</v>
+        <v>23</v>
+      </c>
+      <c r="G249" t="s">
+        <v>147</v>
+      </c>
+      <c r="K249" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="250" spans="3:15">
-      <c r="E250" t="s">
-        <v>33</v>
-      </c>
-      <c r="G250" t="s">
-        <v>143</v>
+      <c r="C250" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="251" spans="3:15">
-      <c r="E251" t="s">
-        <v>97</v>
-      </c>
-      <c r="G251" t="s">
-        <v>143</v>
+      <c r="D251" t="s">
+        <v>91</v>
+      </c>
+      <c r="O251" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="252" spans="3:15">
-      <c r="E252" t="s">
-        <v>98</v>
+      <c r="D252" t="s">
+        <v>92</v>
       </c>
       <c r="G252" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="253" spans="3:15">
-      <c r="E253" t="s">
-        <v>99</v>
+      <c r="D253" t="s">
+        <v>215</v>
       </c>
       <c r="G253" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="K253" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="254" spans="3:15">
       <c r="D254" t="s">
-        <v>100</v>
-      </c>
-      <c r="G254" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
     </row>
     <row r="255" spans="3:15">
-      <c r="D255" t="s">
-        <v>101</v>
+      <c r="E255" t="s">
+        <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>150</v>
-      </c>
-      <c r="K255" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="256" spans="3:15">
-      <c r="D256" t="s">
-        <v>102</v>
+      <c r="E256" t="s">
+        <v>94</v>
       </c>
       <c r="G256" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="257" spans="3:15">
-      <c r="D257" t="s">
-        <v>103</v>
+      <c r="E257" t="s">
+        <v>95</v>
       </c>
       <c r="G257" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="258" spans="3:15">
-      <c r="D258" t="s">
-        <v>104</v>
+      <c r="E258" t="s">
+        <v>96</v>
       </c>
       <c r="G258" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="259" spans="3:15">
       <c r="D259" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G259" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="260" spans="3:15">
       <c r="D260" t="s">
-        <v>106</v>
-      </c>
-      <c r="O260" t="s">
-        <v>171</v>
+        <v>98</v>
+      </c>
+      <c r="G260" t="s">
+        <v>147</v>
+      </c>
+      <c r="K260" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="3:15">
       <c r="D261" t="s">
-        <v>107</v>
-      </c>
-      <c r="O261" t="s">
-        <v>171</v>
+        <v>99</v>
+      </c>
+      <c r="G261" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="262" spans="3:15">
       <c r="D262" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G262" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="263" spans="3:15">
       <c r="D263" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G263" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="264" spans="3:15">
       <c r="D264" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G264" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="265" spans="3:15">
       <c r="D265" t="s">
-        <v>111</v>
-      </c>
-      <c r="G265" t="s">
-        <v>143</v>
+        <v>103</v>
+      </c>
+      <c r="O265" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="266" spans="3:15">
-      <c r="C266" t="s">
-        <v>112</v>
+      <c r="D266" t="s">
+        <v>104</v>
+      </c>
+      <c r="O266" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="267" spans="3:15">
       <c r="D267" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G267" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="268" spans="3:15">
       <c r="D268" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G268" t="s">
-        <v>143</v>
-      </c>
-      <c r="K268" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
     </row>
     <row r="269" spans="3:15">
       <c r="D269" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="G269" t="s">
-        <v>150</v>
-      </c>
-      <c r="K269" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
     </row>
     <row r="270" spans="3:15">
       <c r="D270" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G270" t="s">
-        <v>143</v>
-      </c>
-      <c r="K270" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="271" spans="3:15">
-      <c r="E271" t="s">
-        <v>116</v>
-      </c>
-      <c r="G271" t="s">
-        <v>145</v>
+      <c r="C271" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="272" spans="3:15">
       <c r="D272" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G272" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="273" spans="1:15">
       <c r="D273" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G273" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="K273" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="D274" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="G274" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="K274" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="D275" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G275" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="K275" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="276" spans="1:15">
-      <c r="D276" t="s">
-        <v>121</v>
+      <c r="E276" t="s">
+        <v>113</v>
       </c>
       <c r="G276" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="277" spans="1:15">
       <c r="D277" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G277" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="D278" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G278" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="D279" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G279" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15">
+      <c r="D280" t="s">
+        <v>117</v>
+      </c>
+      <c r="G280" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="16" thickBot="1">
-      <c r="A281" s="3">
-        <f>COUNTA($A$4:A280)+1</f>
+    <row r="281" spans="1:15">
+      <c r="D281" t="s">
+        <v>118</v>
+      </c>
+      <c r="G281" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
+      <c r="D282" t="s">
+        <v>119</v>
+      </c>
+      <c r="G282" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
+      <c r="D283" t="s">
+        <v>120</v>
+      </c>
+      <c r="G283" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15">
+      <c r="D284" t="s">
+        <v>121</v>
+      </c>
+      <c r="G284" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" ht="16" thickBot="1">
+      <c r="A286" s="3">
+        <f>COUNTA($A$4:A285)+1</f>
         <v>8</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
-      <c r="E281" s="4"/>
-      <c r="F281" s="4"/>
-      <c r="G281" s="4"/>
-      <c r="H281" s="4"/>
-      <c r="I281" s="15"/>
-      <c r="J281" s="15"/>
-      <c r="K281" s="4"/>
-      <c r="L281" s="26"/>
-      <c r="M281" s="26"/>
-      <c r="N281" s="26"/>
-      <c r="O281" s="4"/>
-    </row>
-    <row r="282" spans="1:15" ht="16" thickTop="1">
-      <c r="C282" t="s">
-        <v>226</v>
-      </c>
-      <c r="F282" t="s">
-        <v>309</v>
-      </c>
-      <c r="G282" t="s">
-        <v>143</v>
-      </c>
-      <c r="O282" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15">
-      <c r="C283" t="s">
-        <v>249</v>
-      </c>
-      <c r="G283" t="s">
-        <v>145</v>
-      </c>
-      <c r="K283" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15">
-      <c r="C284" t="s">
-        <v>285</v>
-      </c>
-      <c r="G284" t="s">
-        <v>150</v>
-      </c>
-      <c r="K284" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15">
-      <c r="C285" t="s">
-        <v>286</v>
-      </c>
-      <c r="G285" t="s">
-        <v>150</v>
-      </c>
-      <c r="K285" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15">
-      <c r="C286" t="s">
-        <v>300</v>
-      </c>
-      <c r="G286" t="s">
-        <v>145</v>
-      </c>
-      <c r="K286" t="s">
-        <v>165</v>
-      </c>
-      <c r="O286" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15">
+      <c r="B286" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
+      <c r="H286" s="4"/>
+      <c r="I286" s="15"/>
+      <c r="J286" s="15"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="26"/>
+      <c r="M286" s="26"/>
+      <c r="N286" s="26"/>
+      <c r="O286" s="4"/>
+    </row>
+    <row r="287" spans="1:15" ht="16" thickTop="1">
       <c r="C287" t="s">
-        <v>297</v>
+        <v>223</v>
+      </c>
+      <c r="F287" t="s">
+        <v>306</v>
       </c>
       <c r="G287" t="s">
-        <v>145</v>
-      </c>
-      <c r="K287" t="s">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="O287" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:15">
       <c r="C288" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="G288" t="s">
-        <v>150</v>
-      </c>
-      <c r="O288" t="s">
-        <v>224</v>
+        <v>142</v>
+      </c>
+      <c r="K288" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="289" spans="1:15">
       <c r="C289" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G289" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K289" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="290" spans="1:15">
       <c r="C290" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G290" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="K290" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="291" spans="1:15">
       <c r="C291" t="s">
-        <v>288</v>
-      </c>
-      <c r="G291" s="20" t="s">
-        <v>245</v>
+        <v>297</v>
+      </c>
+      <c r="G291" t="s">
+        <v>142</v>
       </c>
       <c r="K291" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="O291" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="292" spans="1:15">
       <c r="C292" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G292" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="K292" t="s">
+        <v>295</v>
+      </c>
+      <c r="O292" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="293" spans="1:15">
       <c r="C293" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="G293" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="O293" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="294" spans="1:15">
       <c r="C294" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G294" t="s">
-        <v>143</v>
-      </c>
-      <c r="O294" t="s">
-        <v>293</v>
+        <v>140</v>
+      </c>
+      <c r="K294" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="295" spans="1:15">
       <c r="C295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G295" t="s">
-        <v>145</v>
-      </c>
-      <c r="O295" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" ht="16" thickBot="1">
-      <c r="A297" s="3">
-        <f>COUNTA($A$4:A296)+1</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
+      <c r="C296" t="s">
+        <v>285</v>
+      </c>
+      <c r="G296" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K296" t="s">
+        <v>224</v>
+      </c>
+      <c r="O296" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
+      <c r="C297" t="s">
+        <v>287</v>
+      </c>
+      <c r="G297" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
+      <c r="C298" t="s">
+        <v>288</v>
+      </c>
+      <c r="G298" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
+      <c r="C299" t="s">
+        <v>289</v>
+      </c>
+      <c r="G299" t="s">
+        <v>140</v>
+      </c>
+      <c r="O299" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
+      <c r="C300" t="s">
+        <v>291</v>
+      </c>
+      <c r="G300" t="s">
+        <v>142</v>
+      </c>
+      <c r="O300" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" ht="16" thickBot="1">
+      <c r="A302" s="3">
+        <f>COUNTA($A$4:A301)+1</f>
         <v>9</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B302" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
-      <c r="F297" s="4"/>
-      <c r="G297" s="4"/>
-      <c r="H297" s="4"/>
-      <c r="I297" s="15"/>
-      <c r="J297" s="15"/>
-      <c r="K297" s="4"/>
-      <c r="L297" s="26"/>
-      <c r="M297" s="26"/>
-      <c r="N297" s="26"/>
-      <c r="O297" s="4"/>
-    </row>
-    <row r="298" spans="1:15" ht="16" thickTop="1">
-      <c r="C298" t="s">
-        <v>226</v>
-      </c>
-      <c r="F298" t="s">
-        <v>309</v>
-      </c>
-      <c r="G298" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15">
-      <c r="A299" s="31"/>
-      <c r="C299" t="s">
-        <v>125</v>
-      </c>
-      <c r="G299" t="s">
-        <v>245</v>
-      </c>
-      <c r="K299" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15">
-      <c r="A300" s="31"/>
-      <c r="D300" t="s">
-        <v>126</v>
-      </c>
-      <c r="G300" t="s">
-        <v>245</v>
-      </c>
-      <c r="K300" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15">
-      <c r="A301" s="31"/>
-      <c r="D301" t="s">
-        <v>127</v>
-      </c>
-      <c r="G301" t="s">
-        <v>245</v>
-      </c>
-      <c r="K301" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15">
-      <c r="A302" s="31"/>
-      <c r="D302" t="s">
-        <v>128</v>
-      </c>
-      <c r="G302" t="s">
-        <v>245</v>
-      </c>
-      <c r="K302" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15">
-      <c r="A303" s="31"/>
-      <c r="D303" t="s">
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
+      <c r="H302" s="4"/>
+      <c r="I302" s="15"/>
+      <c r="J302" s="15"/>
+      <c r="K302" s="4"/>
+      <c r="L302" s="26"/>
+      <c r="M302" s="26"/>
+      <c r="N302" s="26"/>
+      <c r="O302" s="4"/>
+    </row>
+    <row r="303" spans="1:15" ht="16" thickTop="1">
+      <c r="C303" t="s">
         <v>223</v>
       </c>
+      <c r="F303" t="s">
+        <v>306</v>
+      </c>
       <c r="G303" t="s">
-        <v>245</v>
-      </c>
-      <c r="O303" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="31"/>
       <c r="C304" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G304" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K304" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="305" spans="1:15">
       <c r="A305" s="31"/>
       <c r="D305" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G305" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K305" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="31"/>
       <c r="D306" t="s">
+        <v>124</v>
+      </c>
+      <c r="G306" t="s">
+        <v>242</v>
+      </c>
+      <c r="K306" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" s="31"/>
+      <c r="D307" t="s">
+        <v>125</v>
+      </c>
+      <c r="G307" t="s">
+        <v>242</v>
+      </c>
+      <c r="K307" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
+      <c r="A308" s="31"/>
+      <c r="D308" t="s">
+        <v>220</v>
+      </c>
+      <c r="G308" t="s">
+        <v>242</v>
+      </c>
+      <c r="O308" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15">
+      <c r="A309" s="31"/>
+      <c r="C309" t="s">
+        <v>126</v>
+      </c>
+      <c r="G309" t="s">
+        <v>242</v>
+      </c>
+      <c r="K309" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="A310" s="31"/>
+      <c r="D310" t="s">
+        <v>124</v>
+      </c>
+      <c r="G310" t="s">
+        <v>242</v>
+      </c>
+      <c r="K310" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15">
+      <c r="A311" s="31"/>
+      <c r="D311" t="s">
+        <v>220</v>
+      </c>
+      <c r="G311" t="s">
+        <v>242</v>
+      </c>
+      <c r="K311" t="s">
+        <v>224</v>
+      </c>
+      <c r="O311" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" ht="16" thickBot="1">
+      <c r="A313" s="3">
+        <f>COUNTA($A$4:A312)+1</f>
+        <v>10</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
+      <c r="H313" s="4"/>
+      <c r="I313" s="15"/>
+      <c r="J313" s="15"/>
+      <c r="K313" s="4"/>
+      <c r="L313" s="26"/>
+      <c r="M313" s="26"/>
+      <c r="N313" s="26"/>
+      <c r="O313" s="4"/>
+    </row>
+    <row r="314" spans="1:15" ht="16" thickTop="1">
+      <c r="C314" t="s">
         <v>223</v>
       </c>
-      <c r="G306" t="s">
-        <v>245</v>
-      </c>
-      <c r="K306" t="s">
-        <v>227</v>
-      </c>
-      <c r="O306" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15" ht="16" thickBot="1">
-      <c r="A308" s="3">
-        <f>COUNTA($A$4:A307)+1</f>
-        <v>10</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="4"/>
-      <c r="H308" s="4"/>
-      <c r="I308" s="15"/>
-      <c r="J308" s="15"/>
-      <c r="K308" s="4"/>
-      <c r="L308" s="26"/>
-      <c r="M308" s="26"/>
-      <c r="N308" s="26"/>
-      <c r="O308" s="4"/>
-    </row>
-    <row r="309" spans="1:15" ht="16" thickTop="1">
-      <c r="C309" t="s">
-        <v>226</v>
-      </c>
-      <c r="F309" t="s">
-        <v>397</v>
-      </c>
-      <c r="G309" t="s">
-        <v>143</v>
-      </c>
-      <c r="O309" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15">
-      <c r="C310" t="s">
-        <v>249</v>
-      </c>
-      <c r="G310" t="s">
-        <v>145</v>
-      </c>
-      <c r="K310" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15">
-      <c r="C311" t="s">
-        <v>250</v>
-      </c>
-      <c r="G311" t="s">
-        <v>145</v>
-      </c>
-      <c r="I311" s="14">
-        <v>1</v>
-      </c>
-      <c r="J311" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="312" spans="1:15">
-      <c r="C312" t="s">
-        <v>251</v>
-      </c>
-      <c r="G312" t="s">
-        <v>145</v>
-      </c>
-      <c r="I312" s="14">
-        <v>1</v>
-      </c>
-      <c r="J312" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="313" spans="1:15">
-      <c r="C313" t="s">
-        <v>252</v>
-      </c>
-      <c r="G313" t="s">
-        <v>145</v>
-      </c>
-      <c r="I313" s="14">
-        <v>1</v>
-      </c>
-      <c r="J313" s="14">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15">
-      <c r="C314" t="s">
-        <v>253</v>
+      <c r="F314" t="s">
+        <v>393</v>
       </c>
       <c r="G314" t="s">
-        <v>145</v>
-      </c>
-      <c r="I314" s="14">
-        <v>1</v>
-      </c>
-      <c r="J314" s="14">
-        <v>256</v>
+        <v>140</v>
+      </c>
+      <c r="O314" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="315" spans="1:15">
       <c r="C315" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G315" t="s">
-        <v>145</v>
-      </c>
-      <c r="I315" s="14">
-        <v>1</v>
-      </c>
-      <c r="J315" s="14">
+        <v>142</v>
+      </c>
+      <c r="K315" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="316" spans="1:15">
       <c r="C316" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G316" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I316" s="14">
         <v>1</v>
@@ -6477,254 +6478,275 @@
     </row>
     <row r="317" spans="1:15">
       <c r="C317" t="s">
+        <v>248</v>
+      </c>
+      <c r="G317" t="s">
+        <v>142</v>
+      </c>
+      <c r="I317" s="14">
+        <v>1</v>
+      </c>
+      <c r="J317" s="14">
         <v>256</v>
-      </c>
-      <c r="G317" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="C318" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G318" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="I318" s="14">
+        <v>1</v>
+      </c>
+      <c r="J318" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="319" spans="1:15">
       <c r="C319" t="s">
+        <v>250</v>
+      </c>
+      <c r="G319" t="s">
+        <v>142</v>
+      </c>
+      <c r="I319" s="14">
+        <v>1</v>
+      </c>
+      <c r="J319" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15">
+      <c r="C320" t="s">
+        <v>251</v>
+      </c>
+      <c r="G320" t="s">
+        <v>142</v>
+      </c>
+      <c r="I320" s="14">
+        <v>1</v>
+      </c>
+      <c r="J320" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15">
+      <c r="C321" t="s">
+        <v>252</v>
+      </c>
+      <c r="G321" t="s">
+        <v>142</v>
+      </c>
+      <c r="I321" s="14">
+        <v>1</v>
+      </c>
+      <c r="J321" s="14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="C322" t="s">
+        <v>253</v>
+      </c>
+      <c r="G322" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15">
+      <c r="C323" t="s">
+        <v>254</v>
+      </c>
+      <c r="G323" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15">
+      <c r="C324" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15">
+      <c r="A325" s="31"/>
+      <c r="D325" t="s">
+        <v>148</v>
+      </c>
+      <c r="G325" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15">
+      <c r="A326" s="31"/>
+      <c r="D326" t="s">
+        <v>149</v>
+      </c>
+      <c r="G326" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" ht="16" thickBot="1">
+      <c r="A328" s="3">
+        <f>COUNTA($A$4:A327)+1</f>
+        <v>11</v>
+      </c>
+      <c r="B328" s="4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="320" spans="1:15">
-      <c r="A320" s="31"/>
-      <c r="D320" t="s">
-        <v>151</v>
-      </c>
-      <c r="G320" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15">
-      <c r="A321" s="31"/>
-      <c r="D321" t="s">
-        <v>152</v>
-      </c>
-      <c r="G321" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" ht="16" thickBot="1">
-      <c r="A323" s="3">
-        <f>COUNTA($A$4:A322)+1</f>
-        <v>11</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4"/>
-      <c r="F323" s="4"/>
-      <c r="G323" s="4"/>
-      <c r="H323" s="4"/>
-      <c r="I323" s="15"/>
-      <c r="J323" s="15"/>
-      <c r="K323" s="4"/>
-      <c r="L323" s="26"/>
-      <c r="M323" s="26"/>
-      <c r="N323" s="26"/>
-      <c r="O323" s="4"/>
-    </row>
-    <row r="324" spans="1:15" ht="16" thickTop="1">
-      <c r="C324" t="s">
-        <v>226</v>
-      </c>
-      <c r="F324" t="s">
-        <v>336</v>
-      </c>
-      <c r="G324" t="s">
-        <v>143</v>
-      </c>
-      <c r="O324" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15">
-      <c r="C325" t="s">
-        <v>249</v>
-      </c>
-      <c r="F325" t="s">
-        <v>309</v>
-      </c>
-      <c r="G325" t="s">
-        <v>145</v>
-      </c>
-      <c r="K325" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15">
-      <c r="C326" t="s">
-        <v>337</v>
-      </c>
-      <c r="F326" t="s">
-        <v>322</v>
-      </c>
-      <c r="G326" t="s">
-        <v>143</v>
-      </c>
-      <c r="O326" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="327" spans="1:15">
-      <c r="C327" t="s">
-        <v>263</v>
-      </c>
-      <c r="G327" t="s">
-        <v>144</v>
-      </c>
-      <c r="I327" s="14">
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
+      <c r="H328" s="4"/>
+      <c r="I328" s="15"/>
+      <c r="J328" s="15"/>
+      <c r="K328" s="4"/>
+      <c r="L328" s="26"/>
+      <c r="M328" s="26"/>
+      <c r="N328" s="26"/>
+      <c r="O328" s="4"/>
+    </row>
+    <row r="329" spans="1:15" ht="16" thickTop="1">
+      <c r="C329" t="s">
+        <v>223</v>
+      </c>
+      <c r="F329" t="s">
+        <v>332</v>
+      </c>
+      <c r="G329" t="s">
+        <v>140</v>
+      </c>
+      <c r="O329" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15">
+      <c r="C330" t="s">
+        <v>246</v>
+      </c>
+      <c r="F330" t="s">
+        <v>306</v>
+      </c>
+      <c r="G330" t="s">
+        <v>142</v>
+      </c>
+      <c r="K330" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15">
+      <c r="C331" t="s">
+        <v>333</v>
+      </c>
+      <c r="F331" t="s">
+        <v>318</v>
+      </c>
+      <c r="G331" t="s">
+        <v>140</v>
+      </c>
+      <c r="O331" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15">
+      <c r="C332" t="s">
+        <v>260</v>
+      </c>
+      <c r="G332" t="s">
+        <v>141</v>
+      </c>
+      <c r="I332" s="14">
         <v>0</v>
       </c>
-      <c r="J327" s="14">
+      <c r="J332" s="14">
         <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:15">
-      <c r="C328" t="s">
-        <v>264</v>
-      </c>
-      <c r="G328" t="s">
-        <v>145</v>
-      </c>
-      <c r="I328" s="14">
-        <v>1</v>
-      </c>
-      <c r="J328" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O328" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15">
-      <c r="C329" t="s">
-        <v>266</v>
-      </c>
-      <c r="G329" t="s">
-        <v>145</v>
-      </c>
-      <c r="I329" s="14">
-        <v>1</v>
-      </c>
-      <c r="J329" s="14">
-        <v>256</v>
-      </c>
-      <c r="O329" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" ht="16" thickBot="1">
-      <c r="A331" s="3">
-        <f>COUNTA($A$4:A330)+1</f>
-        <v>12</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="4"/>
-      <c r="G331" s="4"/>
-      <c r="H331" s="4"/>
-      <c r="I331" s="15"/>
-      <c r="J331" s="15"/>
-      <c r="K331" s="4"/>
-      <c r="L331" s="26"/>
-      <c r="M331" s="26"/>
-      <c r="N331" s="26"/>
-      <c r="O331" s="4"/>
-    </row>
-    <row r="332" spans="1:15" ht="16" thickTop="1">
-      <c r="C332" t="s">
-        <v>226</v>
-      </c>
-      <c r="F332" t="s">
-        <v>397</v>
-      </c>
-      <c r="G332" t="s">
-        <v>143</v>
-      </c>
-      <c r="O332" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="333" spans="1:15">
       <c r="C333" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G333" t="s">
-        <v>145</v>
-      </c>
-      <c r="K333" t="s">
-        <v>271</v>
+        <v>142</v>
+      </c>
+      <c r="I333" s="14">
+        <v>1</v>
+      </c>
+      <c r="J333" s="14">
+        <v>4096</v>
+      </c>
+      <c r="O333" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="334" spans="1:15">
       <c r="C334" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G334" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15">
-      <c r="C335" t="s">
-        <v>273</v>
-      </c>
-      <c r="G335" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="336" spans="1:15">
-      <c r="C336" t="s">
-        <v>274</v>
-      </c>
-      <c r="G336" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="338" spans="1:15" ht="16" thickBot="1">
-      <c r="A338" s="3">
-        <f>COUNTA($A$4:A337)+1</f>
-        <v>13</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
-      <c r="E338" s="4"/>
-      <c r="F338" s="4"/>
-      <c r="G338" s="4"/>
-      <c r="H338" s="4"/>
-      <c r="I338" s="15"/>
-      <c r="J338" s="15"/>
-      <c r="K338" s="4"/>
-      <c r="L338" s="26"/>
-      <c r="M338" s="26"/>
-      <c r="N338" s="26"/>
-      <c r="O338" s="4"/>
-    </row>
-    <row r="339" spans="1:15" ht="16" thickTop="1">
+        <v>142</v>
+      </c>
+      <c r="I334" s="14">
+        <v>1</v>
+      </c>
+      <c r="J334" s="14">
+        <v>256</v>
+      </c>
+      <c r="O334" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" ht="16" thickBot="1">
+      <c r="A336" s="3">
+        <f>COUNTA($A$4:A335)+1</f>
+        <v>12</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
+      <c r="H336" s="4"/>
+      <c r="I336" s="15"/>
+      <c r="J336" s="15"/>
+      <c r="K336" s="4"/>
+      <c r="L336" s="26"/>
+      <c r="M336" s="26"/>
+      <c r="N336" s="26"/>
+      <c r="O336" s="4"/>
+    </row>
+    <row r="337" spans="1:15" ht="16" thickTop="1">
+      <c r="C337" t="s">
+        <v>223</v>
+      </c>
+      <c r="F337" t="s">
+        <v>393</v>
+      </c>
+      <c r="G337" t="s">
+        <v>140</v>
+      </c>
+      <c r="O337" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="C338" t="s">
+        <v>246</v>
+      </c>
+      <c r="G338" t="s">
+        <v>142</v>
+      </c>
+      <c r="K338" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15">
       <c r="C339" t="s">
-        <v>226</v>
-      </c>
-      <c r="F339" t="s">
-        <v>397</v>
+        <v>270</v>
       </c>
       <c r="G339" t="s">
         <v>143</v>
@@ -6732,36 +6754,85 @@
     </row>
     <row r="340" spans="1:15">
       <c r="C340" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="G340" t="s">
-        <v>147</v>
-      </c>
-      <c r="I340" s="14">
-        <v>24</v>
-      </c>
-      <c r="J340" s="14">
-        <v>24</v>
-      </c>
-      <c r="K340" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
     </row>
     <row r="341" spans="1:15">
       <c r="C341" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="G341" t="s">
-        <v>147</v>
-      </c>
-      <c r="I341" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" ht="16" thickBot="1">
+      <c r="A343" s="3">
+        <f>COUNTA($A$4:A342)+1</f>
+        <v>13</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
+      <c r="G343" s="4"/>
+      <c r="H343" s="4"/>
+      <c r="I343" s="15"/>
+      <c r="J343" s="15"/>
+      <c r="K343" s="4"/>
+      <c r="L343" s="26"/>
+      <c r="M343" s="26"/>
+      <c r="N343" s="26"/>
+      <c r="O343" s="4"/>
+    </row>
+    <row r="344" spans="1:15" ht="16" thickTop="1">
+      <c r="C344" t="s">
+        <v>223</v>
+      </c>
+      <c r="F344" t="s">
+        <v>393</v>
+      </c>
+      <c r="G344" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15">
+      <c r="C345" t="s">
+        <v>341</v>
+      </c>
+      <c r="G345" t="s">
+        <v>144</v>
+      </c>
+      <c r="I345" s="14">
         <v>24</v>
       </c>
-      <c r="J341" s="14">
+      <c r="J345" s="14">
         <v>24</v>
       </c>
-      <c r="K341" t="s">
-        <v>343</v>
+      <c r="K345" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15">
+      <c r="C346" t="s">
+        <v>340</v>
+      </c>
+      <c r="G346" t="s">
+        <v>144</v>
+      </c>
+      <c r="I346" s="14">
+        <v>24</v>
+      </c>
+      <c r="J346" s="14">
+        <v>24</v>
+      </c>
+      <c r="K346" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6786,7 +6857,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G73:G80 G134:G140 G143:G165 G167:G170 G172:G214 G216:G298 G300:G1048576 G1:G71 G85:G132</xm:sqref>
+          <xm:sqref>G78:G85 G139:G145 G148:G170 G172:G175 G177:G219 G221:G303 G305:G1048576 G90:G137 G1:G66 G68:G76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{85322518-53BE-DD49-9DAF-2686AECF81BD}">
@@ -6802,7 +6873,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G72</xm:sqref>
+          <xm:sqref>G77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{3B3D28A8-0617-3546-8F98-4028FB409A14}">
@@ -6818,7 +6889,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G133</xm:sqref>
+          <xm:sqref>G138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="6" operator="equal" id="{7E68CD9F-17B0-764E-9328-52BA69CA69BD}">
@@ -6834,7 +6905,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G141:G142</xm:sqref>
+          <xm:sqref>G146:G147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{A33AB7E9-5B25-7346-B043-D0E68F05EA66}">
@@ -6850,7 +6921,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G171 G166</xm:sqref>
+          <xm:sqref>G176 G171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{BCE5CD51-EA0D-464D-AD6D-5433D1054E6C}">
@@ -6866,7 +6937,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G215</xm:sqref>
+          <xm:sqref>G220</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{25F7E9E8-98D9-894A-86C4-D3AC4D83332D}">
@@ -6882,7 +6953,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G299</xm:sqref>
+          <xm:sqref>G304</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{75666685-6E91-DA40-8EC0-BDCEFFC5090C}">
@@ -6898,7 +6969,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G81:G84</xm:sqref>
+          <xm:sqref>G86:G89</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6908,19 +6979,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>G338:G341 G5:G336</xm:sqref>
+          <xm:sqref>G343:G346 G68:G341 G5:G66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N341</xm:sqref>
+          <xm:sqref>N5:N346</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:M341</xm:sqref>
+          <xm:sqref>L5:M346</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6948,81 +7019,81 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7051,25 +7122,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="420">
   <si>
     <t>Communication:</t>
   </si>
@@ -263,9 +263,6 @@
     <t xml:space="preserve"> deposit: returned, used</t>
   </si>
   <si>
-    <t xml:space="preserve"> type: credit card, paypal?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> all done</t>
   </si>
   <si>
@@ -731,9 +728,6 @@
     <t>list of messages</t>
   </si>
   <si>
-    <t xml:space="preserve"> no response </t>
-  </si>
-  <si>
     <t>(max reponse time expired)</t>
   </si>
   <si>
@@ -788,9 +782,6 @@
     <t xml:space="preserve">description </t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>list: user, boat, marina, other</t>
   </si>
   <si>
@@ -827,9 +818,6 @@
     <t>Calendar</t>
   </si>
   <si>
-    <t>list: boat, captain, marina, admin, other</t>
-  </si>
-  <si>
     <t>date from</t>
   </si>
   <si>
@@ -1151,9 +1139,6 @@
     <t>customer service status:</t>
   </si>
   <si>
-    <t xml:space="preserve">money status </t>
-  </si>
-  <si>
     <t>referred by</t>
   </si>
   <si>
@@ -1190,9 +1175,6 @@
     <t>prices</t>
   </si>
   <si>
-    <t xml:space="preserve"> sailo comission_total</t>
-  </si>
-  <si>
     <t>reference number</t>
   </si>
   <si>
@@ -1245,6 +1227,60 @@
   </si>
   <si>
     <t>alcohol</t>
+  </si>
+  <si>
+    <t>date available from</t>
+  </si>
+  <si>
+    <t>NEW TABLE</t>
+  </si>
+  <si>
+    <t>global const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rejected </t>
+  </si>
+  <si>
+    <t>changes requested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no response </t>
+  </si>
+  <si>
+    <t>NEW TABLE; TODO define process</t>
+  </si>
+  <si>
+    <t>application_id</t>
+  </si>
+  <si>
+    <t>link to insurance application table</t>
+  </si>
+  <si>
+    <t>list: none, valid, expired, pending,incomplete</t>
+  </si>
+  <si>
+    <t>define process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment status </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type: credit card</t>
+  </si>
+  <si>
+    <t>list: applied, approved, rejected</t>
+  </si>
+  <si>
+    <t>more details TBD (signature?)</t>
+  </si>
+  <si>
+    <t>TBD if needed</t>
+  </si>
+  <si>
+    <t>geo - location</t>
+  </si>
+  <si>
+    <t>list: boat, captain, user, admin</t>
   </si>
 </sst>
 </file>
@@ -1449,11 +1485,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1879,7 +1923,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="370">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2061,6 +2105,10 @@
     <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2241,79 +2289,13 @@
     <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2734,11 +2716,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O346"/>
+  <dimension ref="A1:O348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <pane ySplit="3" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2757,14 +2739,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G1" s="7">
         <v>2</v>
@@ -2786,41 +2768,41 @@
     </row>
     <row r="3" spans="1:15" ht="48" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
@@ -2828,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -2849,35 +2831,35 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="C7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2885,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" s="14">
         <v>1</v>
@@ -2899,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I9" s="14">
         <v>1</v>
@@ -2908,7 +2890,7 @@
         <v>4096</v>
       </c>
       <c r="O9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2916,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" s="14">
         <v>1</v>
@@ -2930,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I11" s="14">
         <v>1</v>
@@ -2944,13 +2926,13 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" s="14">
         <v>1850</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2958,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="14">
         <v>1</v>
@@ -2972,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -2986,7 +2968,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I15" s="14">
         <v>1</v>
@@ -3000,13 +2982,13 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I16" s="14">
         <v>1850</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -3014,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I17" s="14">
         <v>0</v>
@@ -3023,15 +3005,15 @@
         <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="C18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I18" s="14">
         <v>3</v>
@@ -3040,15 +3022,15 @@
         <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="C19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I19" s="14">
         <v>3</v>
@@ -3057,15 +3039,15 @@
         <v>300</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="C20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
@@ -3074,18 +3056,18 @@
         <v>100000</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="C21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I21" s="14">
         <v>0</v>
@@ -3094,7 +3076,7 @@
         <v>300</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3102,7 +3084,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="14">
         <v>0</v>
@@ -3116,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I23" s="14">
         <v>0</v>
@@ -3130,7 +3112,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I24" s="14">
         <v>1</v>
@@ -3141,21 +3123,21 @@
     </row>
     <row r="25" spans="1:15">
       <c r="C25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="C26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I26" s="14">
         <v>1</v>
@@ -3164,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3175,50 +3157,50 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="C28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I28" s="14">
         <v>0</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="C29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I29" s="14">
         <v>0</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3227,10 +3209,10 @@
         <v>16</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3238,16 +3220,16 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3255,16 +3237,16 @@
         <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3272,16 +3254,16 @@
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3289,16 +3271,16 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3306,16 +3288,16 @@
         <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3323,16 +3305,16 @@
         <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3340,16 +3322,16 @@
         <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3360,32 +3342,32 @@
     </row>
     <row r="39" spans="1:15">
       <c r="C39" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="D40" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G40" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="D41" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I41" s="14">
         <v>1</v>
@@ -3396,21 +3378,21 @@
     </row>
     <row r="42" spans="1:15">
       <c r="D42" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G42" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="D43" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I43" s="14">
         <v>1</v>
@@ -3419,80 +3401,80 @@
         <v>200</v>
       </c>
       <c r="O43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="D44" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G44" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="D45" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="D46" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="C47" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="C48" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="D49" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="D50" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="D51" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3503,25 +3485,25 @@
     <row r="53" spans="1:15">
       <c r="A53" s="31"/>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="31"/>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3529,16 +3511,16 @@
         <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K55" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="20" customFormat="1">
@@ -3546,20 +3528,20 @@
         <v>27</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L56" s="28"/>
       <c r="M56" s="28"/>
       <c r="N56" s="28" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3567,16 +3549,16 @@
         <v>31</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N57" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O57" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3584,45 +3566,45 @@
         <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K58" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N58" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O58" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="C59" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F59" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I59" s="14">
         <v>0</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K59" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N59" s="25" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O59" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3650,7 +3632,7 @@
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="23">
@@ -3664,7 +3646,7 @@
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
       <c r="O61" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3675,7 +3657,7 @@
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="23">
@@ -3689,18 +3671,18 @@
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
       <c r="O62" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="C63" s="22"/>
       <c r="D63" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="23">
@@ -3710,18 +3692,18 @@
         <v>48</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
       <c r="O63" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="C64" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
@@ -3731,13 +3713,13 @@
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
       <c r="N64" s="29"/>
       <c r="O64" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="16" thickBot="1">
@@ -3746,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3764,40 +3746,40 @@
     </row>
     <row r="67" spans="1:15" ht="16" thickTop="1">
       <c r="C67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="C68" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="C69" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F69" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="C70" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I70" s="14">
         <v>1</v>
@@ -3806,7 +3788,7 @@
         <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="16" thickBot="1">
@@ -3815,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3833,24 +3815,24 @@
     </row>
     <row r="73" spans="1:15" ht="16" thickTop="1">
       <c r="C73" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F73" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="C74" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I74" s="14">
         <v>1</v>
@@ -3861,10 +3843,10 @@
     </row>
     <row r="75" spans="1:15">
       <c r="C75" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I75" s="14">
         <v>1</v>
@@ -3873,18 +3855,18 @@
         <v>35</v>
       </c>
       <c r="K75" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="C76" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I76" s="14">
         <v>1</v>
@@ -3893,15 +3875,15 @@
         <v>300</v>
       </c>
       <c r="O76" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="C77" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I77" s="14">
         <v>1</v>
@@ -3910,15 +3892,15 @@
         <v>1000000</v>
       </c>
       <c r="O77" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="C78" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I78" s="14">
         <v>1</v>
@@ -3927,44 +3909,44 @@
         <v>4096</v>
       </c>
       <c r="O78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="C79" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="31"/>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="31"/>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="C82" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I82" s="14">
         <v>1</v>
@@ -3973,36 +3955,36 @@
         <v>5000</v>
       </c>
       <c r="K82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="31"/>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K83" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N83" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="C84" s="22"/>
       <c r="D84" s="22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23">
@@ -4016,105 +3998,117 @@
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
       <c r="O84" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="31"/>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K85" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N85" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O85" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="C86" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="D87" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="D88" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:15">
-      <c r="D89" t="s">
-        <v>398</v>
-      </c>
-      <c r="G89" t="s">
-        <v>141</v>
+      <c r="C89" t="s">
+        <v>295</v>
+      </c>
+      <c r="O89" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="C90" t="s">
-        <v>299</v>
-      </c>
-      <c r="O90" t="s">
-        <v>351</v>
+      <c r="D90" t="s">
+        <v>331</v>
+      </c>
+      <c r="G90" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="D91" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="D92" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G92" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="D93" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="D93" t="s">
-        <v>337</v>
-      </c>
-      <c r="G93" t="s">
-        <v>140</v>
-      </c>
-      <c r="K93" t="s">
-        <v>173</v>
-      </c>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="22"/>
     </row>
     <row r="94" spans="1:15">
       <c r="D94" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
       <c r="G94" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="23"/>
       <c r="J94" s="23"/>
       <c r="K94" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L94" s="29"/>
       <c r="M94" s="29"/>
@@ -4122,133 +4116,133 @@
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="D95" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H95" s="22"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="22"/>
+      <c r="C95" t="s">
+        <v>296</v>
+      </c>
+      <c r="O95" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="C96" t="s">
-        <v>300</v>
-      </c>
-      <c r="O96" t="s">
-        <v>185</v>
+      <c r="D96" t="s">
+        <v>344</v>
+      </c>
+      <c r="G96" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="D97" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="D98" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G98" t="s">
+        <v>139</v>
+      </c>
+      <c r="K98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="D99" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="D99" t="s">
-        <v>350</v>
-      </c>
-      <c r="G99" t="s">
-        <v>140</v>
-      </c>
-      <c r="K99" t="s">
-        <v>173</v>
-      </c>
+      <c r="H99" s="22"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="22"/>
     </row>
     <row r="100" spans="1:15">
       <c r="D100" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
       <c r="G100" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
       <c r="K100" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L100" s="29"/>
       <c r="M100" s="29"/>
       <c r="N100" s="29"/>
       <c r="O100" s="22"/>
     </row>
-    <row r="101" spans="1:15">
-      <c r="D101" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="22"/>
-    </row>
-    <row r="103" spans="1:15" ht="16" thickBot="1">
-      <c r="A103" s="3">
-        <f>COUNTA($A$4:A102)+1</f>
+    <row r="102" spans="1:15" ht="16" thickBot="1">
+      <c r="A102" s="3">
+        <f>COUNTA($A$4:A101)+1</f>
         <v>4</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="1:15" ht="16" thickTop="1">
-      <c r="C104" t="s">
+      <c r="B102" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="4"/>
+    </row>
+    <row r="103" spans="1:15" ht="16" thickTop="1">
+      <c r="C103" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="D104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" t="s">
+        <v>141</v>
+      </c>
+      <c r="I104" s="14">
+        <v>1</v>
+      </c>
+      <c r="J104" s="14">
+        <v>256</v>
+      </c>
+      <c r="L104" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="M104" s="25" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="D105" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
       <c r="G105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I105" s="14">
         <v>1</v>
@@ -4257,18 +4251,18 @@
         <v>256</v>
       </c>
       <c r="L105" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M105" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="D106" t="s">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I106" s="14">
         <v>1</v>
@@ -4277,18 +4271,18 @@
         <v>256</v>
       </c>
       <c r="L106" s="25" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M106" s="25" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:15">
-      <c r="D107" t="s">
-        <v>37</v>
+      <c r="C107" t="s">
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I107" s="14">
         <v>1</v>
@@ -4297,57 +4291,51 @@
         <v>256</v>
       </c>
       <c r="L107" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M107" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="C108" t="s">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="G108" t="s">
         <v>142</v>
       </c>
-      <c r="I108" s="14">
-        <v>1</v>
-      </c>
-      <c r="J108" s="14">
-        <v>256</v>
-      </c>
       <c r="L108" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M108" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="C109" t="s">
-        <v>354</v>
-      </c>
-      <c r="G109" t="s">
-        <v>143</v>
-      </c>
-      <c r="L109" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="M109" s="25" t="s">
-        <v>310</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:15">
-      <c r="C110" t="s">
-        <v>39</v>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" t="s">
+        <v>141</v>
+      </c>
+      <c r="I110" s="14">
+        <v>1</v>
+      </c>
+      <c r="J110" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="D111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I111" s="14">
         <v>1</v>
@@ -4358,10 +4346,10 @@
     </row>
     <row r="112" spans="1:15">
       <c r="D112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I112" s="14">
         <v>1</v>
@@ -4369,13 +4357,16 @@
       <c r="J112" s="14">
         <v>256</v>
       </c>
+      <c r="K112" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="113" spans="1:15">
       <c r="D113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I113" s="14">
         <v>1</v>
@@ -4383,132 +4374,132 @@
       <c r="J113" s="14">
         <v>256</v>
       </c>
-      <c r="K113" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="114" spans="1:15">
       <c r="D114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>142</v>
-      </c>
-      <c r="I114" s="14">
-        <v>1</v>
-      </c>
-      <c r="J114" s="14">
-        <v>256</v>
+        <v>139</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="O114" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="D115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>140</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="J115" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="O115" t="s">
+        <v>141</v>
+      </c>
+      <c r="I115" s="14">
+        <v>1</v>
+      </c>
+      <c r="J115" s="14">
+        <v>256</v>
+      </c>
+      <c r="K115" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:15">
-      <c r="D116" t="s">
-        <v>45</v>
-      </c>
-      <c r="G116" t="s">
-        <v>142</v>
-      </c>
-      <c r="I116" s="14">
-        <v>1</v>
-      </c>
-      <c r="J116" s="14">
-        <v>256</v>
-      </c>
-      <c r="K116" t="s">
-        <v>193</v>
+      <c r="C116" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:15">
-      <c r="C117" t="s">
-        <v>46</v>
+      <c r="D117" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:15">
-      <c r="D118" t="s">
-        <v>47</v>
+      <c r="E118" t="s">
+        <v>48</v>
+      </c>
+      <c r="G118" t="s">
+        <v>139</v>
+      </c>
+      <c r="K118" t="s">
+        <v>351</v>
+      </c>
+      <c r="O118" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="E119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K119" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O119" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:15">
-      <c r="E120" t="s">
-        <v>49</v>
+      <c r="D120" t="s">
+        <v>377</v>
       </c>
       <c r="G120" t="s">
-        <v>140</v>
-      </c>
-      <c r="K120" t="s">
-        <v>355</v>
-      </c>
-      <c r="O120" t="s">
-        <v>356</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="D121" t="s">
-        <v>382</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:15">
-      <c r="D122" t="s">
-        <v>50</v>
+      <c r="C122" t="s">
+        <v>378</v>
       </c>
       <c r="G122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="C123" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G123" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="I123" s="14">
+        <v>1</v>
+      </c>
+      <c r="J123" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="K123" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="C124" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I124" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="14">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="K124" t="s">
         <v>195</v>
@@ -4516,237 +4507,237 @@
     </row>
     <row r="125" spans="1:15">
       <c r="C125" t="s">
-        <v>385</v>
+        <v>252</v>
       </c>
       <c r="G125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I125" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="14">
-        <v>100</v>
-      </c>
-      <c r="K125" t="s">
-        <v>196</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="126" spans="1:15">
+      <c r="A126" s="30"/>
       <c r="C126" t="s">
+        <v>353</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="K126" t="s">
         <v>254</v>
       </c>
-      <c r="G126" t="s">
-        <v>142</v>
-      </c>
-      <c r="I126" s="14">
-        <v>1</v>
-      </c>
-      <c r="J126" s="14">
-        <v>4096</v>
+      <c r="N126" s="25" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="30"/>
       <c r="C127" t="s">
-        <v>357</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="G127" t="s">
+        <v>240</v>
       </c>
       <c r="K127" t="s">
-        <v>257</v>
+        <v>354</v>
       </c>
       <c r="N127" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="O127" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="30"/>
       <c r="C128" t="s">
+        <v>225</v>
+      </c>
+      <c r="G128" t="s">
+        <v>240</v>
+      </c>
+      <c r="K128" t="s">
         <v>234</v>
       </c>
-      <c r="G128" t="s">
-        <v>242</v>
-      </c>
-      <c r="K128" t="s">
-        <v>358</v>
-      </c>
       <c r="N128" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="30"/>
-      <c r="C129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="16" thickBot="1">
+      <c r="A130" s="3">
+        <f>COUNTA($A$4:A129)+1</f>
+        <v>5</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G129" t="s">
-        <v>242</v>
-      </c>
-      <c r="K129" t="s">
-        <v>235</v>
-      </c>
-      <c r="N129" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="O129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="16" thickBot="1">
-      <c r="A131" s="3">
-        <f>COUNTA($A$4:A130)+1</f>
-        <v>5</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="1:15" ht="16" thickTop="1">
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="26"/>
+      <c r="M130" s="26"/>
+      <c r="N130" s="26"/>
+      <c r="O130" s="4"/>
+    </row>
+    <row r="131" spans="1:15" ht="16" thickTop="1">
+      <c r="C131" t="s">
+        <v>361</v>
+      </c>
+      <c r="F131" t="s">
+        <v>302</v>
+      </c>
+      <c r="G131" t="s">
+        <v>139</v>
+      </c>
+      <c r="H131" t="s">
+        <v>306</v>
+      </c>
+      <c r="L131" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="M131" s="25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="C132" t="s">
-        <v>365</v>
-      </c>
-      <c r="F132" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="G132" t="s">
-        <v>140</v>
-      </c>
-      <c r="H132" t="s">
-        <v>310</v>
-      </c>
-      <c r="L132" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="M132" s="25" t="s">
-        <v>308</v>
+        <v>141</v>
+      </c>
+      <c r="K132" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="C133" t="s">
-        <v>366</v>
+        <v>142</v>
       </c>
       <c r="G133" t="s">
-        <v>142</v>
-      </c>
-      <c r="K133" t="s">
-        <v>367</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="C134" t="s">
-        <v>143</v>
+        <v>227</v>
+      </c>
+      <c r="F134" t="s">
+        <v>314</v>
       </c>
       <c r="G134" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="K134" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="C135" t="s">
-        <v>228</v>
-      </c>
-      <c r="F135" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="G135" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K135" t="s">
-        <v>171</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="C136" t="s">
-        <v>362</v>
+        <v>228</v>
+      </c>
+      <c r="F136" t="s">
+        <v>314</v>
       </c>
       <c r="G136" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K136" t="s">
-        <v>363</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="C137" t="s">
-        <v>229</v>
-      </c>
-      <c r="F137" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K137" t="s">
-        <v>171</v>
+        <v>359</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="C138" t="s">
-        <v>364</v>
+        <v>355</v>
+      </c>
+      <c r="F138" t="s">
+        <v>314</v>
       </c>
       <c r="G138" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K138" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="C139" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F139" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K139" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="C140" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F140" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K140" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="C141" t="s">
-        <v>361</v>
-      </c>
-      <c r="F141" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="G141" t="s">
-        <v>140</v>
-      </c>
-      <c r="K141" t="s">
-        <v>223</v>
+        <v>141</v>
+      </c>
+      <c r="I141" s="14">
+        <v>1</v>
+      </c>
+      <c r="J141" s="14">
+        <v>4096</v>
+      </c>
+      <c r="O141" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -4754,458 +4745,465 @@
         <v>230</v>
       </c>
       <c r="G142" t="s">
-        <v>142</v>
-      </c>
-      <c r="I142" s="14">
-        <v>1</v>
-      </c>
-      <c r="J142" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O142" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="C143" t="s">
+        <v>141</v>
+      </c>
+      <c r="K142" t="s">
         <v>231</v>
       </c>
-      <c r="G143" t="s">
-        <v>142</v>
-      </c>
-      <c r="K143" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="16" thickBot="1">
-      <c r="A145" s="3">
-        <f>COUNTA($A$4:A144)+1</f>
+    </row>
+    <row r="144" spans="1:15" ht="16" thickBot="1">
+      <c r="A144" s="3">
+        <f>COUNTA($A$4:A143)+1</f>
         <v>6</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="26"/>
-      <c r="M145" s="26"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="4"/>
-    </row>
-    <row r="146" spans="1:15" ht="16" thickTop="1">
+      <c r="B144" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
+      <c r="N144" s="26"/>
+      <c r="O144" s="4"/>
+    </row>
+    <row r="145" spans="1:15" ht="16" thickTop="1">
+      <c r="C145" t="s">
+        <v>382</v>
+      </c>
+      <c r="F145" t="s">
+        <v>302</v>
+      </c>
+      <c r="G145" t="s">
+        <v>139</v>
+      </c>
+      <c r="H145" t="s">
+        <v>306</v>
+      </c>
+      <c r="L145" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="M145" s="25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="C146" t="s">
-        <v>387</v>
-      </c>
-      <c r="F146" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="G146" t="s">
-        <v>140</v>
-      </c>
-      <c r="H146" t="s">
-        <v>310</v>
-      </c>
-      <c r="L146" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="M146" s="25" t="s">
-        <v>308</v>
+        <v>141</v>
+      </c>
+      <c r="O146" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="C147" t="s">
-        <v>390</v>
+        <v>364</v>
+      </c>
+      <c r="F147" t="s">
+        <v>314</v>
       </c>
       <c r="G147" t="s">
-        <v>142</v>
-      </c>
-      <c r="O147" t="s">
-        <v>391</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:15">
+      <c r="A148" s="31"/>
       <c r="C148" t="s">
-        <v>368</v>
-      </c>
-      <c r="F148" t="s">
-        <v>318</v>
-      </c>
-      <c r="G148" t="s">
+        <v>365</v>
+      </c>
+      <c r="O148" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="D149" t="s">
+        <v>52</v>
+      </c>
+      <c r="G149" t="s">
+        <v>305</v>
+      </c>
+      <c r="K149" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="E150" t="s">
+        <v>53</v>
+      </c>
+      <c r="G150" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="31"/>
+      <c r="E151" t="s">
+        <v>54</v>
+      </c>
+      <c r="G151" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="31"/>
-      <c r="C149" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="D150" t="s">
-        <v>52</v>
-      </c>
-      <c r="G150" t="s">
-        <v>309</v>
-      </c>
-      <c r="K150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="E151" t="s">
+      <c r="K151" t="s">
+        <v>172</v>
+      </c>
+      <c r="O151" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="D152" t="s">
+        <v>55</v>
+      </c>
+      <c r="G152" t="s">
+        <v>305</v>
+      </c>
+      <c r="K152" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="E153" t="s">
         <v>53</v>
       </c>
-      <c r="G151" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="E152" t="s">
-        <v>54</v>
-      </c>
-      <c r="G152" t="s">
-        <v>141</v>
-      </c>
-      <c r="K152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="D153" t="s">
-        <v>55</v>
-      </c>
       <c r="G153" t="s">
-        <v>309</v>
-      </c>
-      <c r="K153" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:15">
-      <c r="E154" t="s">
+      <c r="D154" t="s">
+        <v>407</v>
+      </c>
+      <c r="G154" t="s">
+        <v>305</v>
+      </c>
+      <c r="K154" t="s">
+        <v>161</v>
+      </c>
+      <c r="O154" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="E155" t="s">
         <v>53</v>
       </c>
-      <c r="G154" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
-      <c r="D155" t="s">
-        <v>236</v>
-      </c>
       <c r="G155" t="s">
-        <v>309</v>
-      </c>
-      <c r="K155" t="s">
-        <v>162</v>
-      </c>
-      <c r="O155" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:15">
-      <c r="E156" t="s">
+      <c r="D156" t="s">
+        <v>405</v>
+      </c>
+      <c r="G156" t="s">
+        <v>305</v>
+      </c>
+      <c r="K156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="E157" t="s">
         <v>53</v>
       </c>
-      <c r="G156" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="D157" t="s">
-        <v>57</v>
-      </c>
       <c r="G157" t="s">
-        <v>309</v>
-      </c>
-      <c r="K157" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="E158" t="s">
+        <v>58</v>
+      </c>
+      <c r="G158" t="s">
+        <v>141</v>
+      </c>
+      <c r="I158" s="14">
+        <v>1</v>
+      </c>
+      <c r="J158" s="14">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="D159" t="s">
+        <v>406</v>
+      </c>
+      <c r="G159" t="s">
+        <v>305</v>
+      </c>
+      <c r="K159" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="E160" t="s">
         <v>53</v>
       </c>
-      <c r="G158" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="E159" t="s">
+      <c r="G160" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="E161" t="s">
+        <v>59</v>
+      </c>
+      <c r="G161" t="s">
+        <v>305</v>
+      </c>
+      <c r="K161" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="C162" t="s">
+        <v>366</v>
+      </c>
+      <c r="F162" t="s">
+        <v>314</v>
+      </c>
+      <c r="G162" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="31"/>
+      <c r="C163" t="s">
+        <v>367</v>
+      </c>
+      <c r="O163" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="D164" t="s">
+        <v>52</v>
+      </c>
+      <c r="G164" t="s">
+        <v>305</v>
+      </c>
+      <c r="K164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="E165" t="s">
+        <v>53</v>
+      </c>
+      <c r="G165" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="E166" t="s">
+        <v>381</v>
+      </c>
+      <c r="G166" t="s">
+        <v>140</v>
+      </c>
+      <c r="K166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="D167" t="s">
+        <v>55</v>
+      </c>
+      <c r="G167" t="s">
+        <v>305</v>
+      </c>
+      <c r="K167" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="E168" t="s">
+        <v>53</v>
+      </c>
+      <c r="G168" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="D169" t="s">
+        <v>56</v>
+      </c>
+      <c r="G169" t="s">
+        <v>305</v>
+      </c>
+      <c r="K169" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="E170" t="s">
+        <v>53</v>
+      </c>
+      <c r="G170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="D171" t="s">
+        <v>57</v>
+      </c>
+      <c r="G171" t="s">
+        <v>305</v>
+      </c>
+      <c r="K171" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="E172" t="s">
+        <v>53</v>
+      </c>
+      <c r="G172" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="E173" t="s">
         <v>58</v>
       </c>
-      <c r="G159" t="s">
-        <v>142</v>
-      </c>
-      <c r="I159" s="14">
+      <c r="G173" t="s">
+        <v>141</v>
+      </c>
+      <c r="I173" s="14">
         <v>1</v>
       </c>
-      <c r="J159" s="14">
+      <c r="J173" s="14">
         <v>4096</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
-      <c r="D160" t="s">
-        <v>197</v>
-      </c>
-      <c r="G160" t="s">
-        <v>309</v>
-      </c>
-      <c r="K160" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="E161" t="s">
+    <row r="174" spans="1:15">
+      <c r="D174" t="s">
+        <v>196</v>
+      </c>
+      <c r="G174" t="s">
+        <v>305</v>
+      </c>
+      <c r="K174" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="E175" t="s">
         <v>53</v>
       </c>
-      <c r="G161" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="E162" t="s">
+      <c r="G175" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="E176" t="s">
         <v>59</v>
       </c>
-      <c r="G162" t="s">
-        <v>309</v>
-      </c>
-      <c r="K162" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="C163" t="s">
-        <v>370</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="G176" t="s">
+        <v>305</v>
+      </c>
+      <c r="K176" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="C177" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="D178" t="s">
+        <v>391</v>
+      </c>
+      <c r="G178" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="31"/>
-      <c r="C164" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="D165" t="s">
-        <v>52</v>
-      </c>
-      <c r="G165" t="s">
-        <v>309</v>
-      </c>
-      <c r="K165" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="E166" t="s">
-        <v>53</v>
-      </c>
-      <c r="G166" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="E167" t="s">
-        <v>386</v>
-      </c>
-      <c r="G167" t="s">
-        <v>141</v>
-      </c>
-      <c r="K167" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="D168" t="s">
-        <v>55</v>
-      </c>
-      <c r="G168" t="s">
-        <v>309</v>
-      </c>
-      <c r="K168" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="E169" t="s">
-        <v>53</v>
-      </c>
-      <c r="G169" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="D170" t="s">
-        <v>56</v>
-      </c>
-      <c r="G170" t="s">
-        <v>309</v>
-      </c>
-      <c r="K170" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="E171" t="s">
-        <v>53</v>
-      </c>
-      <c r="G171" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="D172" t="s">
-        <v>57</v>
-      </c>
-      <c r="G172" t="s">
-        <v>309</v>
-      </c>
-      <c r="K172" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="E173" t="s">
-        <v>53</v>
-      </c>
-      <c r="G173" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="E174" t="s">
-        <v>58</v>
-      </c>
-      <c r="G174" t="s">
-        <v>142</v>
-      </c>
-      <c r="I174" s="14">
+    <row r="179" spans="1:15">
+      <c r="D179" t="s">
+        <v>390</v>
+      </c>
+      <c r="G179" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="D180" t="s">
+        <v>389</v>
+      </c>
+      <c r="G180" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="D181" t="s">
+        <v>388</v>
+      </c>
+      <c r="G181" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="D182" t="s">
+        <v>392</v>
+      </c>
+      <c r="G182" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="C183" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="D184" t="s">
+        <v>60</v>
+      </c>
+      <c r="G184" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="D185" t="s">
+        <v>61</v>
+      </c>
+      <c r="G185" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="C186" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="D187" t="s">
+        <v>62</v>
+      </c>
+      <c r="G187" t="s">
+        <v>141</v>
+      </c>
+      <c r="I187" s="14">
         <v>1</v>
       </c>
-      <c r="J174" s="14">
+      <c r="J187" s="14">
         <v>4096</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
-      <c r="D175" t="s">
-        <v>197</v>
-      </c>
-      <c r="G175" t="s">
-        <v>309</v>
-      </c>
-      <c r="K175" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="E176" t="s">
-        <v>53</v>
-      </c>
-      <c r="G176" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="E177" t="s">
-        <v>59</v>
-      </c>
-      <c r="G177" t="s">
-        <v>309</v>
-      </c>
-      <c r="K177" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="C178" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="D179" t="s">
-        <v>397</v>
-      </c>
-      <c r="G179" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="D180" t="s">
-        <v>396</v>
-      </c>
-      <c r="G180" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="D181" t="s">
-        <v>395</v>
-      </c>
-      <c r="G181" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="D182" t="s">
-        <v>394</v>
-      </c>
-      <c r="G182" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="D183" t="s">
-        <v>389</v>
-      </c>
-      <c r="G183" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="C184" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="D185" t="s">
-        <v>60</v>
-      </c>
-      <c r="G185" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="D186" t="s">
-        <v>61</v>
-      </c>
-      <c r="G186" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="C187" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:15">
       <c r="D188" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I188" s="14">
         <v>1</v>
@@ -5214,12 +5212,12 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:15">
       <c r="D189" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G189" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I189" s="14">
         <v>1</v>
@@ -5228,162 +5226,166 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
-      <c r="D190" t="s">
-        <v>63</v>
-      </c>
-      <c r="G190" t="s">
-        <v>142</v>
-      </c>
-      <c r="I190" s="14">
-        <v>1</v>
-      </c>
-      <c r="J190" s="14">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+    <row r="190" spans="1:15">
+      <c r="A190" s="31"/>
+      <c r="C190" t="s">
+        <v>370</v>
+      </c>
+      <c r="O190" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" s="31"/>
-      <c r="C191" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="G191" t="s">
+        <v>305</v>
+      </c>
+      <c r="K191" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" s="31"/>
       <c r="D192" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G192" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K192" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="31"/>
       <c r="D193" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G193" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K193" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="31"/>
       <c r="D194" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G194" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K194" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="31"/>
       <c r="D195" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G195" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K195" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="31"/>
       <c r="D196" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G196" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K196" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="31"/>
       <c r="D197" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G197" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K197" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="31"/>
       <c r="D198" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G198" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K198" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="31"/>
       <c r="D199" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G199" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K199" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="31"/>
       <c r="D200" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G200" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K200" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="31"/>
-      <c r="D201" t="s">
-        <v>73</v>
-      </c>
-      <c r="G201" t="s">
-        <v>309</v>
-      </c>
-      <c r="K201" t="s">
-        <v>162</v>
+      <c r="C201" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="31"/>
-      <c r="C202" t="s">
-        <v>375</v>
+      <c r="D202" t="s">
+        <v>74</v>
+      </c>
+      <c r="G202" t="s">
+        <v>305</v>
+      </c>
+      <c r="K202" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="31"/>
       <c r="D203" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="G203" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K203" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="O203" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="1:15">
@@ -5392,10 +5394,10 @@
         <v>202</v>
       </c>
       <c r="G204" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K204" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O204" t="s">
         <v>198</v>
@@ -5407,10 +5409,10 @@
         <v>203</v>
       </c>
       <c r="G205" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O205" t="s">
         <v>199</v>
@@ -5422,10 +5424,10 @@
         <v>204</v>
       </c>
       <c r="G206" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K206" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O206" t="s">
         <v>200</v>
@@ -5433,83 +5435,83 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="31"/>
-      <c r="D207" t="s">
-        <v>205</v>
-      </c>
-      <c r="G207" t="s">
-        <v>309</v>
-      </c>
-      <c r="K207" t="s">
-        <v>162</v>
+      <c r="C207" t="s">
+        <v>413</v>
       </c>
       <c r="O207" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="31"/>
-      <c r="C208" t="s">
-        <v>376</v>
+      <c r="D208" t="s">
+        <v>75</v>
+      </c>
+      <c r="G208" t="s">
+        <v>305</v>
+      </c>
+      <c r="K208" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="31"/>
       <c r="D209" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G209" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K209" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="31"/>
       <c r="D210" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G210" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K210" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="31"/>
       <c r="D211" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G211" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K211" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="31"/>
       <c r="D212" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G212" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K212" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="31"/>
       <c r="D213" t="s">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="G213" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K213" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="214" spans="1:15">
@@ -5518,95 +5520,94 @@
         <v>80</v>
       </c>
       <c r="G214" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K214" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15">
-      <c r="A215" s="31"/>
-      <c r="D215" t="s">
-        <v>81</v>
-      </c>
-      <c r="G215" t="s">
-        <v>309</v>
-      </c>
-      <c r="K215" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" ht="16" thickBot="1">
-      <c r="A218" s="3">
-        <f>COUNTA($A$4:A217)+1</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="16" thickBot="1">
+      <c r="A217" s="3">
+        <f>COUNTA($A$4:A216)+1</f>
         <v>7</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
-      <c r="I218" s="15"/>
-      <c r="J218" s="15"/>
-      <c r="K218" s="4"/>
-      <c r="L218" s="26"/>
-      <c r="M218" s="26"/>
-      <c r="N218" s="26"/>
-      <c r="O218" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" ht="16" thickTop="1">
+      <c r="B217" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="15"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="26"/>
+      <c r="M217" s="26"/>
+      <c r="N217" s="26"/>
+      <c r="O217" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="16" thickTop="1">
+      <c r="C218" t="s">
+        <v>386</v>
+      </c>
+      <c r="F218" t="s">
+        <v>302</v>
+      </c>
+      <c r="G218" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
       <c r="C219" t="s">
-        <v>392</v>
-      </c>
-      <c r="F219" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="G219" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:15">
       <c r="C220" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="G220" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:15">
       <c r="C221" t="s">
-        <v>143</v>
-      </c>
-      <c r="G221" t="s">
-        <v>145</v>
+        <v>230</v>
+      </c>
+      <c r="K221" t="s">
+        <v>415</v>
+      </c>
+      <c r="O221" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="222" spans="1:15">
       <c r="C222" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G222" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:15">
       <c r="C223" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G223" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="31"/>
       <c r="C224" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="3:7">
@@ -5614,15 +5615,15 @@
         <v>14</v>
       </c>
       <c r="G225" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="226" spans="3:7">
       <c r="D226" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G226" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="227" spans="3:7">
@@ -5630,15 +5631,15 @@
         <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="228" spans="3:7">
       <c r="D228" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G228" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="3:7">
@@ -5646,7 +5647,7 @@
         <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="230" spans="3:7">
@@ -5654,15 +5655,15 @@
         <v>42</v>
       </c>
       <c r="G230" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="3:7">
       <c r="D231" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G231" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="232" spans="3:7">
@@ -5670,36 +5671,36 @@
         <v>50</v>
       </c>
       <c r="G232" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="233" spans="3:7">
       <c r="D233" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G233" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="234" spans="3:7">
       <c r="D234" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G234" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="235" spans="3:7">
       <c r="C235" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="236" spans="3:7">
       <c r="D236" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G236" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="3:7">
@@ -5707,15 +5708,15 @@
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="3:7">
       <c r="D238" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G238" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="239" spans="3:7">
@@ -5723,36 +5724,36 @@
         <v>3</v>
       </c>
       <c r="G239" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="240" spans="3:7">
       <c r="D240" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="3:15">
       <c r="E241" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G241" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="242" spans="3:15">
       <c r="E242" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G242" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="243" spans="3:15">
       <c r="E243" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G243" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="244" spans="3:15">
@@ -5760,51 +5761,51 @@
         <v>9</v>
       </c>
       <c r="G244" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="3:15">
       <c r="D245" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G245" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K245" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="246" spans="3:15">
       <c r="D246" t="s">
+        <v>207</v>
+      </c>
+      <c r="G246" t="s">
+        <v>141</v>
+      </c>
+      <c r="K246" t="s">
         <v>208</v>
-      </c>
-      <c r="G246" t="s">
-        <v>142</v>
-      </c>
-      <c r="K246" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="247" spans="3:15">
       <c r="D247" t="s">
+        <v>209</v>
+      </c>
+      <c r="G247" t="s">
+        <v>141</v>
+      </c>
+      <c r="K247" t="s">
         <v>210</v>
-      </c>
-      <c r="G247" t="s">
-        <v>142</v>
-      </c>
-      <c r="K247" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="248" spans="3:15">
       <c r="D248" t="s">
+        <v>211</v>
+      </c>
+      <c r="G248" t="s">
+        <v>146</v>
+      </c>
+      <c r="K248" t="s">
         <v>212</v>
-      </c>
-      <c r="G248" t="s">
-        <v>147</v>
-      </c>
-      <c r="K248" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="249" spans="3:15">
@@ -5812,47 +5813,47 @@
         <v>23</v>
       </c>
       <c r="G249" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K249" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="250" spans="3:15">
       <c r="C250" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="251" spans="3:15">
       <c r="D251" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O251" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="252" spans="3:15">
       <c r="D252" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G252" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="253" spans="3:15">
       <c r="D253" t="s">
+        <v>214</v>
+      </c>
+      <c r="G253" t="s">
+        <v>146</v>
+      </c>
+      <c r="K253" t="s">
         <v>215</v>
-      </c>
-      <c r="G253" t="s">
-        <v>147</v>
-      </c>
-      <c r="K253" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="254" spans="3:15">
       <c r="D254" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255" spans="3:15">
@@ -5860,248 +5861,248 @@
         <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="256" spans="3:15">
       <c r="E256" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G256" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="257" spans="3:15">
       <c r="E257" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G257" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="258" spans="3:15">
       <c r="E258" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G258" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="259" spans="3:15">
       <c r="D259" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G259" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="260" spans="3:15">
       <c r="D260" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G260" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K260" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="3:15">
       <c r="D261" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G261" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="262" spans="3:15">
       <c r="D262" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G262" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="263" spans="3:15">
       <c r="D263" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G263" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="264" spans="3:15">
       <c r="D264" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G264" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="265" spans="3:15">
       <c r="D265" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O265" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="266" spans="3:15">
       <c r="D266" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O266" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="267" spans="3:15">
       <c r="D267" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G267" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="268" spans="3:15">
       <c r="D268" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G268" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="269" spans="3:15">
       <c r="D269" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="270" spans="3:15">
       <c r="D270" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G270" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="271" spans="3:15">
       <c r="C271" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="272" spans="3:15">
       <c r="D272" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G272" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="273" spans="1:15">
       <c r="D273" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G273" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K273" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="D274" t="s">
+        <v>216</v>
+      </c>
+      <c r="G274" t="s">
+        <v>146</v>
+      </c>
+      <c r="K274" t="s">
         <v>217</v>
-      </c>
-      <c r="G274" t="s">
-        <v>147</v>
-      </c>
-      <c r="K274" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="D275" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G275" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K275" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="276" spans="1:15">
       <c r="E276" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G276" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="277" spans="1:15">
       <c r="D277" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G277" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="D278" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G278" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="D279" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G279" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="280" spans="1:15">
       <c r="D280" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G280" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="281" spans="1:15">
       <c r="D281" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G281" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="282" spans="1:15">
       <c r="D282" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G282" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="283" spans="1:15">
       <c r="D283" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G283" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="284" spans="1:15">
       <c r="D284" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G284" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="286" spans="1:15" ht="16" thickBot="1">
@@ -6110,7 +6111,7 @@
         <v>8</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -6128,225 +6129,225 @@
     </row>
     <row r="287" spans="1:15" ht="16" thickTop="1">
       <c r="C287" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F287" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G287" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O287" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="288" spans="1:15">
       <c r="C288" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G288" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K288" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="289" spans="1:15">
       <c r="C289" t="s">
-        <v>282</v>
-      </c>
-      <c r="G289" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="K289" t="s">
-        <v>224</v>
+        <v>411</v>
       </c>
     </row>
     <row r="290" spans="1:15">
       <c r="C290" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G290" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K290" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="291" spans="1:15">
       <c r="C291" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="G291" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K291" t="s">
-        <v>162</v>
-      </c>
-      <c r="O291" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
     </row>
     <row r="292" spans="1:15">
       <c r="C292" t="s">
+        <v>293</v>
+      </c>
+      <c r="G292" t="s">
+        <v>141</v>
+      </c>
+      <c r="K292" t="s">
+        <v>161</v>
+      </c>
+      <c r="O292" t="s">
         <v>294</v>
-      </c>
-      <c r="G292" t="s">
-        <v>142</v>
-      </c>
-      <c r="K292" t="s">
-        <v>295</v>
-      </c>
-      <c r="O292" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="293" spans="1:15">
       <c r="C293" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G293" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="K293" t="s">
+        <v>291</v>
       </c>
       <c r="O293" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:15">
       <c r="C294" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="G294" t="s">
-        <v>140</v>
-      </c>
-      <c r="K294" t="s">
-        <v>225</v>
+        <v>146</v>
+      </c>
+      <c r="O294" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="295" spans="1:15">
       <c r="C295" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G295" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="K295" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="296" spans="1:15">
       <c r="C296" t="s">
-        <v>285</v>
-      </c>
-      <c r="G296" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="K296" t="s">
-        <v>224</v>
-      </c>
-      <c r="O296" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="G296" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="297" spans="1:15">
       <c r="C297" t="s">
-        <v>287</v>
-      </c>
-      <c r="G297" t="s">
-        <v>140</v>
+        <v>281</v>
+      </c>
+      <c r="G297" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="K297" t="s">
+        <v>223</v>
+      </c>
+      <c r="O297" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="298" spans="1:15">
       <c r="C298" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G298" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="299" spans="1:15">
       <c r="C299" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G299" t="s">
-        <v>140</v>
-      </c>
-      <c r="O299" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
     </row>
     <row r="300" spans="1:15">
       <c r="C300" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G300" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O300" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15" ht="16" thickBot="1">
-      <c r="A302" s="3">
-        <f>COUNTA($A$4:A301)+1</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
+      <c r="C301" t="s">
+        <v>287</v>
+      </c>
+      <c r="G301" t="s">
+        <v>141</v>
+      </c>
+      <c r="O301" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15">
+      <c r="C302" t="s">
+        <v>409</v>
+      </c>
+      <c r="F302" t="s">
+        <v>314</v>
+      </c>
+      <c r="G302" t="s">
+        <v>240</v>
+      </c>
+      <c r="K302" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" ht="16" thickBot="1">
+      <c r="A304" s="3">
+        <f>COUNTA($A$4:A303)+1</f>
         <v>9</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B304" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="4"/>
-      <c r="G302" s="4"/>
-      <c r="H302" s="4"/>
-      <c r="I302" s="15"/>
-      <c r="J302" s="15"/>
-      <c r="K302" s="4"/>
-      <c r="L302" s="26"/>
-      <c r="M302" s="26"/>
-      <c r="N302" s="26"/>
-      <c r="O302" s="4"/>
-    </row>
-    <row r="303" spans="1:15" ht="16" thickTop="1">
-      <c r="C303" t="s">
-        <v>223</v>
-      </c>
-      <c r="F303" t="s">
-        <v>306</v>
-      </c>
-      <c r="G303" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="304" spans="1:15">
-      <c r="A304" s="31"/>
-      <c r="C304" t="s">
-        <v>122</v>
-      </c>
-      <c r="G304" t="s">
-        <v>242</v>
-      </c>
-      <c r="K304" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15">
-      <c r="A305" s="31"/>
-      <c r="D305" t="s">
-        <v>123</v>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
+      <c r="H304" s="4"/>
+      <c r="I304" s="15"/>
+      <c r="J304" s="15"/>
+      <c r="K304" s="4"/>
+      <c r="L304" s="26"/>
+      <c r="M304" s="26"/>
+      <c r="N304" s="26"/>
+      <c r="O304" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" ht="16" thickTop="1">
+      <c r="C305" t="s">
+        <v>222</v>
+      </c>
+      <c r="F305" t="s">
+        <v>302</v>
       </c>
       <c r="G305" t="s">
-        <v>242</v>
-      </c>
-      <c r="K305" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="31"/>
-      <c r="D306" t="s">
-        <v>124</v>
+      <c r="C306" t="s">
+        <v>121</v>
       </c>
       <c r="G306" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K306" t="s">
         <v>224</v>
@@ -6355,147 +6356,143 @@
     <row r="307" spans="1:15">
       <c r="A307" s="31"/>
       <c r="D307" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G307" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K307" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="31"/>
       <c r="D308" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="G308" t="s">
-        <v>242</v>
-      </c>
-      <c r="O308" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="K308" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="31"/>
-      <c r="C309" t="s">
-        <v>126</v>
+      <c r="D309" t="s">
+        <v>124</v>
       </c>
       <c r="G309" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K309" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="31"/>
       <c r="D310" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="G310" t="s">
-        <v>242</v>
-      </c>
-      <c r="K310" t="s">
-        <v>224</v>
+        <v>240</v>
+      </c>
+      <c r="O310" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="31"/>
-      <c r="D311" t="s">
-        <v>220</v>
+      <c r="C311" t="s">
+        <v>125</v>
       </c>
       <c r="G311" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K311" t="s">
         <v>224</v>
       </c>
-      <c r="O311" t="s">
+    </row>
+    <row r="312" spans="1:15">
+      <c r="A312" s="31"/>
+      <c r="D312" t="s">
+        <v>123</v>
+      </c>
+      <c r="G312" t="s">
+        <v>240</v>
+      </c>
+      <c r="K312" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15">
+      <c r="A313" s="31"/>
+      <c r="D313" t="s">
+        <v>219</v>
+      </c>
+      <c r="G313" t="s">
+        <v>240</v>
+      </c>
+      <c r="K313" t="s">
+        <v>223</v>
+      </c>
+      <c r="O313" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" ht="16" thickBot="1">
+      <c r="A315" s="3">
+        <f>COUNTA($A$4:A314)+1</f>
+        <v>10</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
+      <c r="H315" s="4"/>
+      <c r="I315" s="15"/>
+      <c r="J315" s="15"/>
+      <c r="K315" s="4"/>
+      <c r="L315" s="26"/>
+      <c r="M315" s="26"/>
+      <c r="N315" s="26"/>
+      <c r="O315" s="4"/>
+    </row>
+    <row r="316" spans="1:15" ht="16" thickTop="1">
+      <c r="C316" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" ht="16" thickBot="1">
-      <c r="A313" s="3">
-        <f>COUNTA($A$4:A312)+1</f>
-        <v>10</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4"/>
-      <c r="G313" s="4"/>
-      <c r="H313" s="4"/>
-      <c r="I313" s="15"/>
-      <c r="J313" s="15"/>
-      <c r="K313" s="4"/>
-      <c r="L313" s="26"/>
-      <c r="M313" s="26"/>
-      <c r="N313" s="26"/>
-      <c r="O313" s="4"/>
-    </row>
-    <row r="314" spans="1:15" ht="16" thickTop="1">
-      <c r="C314" t="s">
-        <v>223</v>
-      </c>
-      <c r="F314" t="s">
-        <v>393</v>
-      </c>
-      <c r="G314" t="s">
-        <v>140</v>
-      </c>
-      <c r="O314" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15">
-      <c r="C315" t="s">
-        <v>246</v>
-      </c>
-      <c r="G315" t="s">
-        <v>142</v>
-      </c>
-      <c r="K315" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15">
-      <c r="C316" t="s">
-        <v>247</v>
+      <c r="F316" t="s">
+        <v>387</v>
       </c>
       <c r="G316" t="s">
-        <v>142</v>
-      </c>
-      <c r="I316" s="14">
-        <v>1</v>
-      </c>
-      <c r="J316" s="14">
-        <v>256</v>
+        <v>139</v>
+      </c>
+      <c r="O316" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="317" spans="1:15">
       <c r="C317" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G317" t="s">
-        <v>142</v>
-      </c>
-      <c r="I317" s="14">
-        <v>1</v>
-      </c>
-      <c r="J317" s="14">
-        <v>256</v>
+        <v>141</v>
+      </c>
+      <c r="K317" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="C318" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G318" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I318" s="14">
         <v>1</v>
@@ -6506,10 +6503,10 @@
     </row>
     <row r="319" spans="1:15">
       <c r="C319" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G319" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I319" s="14">
         <v>1</v>
@@ -6520,10 +6517,10 @@
     </row>
     <row r="320" spans="1:15">
       <c r="C320" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G320" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I320" s="14">
         <v>1</v>
@@ -6534,10 +6531,10 @@
     </row>
     <row r="321" spans="1:15">
       <c r="C321" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G321" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I321" s="14">
         <v>1</v>
@@ -6548,291 +6545,325 @@
     </row>
     <row r="322" spans="1:15">
       <c r="C322" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G322" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="I322" s="14">
+        <v>1</v>
+      </c>
+      <c r="J322" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="323" spans="1:15">
       <c r="C323" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G323" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="I323" s="14">
+        <v>1</v>
+      </c>
+      <c r="J323" s="14">
+        <v>256</v>
       </c>
     </row>
     <row r="324" spans="1:15">
       <c r="C324" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="G324" t="s">
+        <v>141</v>
+      </c>
+      <c r="I324" s="14">
+        <v>1</v>
+      </c>
+      <c r="J324" s="14">
+        <v>250</v>
       </c>
     </row>
     <row r="325" spans="1:15">
-      <c r="A325" s="31"/>
-      <c r="D325" t="s">
-        <v>148</v>
-      </c>
-      <c r="G325" t="s">
-        <v>141</v>
+      <c r="C325" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="31"/>
       <c r="D326" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G326" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="328" spans="1:15" ht="16" thickBot="1">
-      <c r="A328" s="3">
-        <f>COUNTA($A$4:A327)+1</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15">
+      <c r="A327" s="31"/>
+      <c r="D327" t="s">
+        <v>148</v>
+      </c>
+      <c r="G327" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" ht="16" thickBot="1">
+      <c r="A329" s="3">
+        <f>COUNTA($A$4:A328)+1</f>
         <v>11</v>
       </c>
-      <c r="B328" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="4"/>
-      <c r="G328" s="4"/>
-      <c r="H328" s="4"/>
-      <c r="I328" s="15"/>
-      <c r="J328" s="15"/>
-      <c r="K328" s="4"/>
-      <c r="L328" s="26"/>
-      <c r="M328" s="26"/>
-      <c r="N328" s="26"/>
-      <c r="O328" s="4"/>
-    </row>
-    <row r="329" spans="1:15" ht="16" thickTop="1">
-      <c r="C329" t="s">
-        <v>223</v>
-      </c>
-      <c r="F329" t="s">
-        <v>332</v>
-      </c>
-      <c r="G329" t="s">
-        <v>140</v>
-      </c>
-      <c r="O329" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15">
+      <c r="B329" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
+      <c r="H329" s="4"/>
+      <c r="I329" s="15"/>
+      <c r="J329" s="15"/>
+      <c r="K329" s="4"/>
+      <c r="L329" s="26"/>
+      <c r="M329" s="26"/>
+      <c r="N329" s="26"/>
+      <c r="O329" s="4"/>
+    </row>
+    <row r="330" spans="1:15" ht="16" thickTop="1">
       <c r="C330" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="F330" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="G330" t="s">
-        <v>142</v>
-      </c>
-      <c r="K330" t="s">
-        <v>259</v>
+        <v>139</v>
+      </c>
+      <c r="O330" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="331" spans="1:15">
       <c r="C331" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="F331" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G331" t="s">
-        <v>140</v>
-      </c>
-      <c r="O331" t="s">
-        <v>334</v>
+        <v>141</v>
+      </c>
+      <c r="K331" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="332" spans="1:15">
       <c r="C332" t="s">
-        <v>260</v>
+        <v>329</v>
+      </c>
+      <c r="F332" t="s">
+        <v>314</v>
       </c>
       <c r="G332" t="s">
-        <v>141</v>
-      </c>
-      <c r="I332" s="14">
-        <v>0</v>
-      </c>
-      <c r="J332" s="14">
-        <v>5</v>
+        <v>139</v>
+      </c>
+      <c r="O332" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:15">
       <c r="C333" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G333" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I333" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="14">
-        <v>4096</v>
-      </c>
-      <c r="O333" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:15">
       <c r="C334" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G334" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I334" s="14">
         <v>1</v>
       </c>
       <c r="J334" s="14">
+        <v>4096</v>
+      </c>
+      <c r="O334" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15">
+      <c r="C335" t="s">
+        <v>260</v>
+      </c>
+      <c r="G335" t="s">
+        <v>141</v>
+      </c>
+      <c r="I335" s="14">
+        <v>1</v>
+      </c>
+      <c r="J335" s="14">
         <v>256</v>
       </c>
-      <c r="O334" t="s">
+      <c r="O335" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="C336" t="s">
+        <v>142</v>
+      </c>
+      <c r="G336" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" ht="16" thickBot="1">
+      <c r="A338" s="3">
+        <f>COUNTA($A$4:A337)+1</f>
+        <v>12</v>
+      </c>
+      <c r="B338" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" ht="16" thickBot="1">
-      <c r="A336" s="3">
-        <f>COUNTA($A$4:A335)+1</f>
-        <v>12</v>
-      </c>
-      <c r="B336" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
-      <c r="E336" s="4"/>
-      <c r="F336" s="4"/>
-      <c r="G336" s="4"/>
-      <c r="H336" s="4"/>
-      <c r="I336" s="15"/>
-      <c r="J336" s="15"/>
-      <c r="K336" s="4"/>
-      <c r="L336" s="26"/>
-      <c r="M336" s="26"/>
-      <c r="N336" s="26"/>
-      <c r="O336" s="4"/>
-    </row>
-    <row r="337" spans="1:15" ht="16" thickTop="1">
-      <c r="C337" t="s">
-        <v>223</v>
-      </c>
-      <c r="F337" t="s">
-        <v>393</v>
-      </c>
-      <c r="G337" t="s">
-        <v>140</v>
-      </c>
-      <c r="O337" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="338" spans="1:15">
-      <c r="C338" t="s">
-        <v>246</v>
-      </c>
-      <c r="G338" t="s">
-        <v>142</v>
-      </c>
-      <c r="K338" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15">
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
+      <c r="H338" s="4"/>
+      <c r="I338" s="15"/>
+      <c r="J338" s="15"/>
+      <c r="K338" s="4"/>
+      <c r="L338" s="26"/>
+      <c r="M338" s="26"/>
+      <c r="N338" s="26"/>
+      <c r="O338" s="4"/>
+    </row>
+    <row r="339" spans="1:15" ht="16" thickTop="1">
       <c r="C339" t="s">
-        <v>270</v>
+        <v>222</v>
+      </c>
+      <c r="F339" t="s">
+        <v>387</v>
       </c>
       <c r="G339" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="O339" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="340" spans="1:15">
       <c r="C340" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="G340" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="K340" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="341" spans="1:15">
       <c r="C341" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="G341" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="343" spans="1:15" ht="16" thickBot="1">
-      <c r="A343" s="3">
-        <f>COUNTA($A$4:A342)+1</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15">
+      <c r="C342" t="s">
+        <v>266</v>
+      </c>
+      <c r="G342" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15">
+      <c r="C343" t="s">
+        <v>267</v>
+      </c>
+      <c r="G343" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" ht="16" thickBot="1">
+      <c r="A345" s="3">
+        <f>COUNTA($A$4:A344)+1</f>
         <v>13</v>
       </c>
-      <c r="B343" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
-      <c r="G343" s="4"/>
-      <c r="H343" s="4"/>
-      <c r="I343" s="15"/>
-      <c r="J343" s="15"/>
-      <c r="K343" s="4"/>
-      <c r="L343" s="26"/>
-      <c r="M343" s="26"/>
-      <c r="N343" s="26"/>
-      <c r="O343" s="4"/>
-    </row>
-    <row r="344" spans="1:15" ht="16" thickTop="1">
-      <c r="C344" t="s">
-        <v>223</v>
-      </c>
-      <c r="F344" t="s">
-        <v>393</v>
-      </c>
-      <c r="G344" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="345" spans="1:15">
-      <c r="C345" t="s">
-        <v>341</v>
-      </c>
-      <c r="G345" t="s">
-        <v>144</v>
-      </c>
-      <c r="I345" s="14">
+      <c r="B345" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="15"/>
+      <c r="J345" s="15"/>
+      <c r="K345" s="4"/>
+      <c r="L345" s="26"/>
+      <c r="M345" s="26"/>
+      <c r="N345" s="26"/>
+      <c r="O345" s="4"/>
+    </row>
+    <row r="346" spans="1:15" ht="16" thickTop="1">
+      <c r="C346" t="s">
+        <v>222</v>
+      </c>
+      <c r="F346" t="s">
+        <v>387</v>
+      </c>
+      <c r="G346" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15">
+      <c r="C347" t="s">
+        <v>337</v>
+      </c>
+      <c r="G347" t="s">
+        <v>143</v>
+      </c>
+      <c r="I347" s="14">
         <v>24</v>
       </c>
-      <c r="J345" s="14">
+      <c r="J347" s="14">
         <v>24</v>
       </c>
-      <c r="K345" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="346" spans="1:15">
-      <c r="C346" t="s">
-        <v>340</v>
-      </c>
-      <c r="G346" t="s">
-        <v>144</v>
-      </c>
-      <c r="I346" s="14">
+      <c r="K347" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15">
+      <c r="C348" t="s">
+        <v>336</v>
+      </c>
+      <c r="G348" t="s">
+        <v>143</v>
+      </c>
+      <c r="I348" s="14">
         <v>24</v>
       </c>
-      <c r="J346" s="14">
+      <c r="J348" s="14">
         <v>24</v>
       </c>
-      <c r="K346" t="s">
-        <v>339</v>
+      <c r="K348" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6857,7 +6888,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G78:G85 G139:G145 G148:G170 G172:G175 G177:G219 G221:G303 G305:G1048576 G90:G137 G1:G66 G68:G76</xm:sqref>
+          <xm:sqref>G138:G144 G147:G169 G171:G174 G220:G305 G1:G66 G68:G76 G78:G136 G176:G218 G307:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{85322518-53BE-DD49-9DAF-2686AECF81BD}">
@@ -6889,7 +6920,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G138</xm:sqref>
+          <xm:sqref>G137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="6" operator="equal" id="{7E68CD9F-17B0-764E-9328-52BA69CA69BD}">
@@ -6905,7 +6936,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G146:G147</xm:sqref>
+          <xm:sqref>G145:G146</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{A33AB7E9-5B25-7346-B043-D0E68F05EA66}">
@@ -6921,7 +6952,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G176 G171</xm:sqref>
+          <xm:sqref>G175 G170</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{BCE5CD51-EA0D-464D-AD6D-5433D1054E6C}">
@@ -6937,7 +6968,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G220</xm:sqref>
+          <xm:sqref>G219</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{25F7E9E8-98D9-894A-86C4-D3AC4D83332D}">
@@ -6953,23 +6984,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G304</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{75666685-6E91-DA40-8EC0-BDCEFFC5090C}">
-            <xm:f>Sheet2!$A$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G86:G89</xm:sqref>
+          <xm:sqref>G306</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6979,19 +6994,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>G343:G346 G68:G341 G5:G66</xm:sqref>
+          <xm:sqref>G345:G348 G5:G66 G68:G343</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N346</xm:sqref>
+          <xm:sqref>N5:N348</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:M346</xm:sqref>
+          <xm:sqref>L5:M348</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7019,81 +7034,81 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7122,25 +7137,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
